--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>システム名</t>
   </si>
@@ -212,13 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの回答</t>
-    <rPh sb="4" eb="6">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題文</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -226,38 +219,6 @@
     <rPh sb="2" eb="3">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Entity.question_answer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の回答</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Entity.question_text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>教科名</t>
-    <rPh sb="0" eb="2">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Entity.question_subject</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -395,7 +356,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AnswerForm.select</t>
+    <t>Form.ユーザの解答</t>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの回答のリスト</t>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Entity.問題文</t>
+    <rPh sb="7" eb="10">
+      <t>モンダイブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Entity.解答</t>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutputForm.問題番号</t>
+    <rPh sb="11" eb="15">
+      <t>モンダイバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題番号</t>
+    <rPh sb="0" eb="4">
+      <t>モンダイバンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -513,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -906,36 +905,8 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -946,7 +917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1019,13 +990,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,19 +1002,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,11 +1032,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,6 +1051,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,86 +1122,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1535,7 +1509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1545,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:BU32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1559,102 +1533,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="57" t="s">
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="71"/>
+      <c r="BT1" s="71"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="71"/>
+      <c r="BW1" s="71"/>
+      <c r="BX1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="46"/>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="46"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2596,102 +2570,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="50" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="51"/>
-      <c r="BT2" s="51"/>
-      <c r="BU2" s="51"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="51"/>
-      <c r="BX2" s="52" t="s">
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="64"/>
+      <c r="BX2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="53"/>
-      <c r="CF2" s="53"/>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
+      <c r="BY2" s="65"/>
+      <c r="BZ2" s="65"/>
+      <c r="CA2" s="65"/>
+      <c r="CB2" s="66"/>
+      <c r="CC2" s="66"/>
+      <c r="CD2" s="66"/>
+      <c r="CE2" s="66"/>
+      <c r="CF2" s="66"/>
+      <c r="CG2" s="66"/>
+      <c r="CH2" s="66"/>
+      <c r="CI2" s="66"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3721,100 +3695,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="67" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="61" t="s">
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="61"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="61"/>
-      <c r="CG4" s="61"/>
-      <c r="CH4" s="61"/>
-      <c r="CI4" s="61"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4756,100 +4730,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="62">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="68" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="69" t="s">
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="69"/>
-      <c r="BI5" s="69"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="69"/>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="69"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="69"/>
-      <c r="CA5" s="69"/>
-      <c r="CB5" s="69"/>
-      <c r="CC5" s="69"/>
-      <c r="CD5" s="69"/>
-      <c r="CE5" s="69"/>
-      <c r="CF5" s="69"/>
-      <c r="CG5" s="69"/>
-      <c r="CH5" s="69"/>
-      <c r="CI5" s="69"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="58"/>
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="58"/>
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="58"/>
+      <c r="BT5" s="58"/>
+      <c r="BU5" s="58"/>
+      <c r="BV5" s="58"/>
+      <c r="BW5" s="58"/>
+      <c r="BX5" s="58"/>
+      <c r="BY5" s="58"/>
+      <c r="BZ5" s="58"/>
+      <c r="CA5" s="58"/>
+      <c r="CB5" s="58"/>
+      <c r="CC5" s="58"/>
+      <c r="CD5" s="58"/>
+      <c r="CE5" s="58"/>
+      <c r="CF5" s="58"/>
+      <c r="CG5" s="58"/>
+      <c r="CH5" s="58"/>
+      <c r="CI5" s="58"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5878,201 +5852,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="43" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="43" t="s">
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="61" t="s">
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
-      <c r="BP7" s="61"/>
-      <c r="BQ7" s="61"/>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="61"/>
-      <c r="BU7" s="61"/>
-      <c r="BV7" s="61"/>
-      <c r="BW7" s="61"/>
-      <c r="BX7" s="61"/>
-      <c r="BY7" s="61"/>
-      <c r="BZ7" s="61"/>
-      <c r="CA7" s="61"/>
-      <c r="CB7" s="61"/>
-      <c r="CC7" s="61"/>
-      <c r="CD7" s="61"/>
-      <c r="CE7" s="61"/>
-      <c r="CF7" s="61"/>
-      <c r="CG7" s="61"/>
-      <c r="CH7" s="61"/>
-      <c r="CI7" s="61"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="49"/>
+      <c r="BV7" s="49"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="49"/>
+      <c r="CD7" s="49"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="49"/>
+      <c r="CI7" s="49"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="62">
+      <c r="B8" s="50">
         <v>2</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="41" t="s">
-        <v>57</v>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="39" t="s">
+        <v>51</v>
       </c>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="41" t="s">
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="63" t="s">
-        <v>49</v>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="52" t="s">
+        <v>43</v>
       </c>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="63"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="63"/>
-      <c r="BT8" s="63"/>
-      <c r="BU8" s="63"/>
-      <c r="BV8" s="63"/>
-      <c r="BW8" s="63"/>
-      <c r="BX8" s="63"/>
-      <c r="BY8" s="63"/>
-      <c r="BZ8" s="63"/>
-      <c r="CA8" s="63"/>
-      <c r="CB8" s="63"/>
-      <c r="CC8" s="63"/>
-      <c r="CD8" s="63"/>
-      <c r="CE8" s="63"/>
-      <c r="CF8" s="63"/>
-      <c r="CG8" s="63"/>
-      <c r="CH8" s="63"/>
-      <c r="CI8" s="63"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="52"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="52"/>
+      <c r="BT8" s="52"/>
+      <c r="BU8" s="52"/>
+      <c r="BV8" s="52"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10100,69 +10074,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="41"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11132,69 +11106,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <v>1</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41" t="s">
-        <v>31</v>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="39" t="s">
+        <v>53</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="41" t="s">
-        <v>58</v>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="39" t="s">
+        <v>52</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="AZ13" s="39"/>
-      <c r="BA13" s="39"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="39"/>
-      <c r="BJ13" s="39"/>
-      <c r="BK13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
+      <c r="BI13" s="40"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="41"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12164,69 +12138,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>2</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41" t="s">
-        <v>32</v>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="39" t="s">
+        <v>31</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="41" t="s">
-        <v>35</v>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="39" t="s">
+        <v>54</v>
       </c>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="39"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="39"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BI14" s="40"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="41"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13196,69 +13170,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <v>3</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41" t="s">
-        <v>34</v>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="39" t="s">
+        <v>38</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41" t="s">
-        <v>33</v>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="39" t="s">
+        <v>55</v>
       </c>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="39"/>
-      <c r="AZ15" s="39"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="39"/>
-      <c r="BC15" s="39"/>
-      <c r="BD15" s="39"/>
-      <c r="BE15" s="39"/>
-      <c r="BF15" s="39"/>
-      <c r="BG15" s="39"/>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
-      <c r="BK15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="40"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="40"/>
+      <c r="BH15" s="40"/>
+      <c r="BI15" s="40"/>
+      <c r="BJ15" s="40"/>
+      <c r="BK15" s="41"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -14228,69 +14202,63 @@
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="41">
-        <v>4</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="40"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
       <c r="BL16" s="23"/>
       <c r="BM16" s="23"/>
       <c r="BN16" s="23"/>
@@ -15260,63 +15228,63 @@
       <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="23"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="74"/>
-      <c r="AS17" s="74"/>
-      <c r="AT17" s="74"/>
-      <c r="AU17" s="74"/>
-      <c r="AV17" s="74"/>
-      <c r="AW17" s="74"/>
-      <c r="AX17" s="74"/>
-      <c r="AY17" s="74"/>
-      <c r="AZ17" s="74"/>
-      <c r="BA17" s="74"/>
-      <c r="BB17" s="74"/>
-      <c r="BC17" s="74"/>
-      <c r="BD17" s="74"/>
-      <c r="BE17" s="74"/>
-      <c r="BF17" s="74"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="74"/>
-      <c r="BJ17" s="74"/>
-      <c r="BK17" s="74"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="32"/>
       <c r="BL17" s="23"/>
       <c r="BM17" s="23"/>
       <c r="BN17" s="23"/>
@@ -16284,12 +16252,14 @@
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -16304,47 +16274,47 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
       <c r="Y18" s="23"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="73"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="33"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
       <c r="BL18" s="23"/>
       <c r="BM18" s="23"/>
       <c r="BN18" s="23"/>
@@ -17307,72 +17277,69 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="74"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="74"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="74"/>
-      <c r="BC19" s="74"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="74"/>
-      <c r="BF19" s="74"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="74"/>
-      <c r="BJ19" s="74"/>
-      <c r="BK19" s="74"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
       <c r="BL19" s="23"/>
       <c r="BM19" s="23"/>
       <c r="BN19" s="23"/>
@@ -17397,954 +17364,20 @@
       <c r="CG19" s="16"/>
       <c r="CH19" s="16"/>
       <c r="CI19" s="17"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
-      <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
-      <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
-      <c r="DE19" s="1"/>
-      <c r="DF19" s="1"/>
-      <c r="DG19" s="1"/>
-      <c r="DH19" s="1"/>
-      <c r="DI19" s="1"/>
-      <c r="DJ19" s="1"/>
-      <c r="DK19" s="1"/>
-      <c r="DL19" s="1"/>
-      <c r="DM19" s="1"/>
-      <c r="DN19" s="1"/>
-      <c r="DO19" s="1"/>
-      <c r="DP19" s="1"/>
-      <c r="DQ19" s="1"/>
-      <c r="DR19" s="1"/>
-      <c r="DS19" s="1"/>
-      <c r="DT19" s="1"/>
-      <c r="DU19" s="1"/>
-      <c r="DV19" s="1"/>
-      <c r="DW19" s="1"/>
-      <c r="DX19" s="1"/>
-      <c r="DY19" s="1"/>
-      <c r="DZ19" s="1"/>
-      <c r="EA19" s="1"/>
-      <c r="EB19" s="1"/>
-      <c r="EC19" s="1"/>
-      <c r="ED19" s="1"/>
-      <c r="EE19" s="1"/>
-      <c r="EF19" s="1"/>
-      <c r="EG19" s="1"/>
-      <c r="EH19" s="1"/>
-      <c r="EI19" s="1"/>
-      <c r="EJ19" s="1"/>
-      <c r="EK19" s="1"/>
-      <c r="EL19" s="1"/>
-      <c r="EM19" s="1"/>
-      <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
-      <c r="EP19" s="1"/>
-      <c r="EQ19" s="1"/>
-      <c r="ER19" s="1"/>
-      <c r="ES19" s="1"/>
-      <c r="ET19" s="1"/>
-      <c r="EU19" s="1"/>
-      <c r="EV19" s="1"/>
-      <c r="EW19" s="1"/>
-      <c r="EX19" s="1"/>
-      <c r="EY19" s="1"/>
-      <c r="EZ19" s="1"/>
-      <c r="FA19" s="1"/>
-      <c r="FB19" s="1"/>
-      <c r="FC19" s="1"/>
-      <c r="FD19" s="1"/>
-      <c r="FE19" s="1"/>
-      <c r="FF19" s="1"/>
-      <c r="FG19" s="1"/>
-      <c r="FH19" s="1"/>
-      <c r="FI19" s="1"/>
-      <c r="FJ19" s="1"/>
-      <c r="FK19" s="1"/>
-      <c r="FL19" s="1"/>
-      <c r="FM19" s="1"/>
-      <c r="FN19" s="1"/>
-      <c r="FO19" s="1"/>
-      <c r="FP19" s="1"/>
-      <c r="FQ19" s="1"/>
-      <c r="FR19" s="1"/>
-      <c r="FS19" s="1"/>
-      <c r="FT19" s="1"/>
-      <c r="FU19" s="1"/>
-      <c r="FV19" s="1"/>
-      <c r="FW19" s="1"/>
-      <c r="FX19" s="1"/>
-      <c r="FY19" s="1"/>
-      <c r="FZ19" s="1"/>
-      <c r="GA19" s="1"/>
-      <c r="GB19" s="1"/>
-      <c r="GC19" s="1"/>
-      <c r="GD19" s="1"/>
-      <c r="GE19" s="1"/>
-      <c r="GF19" s="1"/>
-      <c r="GG19" s="1"/>
-      <c r="GH19" s="1"/>
-      <c r="GI19" s="1"/>
-      <c r="GJ19" s="1"/>
-      <c r="GK19" s="1"/>
-      <c r="GL19" s="1"/>
-      <c r="GM19" s="1"/>
-      <c r="GN19" s="1"/>
-      <c r="GO19" s="1"/>
-      <c r="GP19" s="1"/>
-      <c r="GQ19" s="1"/>
-      <c r="GR19" s="1"/>
-      <c r="GS19" s="1"/>
-      <c r="GT19" s="1"/>
-      <c r="GU19" s="1"/>
-      <c r="GV19" s="1"/>
-      <c r="GW19" s="1"/>
-      <c r="GX19" s="1"/>
-      <c r="GY19" s="1"/>
-      <c r="GZ19" s="1"/>
-      <c r="HA19" s="1"/>
-      <c r="HB19" s="1"/>
-      <c r="HC19" s="1"/>
-      <c r="HD19" s="1"/>
-      <c r="HE19" s="1"/>
-      <c r="HF19" s="1"/>
-      <c r="HG19" s="1"/>
-      <c r="HH19" s="1"/>
-      <c r="HI19" s="1"/>
-      <c r="HJ19" s="1"/>
-      <c r="HK19" s="1"/>
-      <c r="HL19" s="1"/>
-      <c r="HM19" s="1"/>
-      <c r="HN19" s="1"/>
-      <c r="HO19" s="1"/>
-      <c r="HP19" s="1"/>
-      <c r="HQ19" s="1"/>
-      <c r="HR19" s="1"/>
-      <c r="HS19" s="1"/>
-      <c r="HT19" s="1"/>
-      <c r="HU19" s="1"/>
-      <c r="HV19" s="1"/>
-      <c r="HW19" s="1"/>
-      <c r="HX19" s="1"/>
-      <c r="HY19" s="1"/>
-      <c r="HZ19" s="1"/>
-      <c r="IA19" s="1"/>
-      <c r="IB19" s="1"/>
-      <c r="IC19" s="1"/>
-      <c r="ID19" s="1"/>
-      <c r="IE19" s="1"/>
-      <c r="IF19" s="1"/>
-      <c r="IG19" s="1"/>
-      <c r="IH19" s="1"/>
-      <c r="II19" s="1"/>
-      <c r="IJ19" s="1"/>
-      <c r="IK19" s="1"/>
-      <c r="IL19" s="1"/>
-      <c r="IM19" s="1"/>
-      <c r="IN19" s="1"/>
-      <c r="IO19" s="1"/>
-      <c r="IP19" s="1"/>
-      <c r="IQ19" s="1"/>
-      <c r="IR19" s="1"/>
-      <c r="IS19" s="1"/>
-      <c r="IT19" s="1"/>
-      <c r="IU19" s="1"/>
-      <c r="IV19" s="1"/>
-      <c r="IW19" s="1"/>
-      <c r="IX19" s="1"/>
-      <c r="IY19" s="1"/>
-      <c r="IZ19" s="1"/>
-      <c r="JA19" s="1"/>
-      <c r="JB19" s="1"/>
-      <c r="JC19" s="1"/>
-      <c r="JD19" s="1"/>
-      <c r="JE19" s="1"/>
-      <c r="JF19" s="1"/>
-      <c r="JG19" s="1"/>
-      <c r="JH19" s="1"/>
-      <c r="JI19" s="1"/>
-      <c r="JJ19" s="1"/>
-      <c r="JK19" s="1"/>
-      <c r="JL19" s="1"/>
-      <c r="JM19" s="1"/>
-      <c r="JN19" s="1"/>
-      <c r="JO19" s="1"/>
-      <c r="JP19" s="1"/>
-      <c r="JQ19" s="1"/>
-      <c r="JR19" s="1"/>
-      <c r="JS19" s="1"/>
-      <c r="JT19" s="1"/>
-      <c r="JU19" s="1"/>
-      <c r="JV19" s="1"/>
-      <c r="JW19" s="1"/>
-      <c r="JX19" s="1"/>
-      <c r="JY19" s="1"/>
-      <c r="JZ19" s="1"/>
-      <c r="KA19" s="1"/>
-      <c r="KB19" s="1"/>
-      <c r="KC19" s="1"/>
-      <c r="KD19" s="1"/>
-      <c r="KE19" s="1"/>
-      <c r="KF19" s="1"/>
-      <c r="KG19" s="1"/>
-      <c r="KH19" s="1"/>
-      <c r="KI19" s="1"/>
-      <c r="KJ19" s="1"/>
-      <c r="KK19" s="1"/>
-      <c r="KL19" s="1"/>
-      <c r="KM19" s="1"/>
-      <c r="KN19" s="1"/>
-      <c r="KO19" s="1"/>
-      <c r="KP19" s="1"/>
-      <c r="KQ19" s="1"/>
-      <c r="KR19" s="1"/>
-      <c r="KS19" s="1"/>
-      <c r="KT19" s="1"/>
-      <c r="KU19" s="1"/>
-      <c r="KV19" s="1"/>
-      <c r="KW19" s="1"/>
-      <c r="KX19" s="1"/>
-      <c r="KY19" s="1"/>
-      <c r="KZ19" s="1"/>
-      <c r="LA19" s="1"/>
-      <c r="LB19" s="1"/>
-      <c r="LC19" s="1"/>
-      <c r="LD19" s="1"/>
-      <c r="LE19" s="1"/>
-      <c r="LF19" s="1"/>
-      <c r="LG19" s="1"/>
-      <c r="LH19" s="1"/>
-      <c r="LI19" s="1"/>
-      <c r="LJ19" s="1"/>
-      <c r="LK19" s="1"/>
-      <c r="LL19" s="1"/>
-      <c r="LM19" s="1"/>
-      <c r="LN19" s="1"/>
-      <c r="LO19" s="1"/>
-      <c r="LP19" s="1"/>
-      <c r="LQ19" s="1"/>
-      <c r="LR19" s="1"/>
-      <c r="LS19" s="1"/>
-      <c r="LT19" s="1"/>
-      <c r="LU19" s="1"/>
-      <c r="LV19" s="1"/>
-      <c r="LW19" s="1"/>
-      <c r="LX19" s="1"/>
-      <c r="LY19" s="1"/>
-      <c r="LZ19" s="1"/>
-      <c r="MA19" s="1"/>
-      <c r="MB19" s="1"/>
-      <c r="MC19" s="1"/>
-      <c r="MD19" s="1"/>
-      <c r="ME19" s="1"/>
-      <c r="MF19" s="1"/>
-      <c r="MG19" s="1"/>
-      <c r="MH19" s="1"/>
-      <c r="MI19" s="1"/>
-      <c r="MJ19" s="1"/>
-      <c r="MK19" s="1"/>
-      <c r="ML19" s="1"/>
-      <c r="MM19" s="1"/>
-      <c r="MN19" s="1"/>
-      <c r="MO19" s="1"/>
-      <c r="MP19" s="1"/>
-      <c r="MQ19" s="1"/>
-      <c r="MR19" s="1"/>
-      <c r="MS19" s="1"/>
-      <c r="MT19" s="1"/>
-      <c r="MU19" s="1"/>
-      <c r="MV19" s="1"/>
-      <c r="MW19" s="1"/>
-      <c r="MX19" s="1"/>
-      <c r="MY19" s="1"/>
-      <c r="MZ19" s="1"/>
-      <c r="NA19" s="1"/>
-      <c r="NB19" s="1"/>
-      <c r="NC19" s="1"/>
-      <c r="ND19" s="1"/>
-      <c r="NE19" s="1"/>
-      <c r="NF19" s="1"/>
-      <c r="NG19" s="1"/>
-      <c r="NH19" s="1"/>
-      <c r="NI19" s="1"/>
-      <c r="NJ19" s="1"/>
-      <c r="NK19" s="1"/>
-      <c r="NL19" s="1"/>
-      <c r="NM19" s="1"/>
-      <c r="NN19" s="1"/>
-      <c r="NO19" s="1"/>
-      <c r="NP19" s="1"/>
-      <c r="NQ19" s="1"/>
-      <c r="NR19" s="1"/>
-      <c r="NS19" s="1"/>
-      <c r="NT19" s="1"/>
-      <c r="NU19" s="1"/>
-      <c r="NV19" s="1"/>
-      <c r="NW19" s="1"/>
-      <c r="NX19" s="1"/>
-      <c r="NY19" s="1"/>
-      <c r="NZ19" s="1"/>
-      <c r="OA19" s="1"/>
-      <c r="OB19" s="1"/>
-      <c r="OC19" s="1"/>
-      <c r="OD19" s="1"/>
-      <c r="OE19" s="1"/>
-      <c r="OF19" s="1"/>
-      <c r="OG19" s="1"/>
-      <c r="OH19" s="1"/>
-      <c r="OI19" s="1"/>
-      <c r="OJ19" s="1"/>
-      <c r="OK19" s="1"/>
-      <c r="OL19" s="1"/>
-      <c r="OM19" s="1"/>
-      <c r="ON19" s="1"/>
-      <c r="OO19" s="1"/>
-      <c r="OP19" s="1"/>
-      <c r="OQ19" s="1"/>
-      <c r="OR19" s="1"/>
-      <c r="OS19" s="1"/>
-      <c r="OT19" s="1"/>
-      <c r="OU19" s="1"/>
-      <c r="OV19" s="1"/>
-      <c r="OW19" s="1"/>
-      <c r="OX19" s="1"/>
-      <c r="OY19" s="1"/>
-      <c r="OZ19" s="1"/>
-      <c r="PA19" s="1"/>
-      <c r="PB19" s="1"/>
-      <c r="PC19" s="1"/>
-      <c r="PD19" s="1"/>
-      <c r="PE19" s="1"/>
-      <c r="PF19" s="1"/>
-      <c r="PG19" s="1"/>
-      <c r="PH19" s="1"/>
-      <c r="PI19" s="1"/>
-      <c r="PJ19" s="1"/>
-      <c r="PK19" s="1"/>
-      <c r="PL19" s="1"/>
-      <c r="PM19" s="1"/>
-      <c r="PN19" s="1"/>
-      <c r="PO19" s="1"/>
-      <c r="PP19" s="1"/>
-      <c r="PQ19" s="1"/>
-      <c r="PR19" s="1"/>
-      <c r="PS19" s="1"/>
-      <c r="PT19" s="1"/>
-      <c r="PU19" s="1"/>
-      <c r="PV19" s="1"/>
-      <c r="PW19" s="1"/>
-      <c r="PX19" s="1"/>
-      <c r="PY19" s="1"/>
-      <c r="PZ19" s="1"/>
-      <c r="QA19" s="1"/>
-      <c r="QB19" s="1"/>
-      <c r="QC19" s="1"/>
-      <c r="QD19" s="1"/>
-      <c r="QE19" s="1"/>
-      <c r="QF19" s="1"/>
-      <c r="QG19" s="1"/>
-      <c r="QH19" s="1"/>
-      <c r="QI19" s="1"/>
-      <c r="QJ19" s="1"/>
-      <c r="QK19" s="1"/>
-      <c r="QL19" s="1"/>
-      <c r="QM19" s="1"/>
-      <c r="QN19" s="1"/>
-      <c r="QO19" s="1"/>
-      <c r="QP19" s="1"/>
-      <c r="QQ19" s="1"/>
-      <c r="QR19" s="1"/>
-      <c r="QS19" s="1"/>
-      <c r="QT19" s="1"/>
-      <c r="QU19" s="1"/>
-      <c r="QV19" s="1"/>
-      <c r="QW19" s="1"/>
-      <c r="QX19" s="1"/>
-      <c r="QY19" s="1"/>
-      <c r="QZ19" s="1"/>
-      <c r="RA19" s="1"/>
-      <c r="RB19" s="1"/>
-      <c r="RC19" s="1"/>
-      <c r="RD19" s="1"/>
-      <c r="RE19" s="1"/>
-      <c r="RF19" s="1"/>
-      <c r="RG19" s="1"/>
-      <c r="RH19" s="1"/>
-      <c r="RI19" s="1"/>
-      <c r="RJ19" s="1"/>
-      <c r="RK19" s="1"/>
-      <c r="RL19" s="1"/>
-      <c r="RM19" s="1"/>
-      <c r="RN19" s="1"/>
-      <c r="RO19" s="1"/>
-      <c r="RP19" s="1"/>
-      <c r="RQ19" s="1"/>
-      <c r="RR19" s="1"/>
-      <c r="RS19" s="1"/>
-      <c r="RT19" s="1"/>
-      <c r="RU19" s="1"/>
-      <c r="RV19" s="1"/>
-      <c r="RW19" s="1"/>
-      <c r="RX19" s="1"/>
-      <c r="RY19" s="1"/>
-      <c r="RZ19" s="1"/>
-      <c r="SA19" s="1"/>
-      <c r="SB19" s="1"/>
-      <c r="SC19" s="1"/>
-      <c r="SD19" s="1"/>
-      <c r="SE19" s="1"/>
-      <c r="SF19" s="1"/>
-      <c r="SG19" s="1"/>
-      <c r="SH19" s="1"/>
-      <c r="SI19" s="1"/>
-      <c r="SJ19" s="1"/>
-      <c r="SK19" s="1"/>
-      <c r="SL19" s="1"/>
-      <c r="SM19" s="1"/>
-      <c r="SN19" s="1"/>
-      <c r="SO19" s="1"/>
-      <c r="SP19" s="1"/>
-      <c r="SQ19" s="1"/>
-      <c r="SR19" s="1"/>
-      <c r="SS19" s="1"/>
-      <c r="ST19" s="1"/>
-      <c r="SU19" s="1"/>
-      <c r="SV19" s="1"/>
-      <c r="SW19" s="1"/>
-      <c r="SX19" s="1"/>
-      <c r="SY19" s="1"/>
-      <c r="SZ19" s="1"/>
-      <c r="TA19" s="1"/>
-      <c r="TB19" s="1"/>
-      <c r="TC19" s="1"/>
-      <c r="TD19" s="1"/>
-      <c r="TE19" s="1"/>
-      <c r="TF19" s="1"/>
-      <c r="TG19" s="1"/>
-      <c r="TH19" s="1"/>
-      <c r="TI19" s="1"/>
-      <c r="TJ19" s="1"/>
-      <c r="TK19" s="1"/>
-      <c r="TL19" s="1"/>
-      <c r="TM19" s="1"/>
-      <c r="TN19" s="1"/>
-      <c r="TO19" s="1"/>
-      <c r="TP19" s="1"/>
-      <c r="TQ19" s="1"/>
-      <c r="TR19" s="1"/>
-      <c r="TS19" s="1"/>
-      <c r="TT19" s="1"/>
-      <c r="TU19" s="1"/>
-      <c r="TV19" s="1"/>
-      <c r="TW19" s="1"/>
-      <c r="TX19" s="1"/>
-      <c r="TY19" s="1"/>
-      <c r="TZ19" s="1"/>
-      <c r="UA19" s="1"/>
-      <c r="UB19" s="1"/>
-      <c r="UC19" s="1"/>
-      <c r="UD19" s="1"/>
-      <c r="UE19" s="1"/>
-      <c r="UF19" s="1"/>
-      <c r="UG19" s="1"/>
-      <c r="UH19" s="1"/>
-      <c r="UI19" s="1"/>
-      <c r="UJ19" s="1"/>
-      <c r="UK19" s="1"/>
-      <c r="UL19" s="1"/>
-      <c r="UM19" s="1"/>
-      <c r="UN19" s="1"/>
-      <c r="UO19" s="1"/>
-      <c r="UP19" s="1"/>
-      <c r="UQ19" s="1"/>
-      <c r="UR19" s="1"/>
-      <c r="US19" s="1"/>
-      <c r="UT19" s="1"/>
-      <c r="UU19" s="1"/>
-      <c r="UV19" s="1"/>
-      <c r="UW19" s="1"/>
-      <c r="UX19" s="1"/>
-      <c r="UY19" s="1"/>
-      <c r="UZ19" s="1"/>
-      <c r="VA19" s="1"/>
-      <c r="VB19" s="1"/>
-      <c r="VC19" s="1"/>
-      <c r="VD19" s="1"/>
-      <c r="VE19" s="1"/>
-      <c r="VF19" s="1"/>
-      <c r="VG19" s="1"/>
-      <c r="VH19" s="1"/>
-      <c r="VI19" s="1"/>
-      <c r="VJ19" s="1"/>
-      <c r="VK19" s="1"/>
-      <c r="VL19" s="1"/>
-      <c r="VM19" s="1"/>
-      <c r="VN19" s="1"/>
-      <c r="VO19" s="1"/>
-      <c r="VP19" s="1"/>
-      <c r="VQ19" s="1"/>
-      <c r="VR19" s="1"/>
-      <c r="VS19" s="1"/>
-      <c r="VT19" s="1"/>
-      <c r="VU19" s="1"/>
-      <c r="VV19" s="1"/>
-      <c r="VW19" s="1"/>
-      <c r="VX19" s="1"/>
-      <c r="VY19" s="1"/>
-      <c r="VZ19" s="1"/>
-      <c r="WA19" s="1"/>
-      <c r="WB19" s="1"/>
-      <c r="WC19" s="1"/>
-      <c r="WD19" s="1"/>
-      <c r="WE19" s="1"/>
-      <c r="WF19" s="1"/>
-      <c r="WG19" s="1"/>
-      <c r="WH19" s="1"/>
-      <c r="WI19" s="1"/>
-      <c r="WJ19" s="1"/>
-      <c r="WK19" s="1"/>
-      <c r="WL19" s="1"/>
-      <c r="WM19" s="1"/>
-      <c r="WN19" s="1"/>
-      <c r="WO19" s="1"/>
-      <c r="WP19" s="1"/>
-      <c r="WQ19" s="1"/>
-      <c r="WR19" s="1"/>
-      <c r="WS19" s="1"/>
-      <c r="WT19" s="1"/>
-      <c r="WU19" s="1"/>
-      <c r="WV19" s="1"/>
-      <c r="WW19" s="1"/>
-      <c r="WX19" s="1"/>
-      <c r="WY19" s="1"/>
-      <c r="WZ19" s="1"/>
-      <c r="XA19" s="1"/>
-      <c r="XB19" s="1"/>
-      <c r="XC19" s="1"/>
-      <c r="XD19" s="1"/>
-      <c r="XE19" s="1"/>
-      <c r="XF19" s="1"/>
-      <c r="XG19" s="1"/>
-      <c r="XH19" s="1"/>
-      <c r="XI19" s="1"/>
-      <c r="XJ19" s="1"/>
-      <c r="XK19" s="1"/>
-      <c r="XL19" s="1"/>
-      <c r="XM19" s="1"/>
-      <c r="XN19" s="1"/>
-      <c r="XO19" s="1"/>
-      <c r="XP19" s="1"/>
-      <c r="XQ19" s="1"/>
-      <c r="XR19" s="1"/>
-      <c r="XS19" s="1"/>
-      <c r="XT19" s="1"/>
-      <c r="XU19" s="1"/>
-      <c r="XV19" s="1"/>
-      <c r="XW19" s="1"/>
-      <c r="XX19" s="1"/>
-      <c r="XY19" s="1"/>
-      <c r="XZ19" s="1"/>
-      <c r="YA19" s="1"/>
-      <c r="YB19" s="1"/>
-      <c r="YC19" s="1"/>
-      <c r="YD19" s="1"/>
-      <c r="YE19" s="1"/>
-      <c r="YF19" s="1"/>
-      <c r="YG19" s="1"/>
-      <c r="YH19" s="1"/>
-      <c r="YI19" s="1"/>
-      <c r="YJ19" s="1"/>
-      <c r="YK19" s="1"/>
-      <c r="YL19" s="1"/>
-      <c r="YM19" s="1"/>
-      <c r="YN19" s="1"/>
-      <c r="YO19" s="1"/>
-      <c r="YP19" s="1"/>
-      <c r="YQ19" s="1"/>
-      <c r="YR19" s="1"/>
-      <c r="YS19" s="1"/>
-      <c r="YT19" s="1"/>
-      <c r="YU19" s="1"/>
-      <c r="YV19" s="1"/>
-      <c r="YW19" s="1"/>
-      <c r="YX19" s="1"/>
-      <c r="YY19" s="1"/>
-      <c r="YZ19" s="1"/>
-      <c r="ZA19" s="1"/>
-      <c r="ZB19" s="1"/>
-      <c r="ZC19" s="1"/>
-      <c r="ZD19" s="1"/>
-      <c r="ZE19" s="1"/>
-      <c r="ZF19" s="1"/>
-      <c r="ZG19" s="1"/>
-      <c r="ZH19" s="1"/>
-      <c r="ZI19" s="1"/>
-      <c r="ZJ19" s="1"/>
-      <c r="ZK19" s="1"/>
-      <c r="ZL19" s="1"/>
-      <c r="ZM19" s="1"/>
-      <c r="ZN19" s="1"/>
-      <c r="ZO19" s="1"/>
-      <c r="ZP19" s="1"/>
-      <c r="ZQ19" s="1"/>
-      <c r="ZR19" s="1"/>
-      <c r="ZS19" s="1"/>
-      <c r="ZT19" s="1"/>
-      <c r="ZU19" s="1"/>
-      <c r="ZV19" s="1"/>
-      <c r="ZW19" s="1"/>
-      <c r="ZX19" s="1"/>
-      <c r="ZY19" s="1"/>
-      <c r="ZZ19" s="1"/>
-      <c r="AAA19" s="1"/>
-      <c r="AAB19" s="1"/>
-      <c r="AAC19" s="1"/>
-      <c r="AAD19" s="1"/>
-      <c r="AAE19" s="1"/>
-      <c r="AAF19" s="1"/>
-      <c r="AAG19" s="1"/>
-      <c r="AAH19" s="1"/>
-      <c r="AAI19" s="1"/>
-      <c r="AAJ19" s="1"/>
-      <c r="AAK19" s="1"/>
-      <c r="AAL19" s="1"/>
-      <c r="AAM19" s="1"/>
-      <c r="AAN19" s="1"/>
-      <c r="AAO19" s="1"/>
-      <c r="AAP19" s="1"/>
-      <c r="AAQ19" s="1"/>
-      <c r="AAR19" s="1"/>
-      <c r="AAS19" s="1"/>
-      <c r="AAT19" s="1"/>
-      <c r="AAU19" s="1"/>
-      <c r="AAV19" s="1"/>
-      <c r="AAW19" s="1"/>
-      <c r="AAX19" s="1"/>
-      <c r="AAY19" s="1"/>
-      <c r="AAZ19" s="1"/>
-      <c r="ABA19" s="1"/>
-      <c r="ABB19" s="1"/>
-      <c r="ABC19" s="1"/>
-      <c r="ABD19" s="1"/>
-      <c r="ABE19" s="1"/>
-      <c r="ABF19" s="1"/>
-      <c r="ABG19" s="1"/>
-      <c r="ABH19" s="1"/>
-      <c r="ABI19" s="1"/>
-      <c r="ABJ19" s="1"/>
-      <c r="ABK19" s="1"/>
-      <c r="ABL19" s="1"/>
-      <c r="ABM19" s="1"/>
-      <c r="ABN19" s="1"/>
-      <c r="ABO19" s="1"/>
-      <c r="ABP19" s="1"/>
-      <c r="ABQ19" s="1"/>
-      <c r="ABR19" s="1"/>
-      <c r="ABS19" s="1"/>
-      <c r="ABT19" s="1"/>
-      <c r="ABU19" s="1"/>
-      <c r="ABV19" s="1"/>
-      <c r="ABW19" s="1"/>
-      <c r="ABX19" s="1"/>
-      <c r="ABY19" s="1"/>
-      <c r="ABZ19" s="1"/>
-      <c r="ACA19" s="1"/>
-      <c r="ACB19" s="1"/>
-      <c r="ACC19" s="1"/>
-      <c r="ACD19" s="1"/>
-      <c r="ACE19" s="1"/>
-      <c r="ACF19" s="1"/>
-      <c r="ACG19" s="1"/>
-      <c r="ACH19" s="1"/>
-      <c r="ACI19" s="1"/>
-      <c r="ACJ19" s="1"/>
-      <c r="ACK19" s="1"/>
-      <c r="ACL19" s="1"/>
-      <c r="ACM19" s="1"/>
-      <c r="ACN19" s="1"/>
-      <c r="ACO19" s="1"/>
-      <c r="ACP19" s="1"/>
-      <c r="ACQ19" s="1"/>
-      <c r="ACR19" s="1"/>
-      <c r="ACS19" s="1"/>
-      <c r="ACT19" s="1"/>
-      <c r="ACU19" s="1"/>
-      <c r="ACV19" s="1"/>
-      <c r="ACW19" s="1"/>
-      <c r="ACX19" s="1"/>
-      <c r="ACY19" s="1"/>
-      <c r="ACZ19" s="1"/>
-      <c r="ADA19" s="1"/>
-      <c r="ADB19" s="1"/>
-      <c r="ADC19" s="1"/>
-      <c r="ADD19" s="1"/>
-      <c r="ADE19" s="1"/>
-      <c r="ADF19" s="1"/>
-      <c r="ADG19" s="1"/>
-      <c r="ADH19" s="1"/>
-      <c r="ADI19" s="1"/>
-      <c r="ADJ19" s="1"/>
-      <c r="ADK19" s="1"/>
-      <c r="ADL19" s="1"/>
-      <c r="ADM19" s="1"/>
-      <c r="ADN19" s="1"/>
-      <c r="ADO19" s="1"/>
-      <c r="ADP19" s="1"/>
-      <c r="ADQ19" s="1"/>
-      <c r="ADR19" s="1"/>
-      <c r="ADS19" s="1"/>
-      <c r="ADT19" s="1"/>
-      <c r="ADU19" s="1"/>
-      <c r="ADV19" s="1"/>
-      <c r="ADW19" s="1"/>
-      <c r="ADX19" s="1"/>
-      <c r="ADY19" s="1"/>
-      <c r="ADZ19" s="1"/>
-      <c r="AEA19" s="1"/>
-      <c r="AEB19" s="1"/>
-      <c r="AEC19" s="1"/>
-      <c r="AED19" s="1"/>
-      <c r="AEE19" s="1"/>
-      <c r="AEF19" s="1"/>
-      <c r="AEG19" s="1"/>
-      <c r="AEH19" s="1"/>
-      <c r="AEI19" s="1"/>
-      <c r="AEJ19" s="1"/>
-      <c r="AEK19" s="1"/>
-      <c r="AEL19" s="1"/>
-      <c r="AEM19" s="1"/>
-      <c r="AEN19" s="1"/>
-      <c r="AEO19" s="1"/>
-      <c r="AEP19" s="1"/>
-      <c r="AEQ19" s="1"/>
-      <c r="AER19" s="1"/>
-      <c r="AES19" s="1"/>
-      <c r="AET19" s="1"/>
-      <c r="AEU19" s="1"/>
-      <c r="AEV19" s="1"/>
-      <c r="AEW19" s="1"/>
-      <c r="AEX19" s="1"/>
-      <c r="AEY19" s="1"/>
-      <c r="AEZ19" s="1"/>
-      <c r="AFA19" s="1"/>
-      <c r="AFB19" s="1"/>
-      <c r="AFC19" s="1"/>
-      <c r="AFD19" s="1"/>
-      <c r="AFE19" s="1"/>
-      <c r="AFF19" s="1"/>
-      <c r="AFG19" s="1"/>
-      <c r="AFH19" s="1"/>
-      <c r="AFI19" s="1"/>
-      <c r="AFJ19" s="1"/>
-      <c r="AFK19" s="1"/>
-      <c r="AFL19" s="1"/>
-      <c r="AFM19" s="1"/>
-      <c r="AFN19" s="1"/>
-      <c r="AFO19" s="1"/>
-      <c r="AFP19" s="1"/>
-      <c r="AFQ19" s="1"/>
-      <c r="AFR19" s="1"/>
-      <c r="AFS19" s="1"/>
-      <c r="AFT19" s="1"/>
-      <c r="AFU19" s="1"/>
-      <c r="AFV19" s="1"/>
-      <c r="AFW19" s="1"/>
-      <c r="AFX19" s="1"/>
-      <c r="AFY19" s="1"/>
-      <c r="AFZ19" s="1"/>
-      <c r="AGA19" s="1"/>
-      <c r="AGB19" s="1"/>
-      <c r="AGC19" s="1"/>
-      <c r="AGD19" s="1"/>
-      <c r="AGE19" s="1"/>
-      <c r="AGF19" s="1"/>
-      <c r="AGG19" s="1"/>
-      <c r="AGH19" s="1"/>
-      <c r="AGI19" s="1"/>
-      <c r="AGJ19" s="1"/>
-      <c r="AGK19" s="1"/>
-      <c r="AGL19" s="1"/>
-      <c r="AGM19" s="1"/>
-      <c r="AGN19" s="1"/>
-      <c r="AGO19" s="1"/>
-      <c r="AGP19" s="1"/>
-      <c r="AGQ19" s="1"/>
-      <c r="AGR19" s="1"/>
-      <c r="AGS19" s="1"/>
-      <c r="AGT19" s="1"/>
-      <c r="AGU19" s="1"/>
-      <c r="AGV19" s="1"/>
-      <c r="AGW19" s="1"/>
-      <c r="AGX19" s="1"/>
-      <c r="AGY19" s="1"/>
-      <c r="AGZ19" s="1"/>
-      <c r="AHA19" s="1"/>
-      <c r="AHB19" s="1"/>
-      <c r="AHC19" s="1"/>
-      <c r="AHD19" s="1"/>
-      <c r="AHE19" s="1"/>
-      <c r="AHF19" s="1"/>
-      <c r="AHG19" s="1"/>
-      <c r="AHH19" s="1"/>
-      <c r="AHI19" s="1"/>
-      <c r="AHJ19" s="1"/>
-      <c r="AHK19" s="1"/>
-      <c r="AHL19" s="1"/>
-      <c r="AHM19" s="1"/>
-      <c r="AHN19" s="1"/>
-      <c r="AHO19" s="1"/>
-      <c r="AHP19" s="1"/>
-      <c r="AHQ19" s="1"/>
-      <c r="AHR19" s="1"/>
-      <c r="AHS19" s="1"/>
-      <c r="AHT19" s="1"/>
-      <c r="AHU19" s="1"/>
-      <c r="AHV19" s="1"/>
-      <c r="AHW19" s="1"/>
-      <c r="AHX19" s="1"/>
-      <c r="AHY19" s="1"/>
-      <c r="AHZ19" s="1"/>
-      <c r="AIA19" s="1"/>
-      <c r="AIB19" s="1"/>
-      <c r="AIC19" s="1"/>
-      <c r="AID19" s="1"/>
-      <c r="AIE19" s="1"/>
-      <c r="AIF19" s="1"/>
-      <c r="AIG19" s="1"/>
-      <c r="AIH19" s="1"/>
-      <c r="AII19" s="1"/>
-      <c r="AIJ19" s="1"/>
-      <c r="AIK19" s="1"/>
-      <c r="AIL19" s="1"/>
-      <c r="AIM19" s="1"/>
-      <c r="AIN19" s="1"/>
-      <c r="AIO19" s="1"/>
-      <c r="AIP19" s="1"/>
-      <c r="AIQ19" s="1"/>
-      <c r="AIR19" s="1"/>
-      <c r="AIS19" s="1"/>
-      <c r="AIT19" s="1"/>
-      <c r="AIU19" s="1"/>
-      <c r="AIV19" s="1"/>
-      <c r="AIW19" s="1"/>
-      <c r="AIX19" s="1"/>
-      <c r="AIY19" s="1"/>
-      <c r="AIZ19" s="1"/>
-      <c r="AJA19" s="1"/>
-      <c r="AJB19" s="1"/>
-      <c r="AJC19" s="1"/>
-      <c r="AJD19" s="1"/>
-      <c r="AJE19" s="1"/>
-      <c r="AJF19" s="1"/>
-      <c r="AJG19" s="1"/>
-      <c r="AJH19" s="1"/>
-      <c r="AJI19" s="1"/>
-      <c r="AJJ19" s="1"/>
-      <c r="AJK19" s="1"/>
-      <c r="AJL19" s="1"/>
-      <c r="AJM19" s="1"/>
-      <c r="AJN19" s="1"/>
-      <c r="AJO19" s="1"/>
-      <c r="AJP19" s="1"/>
-      <c r="AJQ19" s="1"/>
-      <c r="AJR19" s="1"/>
-      <c r="AJS19" s="1"/>
-      <c r="AJT19" s="1"/>
-      <c r="AJU19" s="1"/>
-      <c r="AJV19" s="1"/>
-      <c r="AJW19" s="1"/>
-      <c r="AJX19" s="1"/>
-      <c r="AJY19" s="1"/>
-      <c r="AJZ19" s="1"/>
-      <c r="AKA19" s="1"/>
-      <c r="AKB19" s="1"/>
-      <c r="AKC19" s="1"/>
-      <c r="AKD19" s="1"/>
-      <c r="AKE19" s="1"/>
-      <c r="AKF19" s="1"/>
-      <c r="AKG19" s="1"/>
-      <c r="AKH19" s="1"/>
-      <c r="AKI19" s="1"/>
-      <c r="AKJ19" s="1"/>
-      <c r="AKK19" s="1"/>
-      <c r="AKL19" s="1"/>
-      <c r="AKM19" s="1"/>
-      <c r="AKN19" s="1"/>
-      <c r="AKO19" s="1"/>
-      <c r="AKP19" s="1"/>
-      <c r="AKQ19" s="1"/>
-      <c r="AKR19" s="1"/>
-      <c r="AKS19" s="1"/>
-      <c r="AKT19" s="1"/>
-      <c r="AKU19" s="1"/>
-      <c r="AKV19" s="1"/>
-      <c r="AKW19" s="1"/>
-      <c r="AKX19" s="1"/>
-      <c r="AKY19" s="1"/>
-      <c r="AKZ19" s="1"/>
-      <c r="ALA19" s="1"/>
-      <c r="ALB19" s="1"/>
-      <c r="ALC19" s="1"/>
-      <c r="ALD19" s="1"/>
-      <c r="ALE19" s="1"/>
-      <c r="ALF19" s="1"/>
-      <c r="ALG19" s="1"/>
-      <c r="ALH19" s="1"/>
-      <c r="ALI19" s="1"/>
-      <c r="ALJ19" s="1"/>
-      <c r="ALK19" s="1"/>
-      <c r="ALL19" s="1"/>
-      <c r="ALM19" s="1"/>
-      <c r="ALN19" s="1"/>
-      <c r="ALO19" s="1"/>
-      <c r="ALP19" s="1"/>
-      <c r="ALQ19" s="1"/>
-      <c r="ALR19" s="1"/>
-      <c r="ALS19" s="1"/>
-      <c r="ALT19" s="1"/>
-      <c r="ALU19" s="1"/>
-      <c r="ALV19" s="1"/>
-      <c r="ALW19" s="1"/>
-      <c r="ALX19" s="1"/>
-      <c r="ALY19" s="1"/>
-      <c r="ALZ19" s="1"/>
-      <c r="AMA19" s="1"/>
-      <c r="AMB19" s="1"/>
-      <c r="AMC19" s="1"/>
-      <c r="AMD19" s="1"/>
-      <c r="AME19" s="1"/>
-      <c r="AMF19" s="1"/>
-      <c r="AMG19" s="1"/>
-      <c r="AMH19" s="1"/>
-      <c r="AMI19" s="1"/>
-      <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:1024" ht="18" customHeight="1">
+      <c r="A20" s="2"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -18424,73 +17457,1014 @@
       <c r="CG20" s="16"/>
       <c r="CH20" s="16"/>
       <c r="CI20" s="17"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="1"/>
+      <c r="EW20" s="1"/>
+      <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
+      <c r="FC20" s="1"/>
+      <c r="FD20" s="1"/>
+      <c r="FE20" s="1"/>
+      <c r="FF20" s="1"/>
+      <c r="FG20" s="1"/>
+      <c r="FH20" s="1"/>
+      <c r="FI20" s="1"/>
+      <c r="FJ20" s="1"/>
+      <c r="FK20" s="1"/>
+      <c r="FL20" s="1"/>
+      <c r="FM20" s="1"/>
+      <c r="FN20" s="1"/>
+      <c r="FO20" s="1"/>
+      <c r="FP20" s="1"/>
+      <c r="FQ20" s="1"/>
+      <c r="FR20" s="1"/>
+      <c r="FS20" s="1"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="1"/>
+      <c r="FY20" s="1"/>
+      <c r="FZ20" s="1"/>
+      <c r="GA20" s="1"/>
+      <c r="GB20" s="1"/>
+      <c r="GC20" s="1"/>
+      <c r="GD20" s="1"/>
+      <c r="GE20" s="1"/>
+      <c r="GF20" s="1"/>
+      <c r="GG20" s="1"/>
+      <c r="GH20" s="1"/>
+      <c r="GI20" s="1"/>
+      <c r="GJ20" s="1"/>
+      <c r="GK20" s="1"/>
+      <c r="GL20" s="1"/>
+      <c r="GM20" s="1"/>
+      <c r="GN20" s="1"/>
+      <c r="GO20" s="1"/>
+      <c r="GP20" s="1"/>
+      <c r="GQ20" s="1"/>
+      <c r="GR20" s="1"/>
+      <c r="GS20" s="1"/>
+      <c r="GT20" s="1"/>
+      <c r="GU20" s="1"/>
+      <c r="GV20" s="1"/>
+      <c r="GW20" s="1"/>
+      <c r="GX20" s="1"/>
+      <c r="GY20" s="1"/>
+      <c r="GZ20" s="1"/>
+      <c r="HA20" s="1"/>
+      <c r="HB20" s="1"/>
+      <c r="HC20" s="1"/>
+      <c r="HD20" s="1"/>
+      <c r="HE20" s="1"/>
+      <c r="HF20" s="1"/>
+      <c r="HG20" s="1"/>
+      <c r="HH20" s="1"/>
+      <c r="HI20" s="1"/>
+      <c r="HJ20" s="1"/>
+      <c r="HK20" s="1"/>
+      <c r="HL20" s="1"/>
+      <c r="HM20" s="1"/>
+      <c r="HN20" s="1"/>
+      <c r="HO20" s="1"/>
+      <c r="HP20" s="1"/>
+      <c r="HQ20" s="1"/>
+      <c r="HR20" s="1"/>
+      <c r="HS20" s="1"/>
+      <c r="HT20" s="1"/>
+      <c r="HU20" s="1"/>
+      <c r="HV20" s="1"/>
+      <c r="HW20" s="1"/>
+      <c r="HX20" s="1"/>
+      <c r="HY20" s="1"/>
+      <c r="HZ20" s="1"/>
+      <c r="IA20" s="1"/>
+      <c r="IB20" s="1"/>
+      <c r="IC20" s="1"/>
+      <c r="ID20" s="1"/>
+      <c r="IE20" s="1"/>
+      <c r="IF20" s="1"/>
+      <c r="IG20" s="1"/>
+      <c r="IH20" s="1"/>
+      <c r="II20" s="1"/>
+      <c r="IJ20" s="1"/>
+      <c r="IK20" s="1"/>
+      <c r="IL20" s="1"/>
+      <c r="IM20" s="1"/>
+      <c r="IN20" s="1"/>
+      <c r="IO20" s="1"/>
+      <c r="IP20" s="1"/>
+      <c r="IQ20" s="1"/>
+      <c r="IR20" s="1"/>
+      <c r="IS20" s="1"/>
+      <c r="IT20" s="1"/>
+      <c r="IU20" s="1"/>
+      <c r="IV20" s="1"/>
+      <c r="IW20" s="1"/>
+      <c r="IX20" s="1"/>
+      <c r="IY20" s="1"/>
+      <c r="IZ20" s="1"/>
+      <c r="JA20" s="1"/>
+      <c r="JB20" s="1"/>
+      <c r="JC20" s="1"/>
+      <c r="JD20" s="1"/>
+      <c r="JE20" s="1"/>
+      <c r="JF20" s="1"/>
+      <c r="JG20" s="1"/>
+      <c r="JH20" s="1"/>
+      <c r="JI20" s="1"/>
+      <c r="JJ20" s="1"/>
+      <c r="JK20" s="1"/>
+      <c r="JL20" s="1"/>
+      <c r="JM20" s="1"/>
+      <c r="JN20" s="1"/>
+      <c r="JO20" s="1"/>
+      <c r="JP20" s="1"/>
+      <c r="JQ20" s="1"/>
+      <c r="JR20" s="1"/>
+      <c r="JS20" s="1"/>
+      <c r="JT20" s="1"/>
+      <c r="JU20" s="1"/>
+      <c r="JV20" s="1"/>
+      <c r="JW20" s="1"/>
+      <c r="JX20" s="1"/>
+      <c r="JY20" s="1"/>
+      <c r="JZ20" s="1"/>
+      <c r="KA20" s="1"/>
+      <c r="KB20" s="1"/>
+      <c r="KC20" s="1"/>
+      <c r="KD20" s="1"/>
+      <c r="KE20" s="1"/>
+      <c r="KF20" s="1"/>
+      <c r="KG20" s="1"/>
+      <c r="KH20" s="1"/>
+      <c r="KI20" s="1"/>
+      <c r="KJ20" s="1"/>
+      <c r="KK20" s="1"/>
+      <c r="KL20" s="1"/>
+      <c r="KM20" s="1"/>
+      <c r="KN20" s="1"/>
+      <c r="KO20" s="1"/>
+      <c r="KP20" s="1"/>
+      <c r="KQ20" s="1"/>
+      <c r="KR20" s="1"/>
+      <c r="KS20" s="1"/>
+      <c r="KT20" s="1"/>
+      <c r="KU20" s="1"/>
+      <c r="KV20" s="1"/>
+      <c r="KW20" s="1"/>
+      <c r="KX20" s="1"/>
+      <c r="KY20" s="1"/>
+      <c r="KZ20" s="1"/>
+      <c r="LA20" s="1"/>
+      <c r="LB20" s="1"/>
+      <c r="LC20" s="1"/>
+      <c r="LD20" s="1"/>
+      <c r="LE20" s="1"/>
+      <c r="LF20" s="1"/>
+      <c r="LG20" s="1"/>
+      <c r="LH20" s="1"/>
+      <c r="LI20" s="1"/>
+      <c r="LJ20" s="1"/>
+      <c r="LK20" s="1"/>
+      <c r="LL20" s="1"/>
+      <c r="LM20" s="1"/>
+      <c r="LN20" s="1"/>
+      <c r="LO20" s="1"/>
+      <c r="LP20" s="1"/>
+      <c r="LQ20" s="1"/>
+      <c r="LR20" s="1"/>
+      <c r="LS20" s="1"/>
+      <c r="LT20" s="1"/>
+      <c r="LU20" s="1"/>
+      <c r="LV20" s="1"/>
+      <c r="LW20" s="1"/>
+      <c r="LX20" s="1"/>
+      <c r="LY20" s="1"/>
+      <c r="LZ20" s="1"/>
+      <c r="MA20" s="1"/>
+      <c r="MB20" s="1"/>
+      <c r="MC20" s="1"/>
+      <c r="MD20" s="1"/>
+      <c r="ME20" s="1"/>
+      <c r="MF20" s="1"/>
+      <c r="MG20" s="1"/>
+      <c r="MH20" s="1"/>
+      <c r="MI20" s="1"/>
+      <c r="MJ20" s="1"/>
+      <c r="MK20" s="1"/>
+      <c r="ML20" s="1"/>
+      <c r="MM20" s="1"/>
+      <c r="MN20" s="1"/>
+      <c r="MO20" s="1"/>
+      <c r="MP20" s="1"/>
+      <c r="MQ20" s="1"/>
+      <c r="MR20" s="1"/>
+      <c r="MS20" s="1"/>
+      <c r="MT20" s="1"/>
+      <c r="MU20" s="1"/>
+      <c r="MV20" s="1"/>
+      <c r="MW20" s="1"/>
+      <c r="MX20" s="1"/>
+      <c r="MY20" s="1"/>
+      <c r="MZ20" s="1"/>
+      <c r="NA20" s="1"/>
+      <c r="NB20" s="1"/>
+      <c r="NC20" s="1"/>
+      <c r="ND20" s="1"/>
+      <c r="NE20" s="1"/>
+      <c r="NF20" s="1"/>
+      <c r="NG20" s="1"/>
+      <c r="NH20" s="1"/>
+      <c r="NI20" s="1"/>
+      <c r="NJ20" s="1"/>
+      <c r="NK20" s="1"/>
+      <c r="NL20" s="1"/>
+      <c r="NM20" s="1"/>
+      <c r="NN20" s="1"/>
+      <c r="NO20" s="1"/>
+      <c r="NP20" s="1"/>
+      <c r="NQ20" s="1"/>
+      <c r="NR20" s="1"/>
+      <c r="NS20" s="1"/>
+      <c r="NT20" s="1"/>
+      <c r="NU20" s="1"/>
+      <c r="NV20" s="1"/>
+      <c r="NW20" s="1"/>
+      <c r="NX20" s="1"/>
+      <c r="NY20" s="1"/>
+      <c r="NZ20" s="1"/>
+      <c r="OA20" s="1"/>
+      <c r="OB20" s="1"/>
+      <c r="OC20" s="1"/>
+      <c r="OD20" s="1"/>
+      <c r="OE20" s="1"/>
+      <c r="OF20" s="1"/>
+      <c r="OG20" s="1"/>
+      <c r="OH20" s="1"/>
+      <c r="OI20" s="1"/>
+      <c r="OJ20" s="1"/>
+      <c r="OK20" s="1"/>
+      <c r="OL20" s="1"/>
+      <c r="OM20" s="1"/>
+      <c r="ON20" s="1"/>
+      <c r="OO20" s="1"/>
+      <c r="OP20" s="1"/>
+      <c r="OQ20" s="1"/>
+      <c r="OR20" s="1"/>
+      <c r="OS20" s="1"/>
+      <c r="OT20" s="1"/>
+      <c r="OU20" s="1"/>
+      <c r="OV20" s="1"/>
+      <c r="OW20" s="1"/>
+      <c r="OX20" s="1"/>
+      <c r="OY20" s="1"/>
+      <c r="OZ20" s="1"/>
+      <c r="PA20" s="1"/>
+      <c r="PB20" s="1"/>
+      <c r="PC20" s="1"/>
+      <c r="PD20" s="1"/>
+      <c r="PE20" s="1"/>
+      <c r="PF20" s="1"/>
+      <c r="PG20" s="1"/>
+      <c r="PH20" s="1"/>
+      <c r="PI20" s="1"/>
+      <c r="PJ20" s="1"/>
+      <c r="PK20" s="1"/>
+      <c r="PL20" s="1"/>
+      <c r="PM20" s="1"/>
+      <c r="PN20" s="1"/>
+      <c r="PO20" s="1"/>
+      <c r="PP20" s="1"/>
+      <c r="PQ20" s="1"/>
+      <c r="PR20" s="1"/>
+      <c r="PS20" s="1"/>
+      <c r="PT20" s="1"/>
+      <c r="PU20" s="1"/>
+      <c r="PV20" s="1"/>
+      <c r="PW20" s="1"/>
+      <c r="PX20" s="1"/>
+      <c r="PY20" s="1"/>
+      <c r="PZ20" s="1"/>
+      <c r="QA20" s="1"/>
+      <c r="QB20" s="1"/>
+      <c r="QC20" s="1"/>
+      <c r="QD20" s="1"/>
+      <c r="QE20" s="1"/>
+      <c r="QF20" s="1"/>
+      <c r="QG20" s="1"/>
+      <c r="QH20" s="1"/>
+      <c r="QI20" s="1"/>
+      <c r="QJ20" s="1"/>
+      <c r="QK20" s="1"/>
+      <c r="QL20" s="1"/>
+      <c r="QM20" s="1"/>
+      <c r="QN20" s="1"/>
+      <c r="QO20" s="1"/>
+      <c r="QP20" s="1"/>
+      <c r="QQ20" s="1"/>
+      <c r="QR20" s="1"/>
+      <c r="QS20" s="1"/>
+      <c r="QT20" s="1"/>
+      <c r="QU20" s="1"/>
+      <c r="QV20" s="1"/>
+      <c r="QW20" s="1"/>
+      <c r="QX20" s="1"/>
+      <c r="QY20" s="1"/>
+      <c r="QZ20" s="1"/>
+      <c r="RA20" s="1"/>
+      <c r="RB20" s="1"/>
+      <c r="RC20" s="1"/>
+      <c r="RD20" s="1"/>
+      <c r="RE20" s="1"/>
+      <c r="RF20" s="1"/>
+      <c r="RG20" s="1"/>
+      <c r="RH20" s="1"/>
+      <c r="RI20" s="1"/>
+      <c r="RJ20" s="1"/>
+      <c r="RK20" s="1"/>
+      <c r="RL20" s="1"/>
+      <c r="RM20" s="1"/>
+      <c r="RN20" s="1"/>
+      <c r="RO20" s="1"/>
+      <c r="RP20" s="1"/>
+      <c r="RQ20" s="1"/>
+      <c r="RR20" s="1"/>
+      <c r="RS20" s="1"/>
+      <c r="RT20" s="1"/>
+      <c r="RU20" s="1"/>
+      <c r="RV20" s="1"/>
+      <c r="RW20" s="1"/>
+      <c r="RX20" s="1"/>
+      <c r="RY20" s="1"/>
+      <c r="RZ20" s="1"/>
+      <c r="SA20" s="1"/>
+      <c r="SB20" s="1"/>
+      <c r="SC20" s="1"/>
+      <c r="SD20" s="1"/>
+      <c r="SE20" s="1"/>
+      <c r="SF20" s="1"/>
+      <c r="SG20" s="1"/>
+      <c r="SH20" s="1"/>
+      <c r="SI20" s="1"/>
+      <c r="SJ20" s="1"/>
+      <c r="SK20" s="1"/>
+      <c r="SL20" s="1"/>
+      <c r="SM20" s="1"/>
+      <c r="SN20" s="1"/>
+      <c r="SO20" s="1"/>
+      <c r="SP20" s="1"/>
+      <c r="SQ20" s="1"/>
+      <c r="SR20" s="1"/>
+      <c r="SS20" s="1"/>
+      <c r="ST20" s="1"/>
+      <c r="SU20" s="1"/>
+      <c r="SV20" s="1"/>
+      <c r="SW20" s="1"/>
+      <c r="SX20" s="1"/>
+      <c r="SY20" s="1"/>
+      <c r="SZ20" s="1"/>
+      <c r="TA20" s="1"/>
+      <c r="TB20" s="1"/>
+      <c r="TC20" s="1"/>
+      <c r="TD20" s="1"/>
+      <c r="TE20" s="1"/>
+      <c r="TF20" s="1"/>
+      <c r="TG20" s="1"/>
+      <c r="TH20" s="1"/>
+      <c r="TI20" s="1"/>
+      <c r="TJ20" s="1"/>
+      <c r="TK20" s="1"/>
+      <c r="TL20" s="1"/>
+      <c r="TM20" s="1"/>
+      <c r="TN20" s="1"/>
+      <c r="TO20" s="1"/>
+      <c r="TP20" s="1"/>
+      <c r="TQ20" s="1"/>
+      <c r="TR20" s="1"/>
+      <c r="TS20" s="1"/>
+      <c r="TT20" s="1"/>
+      <c r="TU20" s="1"/>
+      <c r="TV20" s="1"/>
+      <c r="TW20" s="1"/>
+      <c r="TX20" s="1"/>
+      <c r="TY20" s="1"/>
+      <c r="TZ20" s="1"/>
+      <c r="UA20" s="1"/>
+      <c r="UB20" s="1"/>
+      <c r="UC20" s="1"/>
+      <c r="UD20" s="1"/>
+      <c r="UE20" s="1"/>
+      <c r="UF20" s="1"/>
+      <c r="UG20" s="1"/>
+      <c r="UH20" s="1"/>
+      <c r="UI20" s="1"/>
+      <c r="UJ20" s="1"/>
+      <c r="UK20" s="1"/>
+      <c r="UL20" s="1"/>
+      <c r="UM20" s="1"/>
+      <c r="UN20" s="1"/>
+      <c r="UO20" s="1"/>
+      <c r="UP20" s="1"/>
+      <c r="UQ20" s="1"/>
+      <c r="UR20" s="1"/>
+      <c r="US20" s="1"/>
+      <c r="UT20" s="1"/>
+      <c r="UU20" s="1"/>
+      <c r="UV20" s="1"/>
+      <c r="UW20" s="1"/>
+      <c r="UX20" s="1"/>
+      <c r="UY20" s="1"/>
+      <c r="UZ20" s="1"/>
+      <c r="VA20" s="1"/>
+      <c r="VB20" s="1"/>
+      <c r="VC20" s="1"/>
+      <c r="VD20" s="1"/>
+      <c r="VE20" s="1"/>
+      <c r="VF20" s="1"/>
+      <c r="VG20" s="1"/>
+      <c r="VH20" s="1"/>
+      <c r="VI20" s="1"/>
+      <c r="VJ20" s="1"/>
+      <c r="VK20" s="1"/>
+      <c r="VL20" s="1"/>
+      <c r="VM20" s="1"/>
+      <c r="VN20" s="1"/>
+      <c r="VO20" s="1"/>
+      <c r="VP20" s="1"/>
+      <c r="VQ20" s="1"/>
+      <c r="VR20" s="1"/>
+      <c r="VS20" s="1"/>
+      <c r="VT20" s="1"/>
+      <c r="VU20" s="1"/>
+      <c r="VV20" s="1"/>
+      <c r="VW20" s="1"/>
+      <c r="VX20" s="1"/>
+      <c r="VY20" s="1"/>
+      <c r="VZ20" s="1"/>
+      <c r="WA20" s="1"/>
+      <c r="WB20" s="1"/>
+      <c r="WC20" s="1"/>
+      <c r="WD20" s="1"/>
+      <c r="WE20" s="1"/>
+      <c r="WF20" s="1"/>
+      <c r="WG20" s="1"/>
+      <c r="WH20" s="1"/>
+      <c r="WI20" s="1"/>
+      <c r="WJ20" s="1"/>
+      <c r="WK20" s="1"/>
+      <c r="WL20" s="1"/>
+      <c r="WM20" s="1"/>
+      <c r="WN20" s="1"/>
+      <c r="WO20" s="1"/>
+      <c r="WP20" s="1"/>
+      <c r="WQ20" s="1"/>
+      <c r="WR20" s="1"/>
+      <c r="WS20" s="1"/>
+      <c r="WT20" s="1"/>
+      <c r="WU20" s="1"/>
+      <c r="WV20" s="1"/>
+      <c r="WW20" s="1"/>
+      <c r="WX20" s="1"/>
+      <c r="WY20" s="1"/>
+      <c r="WZ20" s="1"/>
+      <c r="XA20" s="1"/>
+      <c r="XB20" s="1"/>
+      <c r="XC20" s="1"/>
+      <c r="XD20" s="1"/>
+      <c r="XE20" s="1"/>
+      <c r="XF20" s="1"/>
+      <c r="XG20" s="1"/>
+      <c r="XH20" s="1"/>
+      <c r="XI20" s="1"/>
+      <c r="XJ20" s="1"/>
+      <c r="XK20" s="1"/>
+      <c r="XL20" s="1"/>
+      <c r="XM20" s="1"/>
+      <c r="XN20" s="1"/>
+      <c r="XO20" s="1"/>
+      <c r="XP20" s="1"/>
+      <c r="XQ20" s="1"/>
+      <c r="XR20" s="1"/>
+      <c r="XS20" s="1"/>
+      <c r="XT20" s="1"/>
+      <c r="XU20" s="1"/>
+      <c r="XV20" s="1"/>
+      <c r="XW20" s="1"/>
+      <c r="XX20" s="1"/>
+      <c r="XY20" s="1"/>
+      <c r="XZ20" s="1"/>
+      <c r="YA20" s="1"/>
+      <c r="YB20" s="1"/>
+      <c r="YC20" s="1"/>
+      <c r="YD20" s="1"/>
+      <c r="YE20" s="1"/>
+      <c r="YF20" s="1"/>
+      <c r="YG20" s="1"/>
+      <c r="YH20" s="1"/>
+      <c r="YI20" s="1"/>
+      <c r="YJ20" s="1"/>
+      <c r="YK20" s="1"/>
+      <c r="YL20" s="1"/>
+      <c r="YM20" s="1"/>
+      <c r="YN20" s="1"/>
+      <c r="YO20" s="1"/>
+      <c r="YP20" s="1"/>
+      <c r="YQ20" s="1"/>
+      <c r="YR20" s="1"/>
+      <c r="YS20" s="1"/>
+      <c r="YT20" s="1"/>
+      <c r="YU20" s="1"/>
+      <c r="YV20" s="1"/>
+      <c r="YW20" s="1"/>
+      <c r="YX20" s="1"/>
+      <c r="YY20" s="1"/>
+      <c r="YZ20" s="1"/>
+      <c r="ZA20" s="1"/>
+      <c r="ZB20" s="1"/>
+      <c r="ZC20" s="1"/>
+      <c r="ZD20" s="1"/>
+      <c r="ZE20" s="1"/>
+      <c r="ZF20" s="1"/>
+      <c r="ZG20" s="1"/>
+      <c r="ZH20" s="1"/>
+      <c r="ZI20" s="1"/>
+      <c r="ZJ20" s="1"/>
+      <c r="ZK20" s="1"/>
+      <c r="ZL20" s="1"/>
+      <c r="ZM20" s="1"/>
+      <c r="ZN20" s="1"/>
+      <c r="ZO20" s="1"/>
+      <c r="ZP20" s="1"/>
+      <c r="ZQ20" s="1"/>
+      <c r="ZR20" s="1"/>
+      <c r="ZS20" s="1"/>
+      <c r="ZT20" s="1"/>
+      <c r="ZU20" s="1"/>
+      <c r="ZV20" s="1"/>
+      <c r="ZW20" s="1"/>
+      <c r="ZX20" s="1"/>
+      <c r="ZY20" s="1"/>
+      <c r="ZZ20" s="1"/>
+      <c r="AAA20" s="1"/>
+      <c r="AAB20" s="1"/>
+      <c r="AAC20" s="1"/>
+      <c r="AAD20" s="1"/>
+      <c r="AAE20" s="1"/>
+      <c r="AAF20" s="1"/>
+      <c r="AAG20" s="1"/>
+      <c r="AAH20" s="1"/>
+      <c r="AAI20" s="1"/>
+      <c r="AAJ20" s="1"/>
+      <c r="AAK20" s="1"/>
+      <c r="AAL20" s="1"/>
+      <c r="AAM20" s="1"/>
+      <c r="AAN20" s="1"/>
+      <c r="AAO20" s="1"/>
+      <c r="AAP20" s="1"/>
+      <c r="AAQ20" s="1"/>
+      <c r="AAR20" s="1"/>
+      <c r="AAS20" s="1"/>
+      <c r="AAT20" s="1"/>
+      <c r="AAU20" s="1"/>
+      <c r="AAV20" s="1"/>
+      <c r="AAW20" s="1"/>
+      <c r="AAX20" s="1"/>
+      <c r="AAY20" s="1"/>
+      <c r="AAZ20" s="1"/>
+      <c r="ABA20" s="1"/>
+      <c r="ABB20" s="1"/>
+      <c r="ABC20" s="1"/>
+      <c r="ABD20" s="1"/>
+      <c r="ABE20" s="1"/>
+      <c r="ABF20" s="1"/>
+      <c r="ABG20" s="1"/>
+      <c r="ABH20" s="1"/>
+      <c r="ABI20" s="1"/>
+      <c r="ABJ20" s="1"/>
+      <c r="ABK20" s="1"/>
+      <c r="ABL20" s="1"/>
+      <c r="ABM20" s="1"/>
+      <c r="ABN20" s="1"/>
+      <c r="ABO20" s="1"/>
+      <c r="ABP20" s="1"/>
+      <c r="ABQ20" s="1"/>
+      <c r="ABR20" s="1"/>
+      <c r="ABS20" s="1"/>
+      <c r="ABT20" s="1"/>
+      <c r="ABU20" s="1"/>
+      <c r="ABV20" s="1"/>
+      <c r="ABW20" s="1"/>
+      <c r="ABX20" s="1"/>
+      <c r="ABY20" s="1"/>
+      <c r="ABZ20" s="1"/>
+      <c r="ACA20" s="1"/>
+      <c r="ACB20" s="1"/>
+      <c r="ACC20" s="1"/>
+      <c r="ACD20" s="1"/>
+      <c r="ACE20" s="1"/>
+      <c r="ACF20" s="1"/>
+      <c r="ACG20" s="1"/>
+      <c r="ACH20" s="1"/>
+      <c r="ACI20" s="1"/>
+      <c r="ACJ20" s="1"/>
+      <c r="ACK20" s="1"/>
+      <c r="ACL20" s="1"/>
+      <c r="ACM20" s="1"/>
+      <c r="ACN20" s="1"/>
+      <c r="ACO20" s="1"/>
+      <c r="ACP20" s="1"/>
+      <c r="ACQ20" s="1"/>
+      <c r="ACR20" s="1"/>
+      <c r="ACS20" s="1"/>
+      <c r="ACT20" s="1"/>
+      <c r="ACU20" s="1"/>
+      <c r="ACV20" s="1"/>
+      <c r="ACW20" s="1"/>
+      <c r="ACX20" s="1"/>
+      <c r="ACY20" s="1"/>
+      <c r="ACZ20" s="1"/>
+      <c r="ADA20" s="1"/>
+      <c r="ADB20" s="1"/>
+      <c r="ADC20" s="1"/>
+      <c r="ADD20" s="1"/>
+      <c r="ADE20" s="1"/>
+      <c r="ADF20" s="1"/>
+      <c r="ADG20" s="1"/>
+      <c r="ADH20" s="1"/>
+      <c r="ADI20" s="1"/>
+      <c r="ADJ20" s="1"/>
+      <c r="ADK20" s="1"/>
+      <c r="ADL20" s="1"/>
+      <c r="ADM20" s="1"/>
+      <c r="ADN20" s="1"/>
+      <c r="ADO20" s="1"/>
+      <c r="ADP20" s="1"/>
+      <c r="ADQ20" s="1"/>
+      <c r="ADR20" s="1"/>
+      <c r="ADS20" s="1"/>
+      <c r="ADT20" s="1"/>
+      <c r="ADU20" s="1"/>
+      <c r="ADV20" s="1"/>
+      <c r="ADW20" s="1"/>
+      <c r="ADX20" s="1"/>
+      <c r="ADY20" s="1"/>
+      <c r="ADZ20" s="1"/>
+      <c r="AEA20" s="1"/>
+      <c r="AEB20" s="1"/>
+      <c r="AEC20" s="1"/>
+      <c r="AED20" s="1"/>
+      <c r="AEE20" s="1"/>
+      <c r="AEF20" s="1"/>
+      <c r="AEG20" s="1"/>
+      <c r="AEH20" s="1"/>
+      <c r="AEI20" s="1"/>
+      <c r="AEJ20" s="1"/>
+      <c r="AEK20" s="1"/>
+      <c r="AEL20" s="1"/>
+      <c r="AEM20" s="1"/>
+      <c r="AEN20" s="1"/>
+      <c r="AEO20" s="1"/>
+      <c r="AEP20" s="1"/>
+      <c r="AEQ20" s="1"/>
+      <c r="AER20" s="1"/>
+      <c r="AES20" s="1"/>
+      <c r="AET20" s="1"/>
+      <c r="AEU20" s="1"/>
+      <c r="AEV20" s="1"/>
+      <c r="AEW20" s="1"/>
+      <c r="AEX20" s="1"/>
+      <c r="AEY20" s="1"/>
+      <c r="AEZ20" s="1"/>
+      <c r="AFA20" s="1"/>
+      <c r="AFB20" s="1"/>
+      <c r="AFC20" s="1"/>
+      <c r="AFD20" s="1"/>
+      <c r="AFE20" s="1"/>
+      <c r="AFF20" s="1"/>
+      <c r="AFG20" s="1"/>
+      <c r="AFH20" s="1"/>
+      <c r="AFI20" s="1"/>
+      <c r="AFJ20" s="1"/>
+      <c r="AFK20" s="1"/>
+      <c r="AFL20" s="1"/>
+      <c r="AFM20" s="1"/>
+      <c r="AFN20" s="1"/>
+      <c r="AFO20" s="1"/>
+      <c r="AFP20" s="1"/>
+      <c r="AFQ20" s="1"/>
+      <c r="AFR20" s="1"/>
+      <c r="AFS20" s="1"/>
+      <c r="AFT20" s="1"/>
+      <c r="AFU20" s="1"/>
+      <c r="AFV20" s="1"/>
+      <c r="AFW20" s="1"/>
+      <c r="AFX20" s="1"/>
+      <c r="AFY20" s="1"/>
+      <c r="AFZ20" s="1"/>
+      <c r="AGA20" s="1"/>
+      <c r="AGB20" s="1"/>
+      <c r="AGC20" s="1"/>
+      <c r="AGD20" s="1"/>
+      <c r="AGE20" s="1"/>
+      <c r="AGF20" s="1"/>
+      <c r="AGG20" s="1"/>
+      <c r="AGH20" s="1"/>
+      <c r="AGI20" s="1"/>
+      <c r="AGJ20" s="1"/>
+      <c r="AGK20" s="1"/>
+      <c r="AGL20" s="1"/>
+      <c r="AGM20" s="1"/>
+      <c r="AGN20" s="1"/>
+      <c r="AGO20" s="1"/>
+      <c r="AGP20" s="1"/>
+      <c r="AGQ20" s="1"/>
+      <c r="AGR20" s="1"/>
+      <c r="AGS20" s="1"/>
+      <c r="AGT20" s="1"/>
+      <c r="AGU20" s="1"/>
+      <c r="AGV20" s="1"/>
+      <c r="AGW20" s="1"/>
+      <c r="AGX20" s="1"/>
+      <c r="AGY20" s="1"/>
+      <c r="AGZ20" s="1"/>
+      <c r="AHA20" s="1"/>
+      <c r="AHB20" s="1"/>
+      <c r="AHC20" s="1"/>
+      <c r="AHD20" s="1"/>
+      <c r="AHE20" s="1"/>
+      <c r="AHF20" s="1"/>
+      <c r="AHG20" s="1"/>
+      <c r="AHH20" s="1"/>
+      <c r="AHI20" s="1"/>
+      <c r="AHJ20" s="1"/>
+      <c r="AHK20" s="1"/>
+      <c r="AHL20" s="1"/>
+      <c r="AHM20" s="1"/>
+      <c r="AHN20" s="1"/>
+      <c r="AHO20" s="1"/>
+      <c r="AHP20" s="1"/>
+      <c r="AHQ20" s="1"/>
+      <c r="AHR20" s="1"/>
+      <c r="AHS20" s="1"/>
+      <c r="AHT20" s="1"/>
+      <c r="AHU20" s="1"/>
+      <c r="AHV20" s="1"/>
+      <c r="AHW20" s="1"/>
+      <c r="AHX20" s="1"/>
+      <c r="AHY20" s="1"/>
+      <c r="AHZ20" s="1"/>
+      <c r="AIA20" s="1"/>
+      <c r="AIB20" s="1"/>
+      <c r="AIC20" s="1"/>
+      <c r="AID20" s="1"/>
+      <c r="AIE20" s="1"/>
+      <c r="AIF20" s="1"/>
+      <c r="AIG20" s="1"/>
+      <c r="AIH20" s="1"/>
+      <c r="AII20" s="1"/>
+      <c r="AIJ20" s="1"/>
+      <c r="AIK20" s="1"/>
+      <c r="AIL20" s="1"/>
+      <c r="AIM20" s="1"/>
+      <c r="AIN20" s="1"/>
+      <c r="AIO20" s="1"/>
+      <c r="AIP20" s="1"/>
+      <c r="AIQ20" s="1"/>
+      <c r="AIR20" s="1"/>
+      <c r="AIS20" s="1"/>
+      <c r="AIT20" s="1"/>
+      <c r="AIU20" s="1"/>
+      <c r="AIV20" s="1"/>
+      <c r="AIW20" s="1"/>
+      <c r="AIX20" s="1"/>
+      <c r="AIY20" s="1"/>
+      <c r="AIZ20" s="1"/>
+      <c r="AJA20" s="1"/>
+      <c r="AJB20" s="1"/>
+      <c r="AJC20" s="1"/>
+      <c r="AJD20" s="1"/>
+      <c r="AJE20" s="1"/>
+      <c r="AJF20" s="1"/>
+      <c r="AJG20" s="1"/>
+      <c r="AJH20" s="1"/>
+      <c r="AJI20" s="1"/>
+      <c r="AJJ20" s="1"/>
+      <c r="AJK20" s="1"/>
+      <c r="AJL20" s="1"/>
+      <c r="AJM20" s="1"/>
+      <c r="AJN20" s="1"/>
+      <c r="AJO20" s="1"/>
+      <c r="AJP20" s="1"/>
+      <c r="AJQ20" s="1"/>
+      <c r="AJR20" s="1"/>
+      <c r="AJS20" s="1"/>
+      <c r="AJT20" s="1"/>
+      <c r="AJU20" s="1"/>
+      <c r="AJV20" s="1"/>
+      <c r="AJW20" s="1"/>
+      <c r="AJX20" s="1"/>
+      <c r="AJY20" s="1"/>
+      <c r="AJZ20" s="1"/>
+      <c r="AKA20" s="1"/>
+      <c r="AKB20" s="1"/>
+      <c r="AKC20" s="1"/>
+      <c r="AKD20" s="1"/>
+      <c r="AKE20" s="1"/>
+      <c r="AKF20" s="1"/>
+      <c r="AKG20" s="1"/>
+      <c r="AKH20" s="1"/>
+      <c r="AKI20" s="1"/>
+      <c r="AKJ20" s="1"/>
+      <c r="AKK20" s="1"/>
+      <c r="AKL20" s="1"/>
+      <c r="AKM20" s="1"/>
+      <c r="AKN20" s="1"/>
+      <c r="AKO20" s="1"/>
+      <c r="AKP20" s="1"/>
+      <c r="AKQ20" s="1"/>
+      <c r="AKR20" s="1"/>
+      <c r="AKS20" s="1"/>
+      <c r="AKT20" s="1"/>
+      <c r="AKU20" s="1"/>
+      <c r="AKV20" s="1"/>
+      <c r="AKW20" s="1"/>
+      <c r="AKX20" s="1"/>
+      <c r="AKY20" s="1"/>
+      <c r="AKZ20" s="1"/>
+      <c r="ALA20" s="1"/>
+      <c r="ALB20" s="1"/>
+      <c r="ALC20" s="1"/>
+      <c r="ALD20" s="1"/>
+      <c r="ALE20" s="1"/>
+      <c r="ALF20" s="1"/>
+      <c r="ALG20" s="1"/>
+      <c r="ALH20" s="1"/>
+      <c r="ALI20" s="1"/>
+      <c r="ALJ20" s="1"/>
+      <c r="ALK20" s="1"/>
+      <c r="ALL20" s="1"/>
+      <c r="ALM20" s="1"/>
+      <c r="ALN20" s="1"/>
+      <c r="ALO20" s="1"/>
+      <c r="ALP20" s="1"/>
+      <c r="ALQ20" s="1"/>
+      <c r="ALR20" s="1"/>
+      <c r="ALS20" s="1"/>
+      <c r="ALT20" s="1"/>
+      <c r="ALU20" s="1"/>
+      <c r="ALV20" s="1"/>
+      <c r="ALW20" s="1"/>
+      <c r="ALX20" s="1"/>
+      <c r="ALY20" s="1"/>
+      <c r="ALZ20" s="1"/>
+      <c r="AMA20" s="1"/>
+      <c r="AMB20" s="1"/>
+      <c r="AMC20" s="1"/>
+      <c r="AMD20" s="1"/>
+      <c r="AME20" s="1"/>
+      <c r="AMF20" s="1"/>
+      <c r="AMG20" s="1"/>
+      <c r="AMH20" s="1"/>
+      <c r="AMI20" s="1"/>
+      <c r="AMJ20" s="1"/>
     </row>
     <row r="21" spans="1:1024" ht="18" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="14" t="s">
-        <v>22</v>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="73" t="s">
+        <v>20</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="40"/>
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="40"/>
+      <c r="BF21" s="40"/>
+      <c r="BG21" s="40"/>
+      <c r="BH21" s="40"/>
+      <c r="BI21" s="40"/>
+      <c r="BJ21" s="40"/>
+      <c r="BK21" s="41"/>
       <c r="BL21" s="23"/>
       <c r="BM21" s="23"/>
       <c r="BN21" s="23"/>
@@ -19460,69 +19434,69 @@
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="34" t="s">
-        <v>20</v>
+      <c r="G22" s="39">
+        <v>1</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37" t="s">
-        <v>14</v>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="39" t="s">
+        <v>32</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="34" t="s">
-        <v>21</v>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="39" t="s">
+        <v>33</v>
       </c>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="40"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="40"/>
+      <c r="BD22" s="40"/>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="40"/>
+      <c r="BH22" s="40"/>
+      <c r="BI22" s="40"/>
+      <c r="BJ22" s="40"/>
+      <c r="BK22" s="41"/>
       <c r="BL22" s="23"/>
       <c r="BM22" s="23"/>
       <c r="BN22" s="23"/>
@@ -20492,69 +20466,69 @@
       <c r="D23" s="23"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="41">
-        <v>1</v>
+      <c r="G23" s="39">
+        <v>2</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41" t="s">
-        <v>38</v>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="39" t="s">
+        <v>57</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="41" t="s">
-        <v>39</v>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="39" t="s">
+        <v>56</v>
       </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39"/>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
-      <c r="BA23" s="39"/>
-      <c r="BB23" s="39"/>
-      <c r="BC23" s="39"/>
-      <c r="BD23" s="39"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="39"/>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="39"/>
-      <c r="BI23" s="39"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="40"/>
+      <c r="BJ23" s="40"/>
+      <c r="BK23" s="41"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
@@ -21524,69 +21498,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="41">
-        <v>2</v>
+      <c r="G24" s="39">
+        <v>3</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41" t="s">
-        <v>41</v>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="39" t="s">
+        <v>35</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="41" t="s">
-        <v>42</v>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="39" t="s">
+        <v>36</v>
       </c>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="39"/>
-      <c r="BC24" s="39"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="40"/>
+      <c r="AX24" s="40"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="40"/>
+      <c r="BC24" s="40"/>
+      <c r="BD24" s="40"/>
+      <c r="BE24" s="40"/>
+      <c r="BF24" s="40"/>
+      <c r="BG24" s="40"/>
+      <c r="BH24" s="40"/>
+      <c r="BI24" s="40"/>
+      <c r="BJ24" s="40"/>
+      <c r="BK24" s="41"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -22556,69 +22530,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="41">
-        <v>3</v>
+      <c r="G25" s="39">
+        <v>4</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41" t="s">
-        <v>44</v>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="39" t="s">
+        <v>38</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="41" t="s">
-        <v>43</v>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="39" t="s">
+        <v>37</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="39"/>
-      <c r="BB25" s="39"/>
-      <c r="BC25" s="39"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="39"/>
-      <c r="BF25" s="39"/>
-      <c r="BG25" s="39"/>
-      <c r="BH25" s="39"/>
-      <c r="BI25" s="39"/>
-      <c r="BJ25" s="39"/>
-      <c r="BK25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40"/>
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="40"/>
+      <c r="BC25" s="40"/>
+      <c r="BD25" s="40"/>
+      <c r="BE25" s="40"/>
+      <c r="BF25" s="40"/>
+      <c r="BG25" s="40"/>
+      <c r="BH25" s="40"/>
+      <c r="BI25" s="40"/>
+      <c r="BJ25" s="40"/>
+      <c r="BK25" s="41"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -23588,69 +23562,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="41">
-        <v>4</v>
+      <c r="G26" s="39">
+        <v>5</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41" t="s">
-        <v>45</v>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="39" t="s">
+        <v>39</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41" t="s">
-        <v>46</v>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="39" t="s">
+        <v>40</v>
       </c>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="39"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="39"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="39"/>
-      <c r="BF26" s="39"/>
-      <c r="BG26" s="39"/>
-      <c r="BH26" s="39"/>
-      <c r="BI26" s="39"/>
-      <c r="BJ26" s="39"/>
-      <c r="BK26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="40"/>
+      <c r="BF26" s="40"/>
+      <c r="BG26" s="40"/>
+      <c r="BH26" s="40"/>
+      <c r="BI26" s="40"/>
+      <c r="BJ26" s="40"/>
+      <c r="BK26" s="41"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -24620,69 +24594,69 @@
       <c r="D27" s="23"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="41">
-        <v>5</v>
+      <c r="G27" s="39">
+        <v>6</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41" t="s">
-        <v>47</v>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="39" t="s">
+        <v>41</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="41" t="s">
-        <v>48</v>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="39" t="s">
+        <v>42</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="40"/>
+      <c r="BE27" s="40"/>
+      <c r="BF27" s="40"/>
+      <c r="BG27" s="40"/>
+      <c r="BH27" s="40"/>
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="40"/>
+      <c r="BK27" s="41"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="23"/>
@@ -25652,69 +25626,69 @@
       <c r="D28" s="23"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="41">
-        <v>6</v>
+      <c r="G28" s="39">
+        <v>7</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41" t="s">
-        <v>47</v>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39" t="s">
+        <v>41</v>
       </c>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="41" t="s">
-        <v>48</v>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="39" t="s">
+        <v>42</v>
       </c>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="65"/>
-      <c r="BA28" s="65"/>
-      <c r="BB28" s="65"/>
-      <c r="BC28" s="65"/>
-      <c r="BD28" s="65"/>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="65"/>
-      <c r="BK28" s="66"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="43"/>
       <c r="BL28" s="23"/>
       <c r="BM28" s="23"/>
       <c r="BN28" s="23"/>
@@ -26685,62 +26659,62 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="23"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
       <c r="Y29" s="23"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="74"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="74"/>
-      <c r="AQ29" s="74"/>
-      <c r="AR29" s="74"/>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="74"/>
-      <c r="AU29" s="74"/>
-      <c r="AV29" s="74"/>
-      <c r="AW29" s="74"/>
-      <c r="AX29" s="74"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="74"/>
-      <c r="BA29" s="74"/>
-      <c r="BB29" s="74"/>
-      <c r="BC29" s="74"/>
-      <c r="BD29" s="74"/>
-      <c r="BE29" s="74"/>
-      <c r="BF29" s="74"/>
-      <c r="BG29" s="74"/>
-      <c r="BH29" s="74"/>
-      <c r="BI29" s="74"/>
-      <c r="BJ29" s="74"/>
-      <c r="BK29" s="74"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="33"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="33"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="33"/>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
       <c r="BN29" s="23"/>
@@ -27705,11 +27679,11 @@
     </row>
     <row r="30" spans="1:1024" ht="18" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="75"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="15"/>
       <c r="H30" s="1"/>
       <c r="I30" s="15"/>
@@ -28731,11 +28705,11 @@
     </row>
     <row r="31" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -28793,30 +28767,30 @@
       <c r="BI31" s="19"/>
       <c r="BJ31" s="19"/>
       <c r="BK31" s="19"/>
-      <c r="BL31" s="23"/>
-      <c r="BM31" s="23"/>
-      <c r="BN31" s="23"/>
-      <c r="BO31" s="23"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13"/>
-      <c r="BR31" s="13"/>
-      <c r="BS31" s="13"/>
-      <c r="BT31" s="13"/>
-      <c r="BU31" s="13"/>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
-      <c r="BY31" s="13"/>
-      <c r="BZ31" s="13"/>
-      <c r="CA31" s="13"/>
-      <c r="CB31" s="13"/>
-      <c r="CC31" s="13"/>
-      <c r="CD31" s="13"/>
-      <c r="CE31" s="13"/>
-      <c r="CF31" s="16"/>
-      <c r="CG31" s="16"/>
-      <c r="CH31" s="16"/>
-      <c r="CI31" s="17"/>
+      <c r="BL31" s="84"/>
+      <c r="BM31" s="84"/>
+      <c r="BN31" s="84"/>
+      <c r="BO31" s="84"/>
+      <c r="BP31" s="19"/>
+      <c r="BQ31" s="19"/>
+      <c r="BR31" s="19"/>
+      <c r="BS31" s="19"/>
+      <c r="BT31" s="19"/>
+      <c r="BU31" s="19"/>
+      <c r="BV31" s="19"/>
+      <c r="BW31" s="19"/>
+      <c r="BX31" s="19"/>
+      <c r="BY31" s="19"/>
+      <c r="BZ31" s="19"/>
+      <c r="CA31" s="19"/>
+      <c r="CB31" s="19"/>
+      <c r="CC31" s="19"/>
+      <c r="CD31" s="19"/>
+      <c r="CE31" s="19"/>
+      <c r="CF31" s="20"/>
+      <c r="CG31" s="20"/>
+      <c r="CH31" s="20"/>
+      <c r="CI31" s="21"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
@@ -29757,35 +29731,92 @@
     </row>
     <row r="32" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="1"/>
-      <c r="BR32" s="1"/>
-      <c r="BS32" s="1"/>
-      <c r="BT32" s="1"/>
-      <c r="BU32" s="1"/>
-      <c r="BV32" s="13"/>
-      <c r="BW32" s="13"/>
-      <c r="BX32" s="13"/>
-      <c r="BY32" s="13"/>
-      <c r="BZ32" s="13"/>
-      <c r="CA32" s="13"/>
-      <c r="CB32" s="13"/>
-      <c r="CC32" s="13"/>
-      <c r="CD32" s="13"/>
-      <c r="CE32" s="13"/>
-      <c r="CF32" s="16"/>
-      <c r="CG32" s="16"/>
-      <c r="CH32" s="16"/>
-      <c r="CI32" s="17"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="86"/>
+      <c r="AP32" s="86"/>
+      <c r="AQ32" s="86"/>
+      <c r="AR32" s="86"/>
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="86"/>
+      <c r="AX32" s="86"/>
+      <c r="AY32" s="86"/>
+      <c r="AZ32" s="86"/>
+      <c r="BA32" s="86"/>
+      <c r="BB32" s="86"/>
+      <c r="BC32" s="86"/>
+      <c r="BD32" s="86"/>
+      <c r="BE32" s="86"/>
+      <c r="BF32" s="86"/>
+      <c r="BG32" s="86"/>
+      <c r="BH32" s="86"/>
+      <c r="BI32" s="86"/>
+      <c r="BJ32" s="86"/>
+      <c r="BK32" s="86"/>
+      <c r="BL32" s="86"/>
+      <c r="BM32" s="86"/>
+      <c r="BN32" s="86"/>
+      <c r="BO32" s="86"/>
+      <c r="BP32" s="86"/>
+      <c r="BQ32" s="86"/>
+      <c r="BR32" s="86"/>
+      <c r="BS32" s="86"/>
+      <c r="BT32" s="86"/>
+      <c r="BU32" s="86"/>
+      <c r="BV32" s="86"/>
+      <c r="BW32" s="86"/>
+      <c r="BX32" s="86"/>
+      <c r="BY32" s="86"/>
+      <c r="BZ32" s="86"/>
+      <c r="CA32" s="86"/>
+      <c r="CB32" s="86"/>
+      <c r="CC32" s="86"/>
+      <c r="CD32" s="86"/>
+      <c r="CE32" s="86"/>
+      <c r="CF32" s="86"/>
+      <c r="CG32" s="86"/>
+      <c r="CH32" s="86"/>
+      <c r="CI32" s="86"/>
       <c r="CJ32" s="1"/>
       <c r="CK32" s="1"/>
       <c r="CL32" s="1"/>
@@ -30724,104 +30755,104 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="33" spans="1:1024" ht="18" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="70" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="43" t="s">
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="43" t="s">
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="84" t="s">
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="AT33" s="81"/>
-      <c r="AU33" s="82"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="82"/>
-      <c r="BA33" s="82"/>
-      <c r="BB33" s="82"/>
-      <c r="BC33" s="82"/>
-      <c r="BD33" s="82"/>
-      <c r="BE33" s="82"/>
-      <c r="BF33" s="82"/>
-      <c r="BG33" s="82"/>
-      <c r="BH33" s="82"/>
-      <c r="BI33" s="82"/>
-      <c r="BJ33" s="82"/>
-      <c r="BK33" s="82"/>
-      <c r="BL33" s="82"/>
-      <c r="BM33" s="82"/>
-      <c r="BN33" s="82"/>
-      <c r="BO33" s="82"/>
-      <c r="BP33" s="82"/>
-      <c r="BQ33" s="82"/>
-      <c r="BR33" s="82"/>
-      <c r="BS33" s="82"/>
-      <c r="BT33" s="82"/>
-      <c r="BU33" s="82"/>
-      <c r="BV33" s="20"/>
-      <c r="BW33" s="20"/>
-      <c r="BX33" s="20"/>
-      <c r="BY33" s="20"/>
-      <c r="BZ33" s="20"/>
-      <c r="CA33" s="20"/>
-      <c r="CB33" s="20"/>
-      <c r="CC33" s="20"/>
-      <c r="CD33" s="20"/>
-      <c r="CE33" s="20"/>
-      <c r="CF33" s="20"/>
-      <c r="CG33" s="20"/>
-      <c r="CH33" s="20"/>
-      <c r="CI33" s="21"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="79"/>
+      <c r="BA33" s="79"/>
+      <c r="BB33" s="79"/>
+      <c r="BC33" s="79"/>
+      <c r="BD33" s="79"/>
+      <c r="BE33" s="79"/>
+      <c r="BF33" s="79"/>
+      <c r="BG33" s="79"/>
+      <c r="BH33" s="79"/>
+      <c r="BI33" s="79"/>
+      <c r="BJ33" s="79"/>
+      <c r="BK33" s="79"/>
+      <c r="BL33" s="79"/>
+      <c r="BM33" s="79"/>
+      <c r="BN33" s="79"/>
+      <c r="BO33" s="79"/>
+      <c r="BP33" s="79"/>
+      <c r="BQ33" s="79"/>
+      <c r="BR33" s="79"/>
+      <c r="BS33" s="79"/>
+      <c r="BT33" s="79"/>
+      <c r="BU33" s="79"/>
+      <c r="BV33" s="79"/>
+      <c r="BW33" s="79"/>
+      <c r="BX33" s="79"/>
+      <c r="BY33" s="79"/>
+      <c r="BZ33" s="79"/>
+      <c r="CA33" s="79"/>
+      <c r="CB33" s="79"/>
+      <c r="CC33" s="79"/>
+      <c r="CD33" s="79"/>
+      <c r="CE33" s="79"/>
+      <c r="CF33" s="79"/>
+      <c r="CG33" s="79"/>
+      <c r="CH33" s="79"/>
+      <c r="CI33" s="83"/>
       <c r="CJ33" s="1"/>
       <c r="CK33" s="1"/>
       <c r="CL33" s="1"/>
@@ -31762,102 +31793,102 @@
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="62">
+      <c r="B34" s="50">
         <v>3</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="29" t="s">
-        <v>51</v>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="28" t="s">
+        <v>45</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="41" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="41" t="s">
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="30" t="s">
-        <v>56</v>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="80" t="s">
+        <v>50</v>
       </c>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="30"/>
-      <c r="AV34" s="30"/>
-      <c r="AW34" s="85"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
-      <c r="BA34" s="32"/>
-      <c r="BB34" s="32"/>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32"/>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32"/>
-      <c r="BK34" s="32"/>
-      <c r="BL34" s="32"/>
-      <c r="BM34" s="32"/>
-      <c r="BN34" s="32"/>
-      <c r="BO34" s="32"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32"/>
-      <c r="BS34" s="32"/>
-      <c r="BT34" s="32"/>
-      <c r="BU34" s="77"/>
-      <c r="BV34" s="1"/>
-      <c r="BW34" s="1"/>
-      <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
-      <c r="BZ34" s="1"/>
-      <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
+      <c r="AT34" s="81"/>
+      <c r="AU34" s="81"/>
+      <c r="AV34" s="81"/>
+      <c r="AW34" s="81"/>
+      <c r="AX34" s="81"/>
+      <c r="AY34" s="81"/>
+      <c r="AZ34" s="81"/>
+      <c r="BA34" s="81"/>
+      <c r="BB34" s="81"/>
+      <c r="BC34" s="81"/>
+      <c r="BD34" s="81"/>
+      <c r="BE34" s="81"/>
+      <c r="BF34" s="81"/>
+      <c r="BG34" s="81"/>
+      <c r="BH34" s="81"/>
+      <c r="BI34" s="81"/>
+      <c r="BJ34" s="81"/>
+      <c r="BK34" s="81"/>
+      <c r="BL34" s="81"/>
+      <c r="BM34" s="81"/>
+      <c r="BN34" s="81"/>
+      <c r="BO34" s="81"/>
+      <c r="BP34" s="81"/>
+      <c r="BQ34" s="81"/>
+      <c r="BR34" s="81"/>
+      <c r="BS34" s="81"/>
+      <c r="BT34" s="81"/>
+      <c r="BU34" s="81"/>
+      <c r="BV34" s="81"/>
+      <c r="BW34" s="81"/>
+      <c r="BX34" s="81"/>
+      <c r="BY34" s="81"/>
+      <c r="BZ34" s="81"/>
+      <c r="CA34" s="81"/>
+      <c r="CB34" s="81"/>
+      <c r="CC34" s="81"/>
+      <c r="CD34" s="81"/>
+      <c r="CE34" s="81"/>
+      <c r="CF34" s="81"/>
+      <c r="CG34" s="81"/>
+      <c r="CH34" s="81"/>
+      <c r="CI34" s="82"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -32870,20 +32901,20 @@
       <c r="BS35" s="10"/>
       <c r="BT35" s="10"/>
       <c r="BU35" s="10"/>
-      <c r="BV35" s="82"/>
-      <c r="BW35" s="82"/>
-      <c r="BX35" s="82"/>
-      <c r="BY35" s="82"/>
-      <c r="BZ35" s="83"/>
-      <c r="CA35" s="28"/>
-      <c r="CB35" s="28"/>
-      <c r="CC35" s="28"/>
-      <c r="CD35" s="28"/>
-      <c r="CE35" s="28"/>
-      <c r="CF35" s="28"/>
-      <c r="CG35" s="28"/>
-      <c r="CH35" s="28"/>
-      <c r="CI35" s="28"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
+      <c r="BY35" s="10"/>
+      <c r="BZ35" s="10"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="10"/>
+      <c r="CC35" s="10"/>
+      <c r="CD35" s="10"/>
+      <c r="CE35" s="10"/>
+      <c r="CF35" s="10"/>
+      <c r="CG35" s="10"/>
+      <c r="CH35" s="10"/>
+      <c r="CI35" s="11"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -33822,31 +33853,31 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="36" spans="1:1024" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
-      <c r="E36" s="78" t="s">
-        <v>52</v>
+      <c r="E36" s="36" t="s">
+        <v>46</v>
       </c>
-      <c r="F36" s="80" t="s">
-        <v>55</v>
+      <c r="F36" s="38" t="s">
+        <v>49</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
       <c r="V36" s="23"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
@@ -33899,20 +33930,20 @@
       <c r="BS36" s="13"/>
       <c r="BT36" s="13"/>
       <c r="BU36" s="13"/>
-      <c r="BV36" s="30"/>
-      <c r="BW36" s="30"/>
-      <c r="BX36" s="30"/>
-      <c r="BY36" s="30"/>
-      <c r="BZ36" s="30"/>
-      <c r="CA36" s="30"/>
-      <c r="CB36" s="30"/>
-      <c r="CC36" s="30"/>
-      <c r="CD36" s="30"/>
-      <c r="CE36" s="30"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
-      <c r="CH36" s="30"/>
-      <c r="CI36" s="30"/>
+      <c r="BV36" s="13"/>
+      <c r="BW36" s="13"/>
+      <c r="BX36" s="13"/>
+      <c r="BY36" s="13"/>
+      <c r="BZ36" s="13"/>
+      <c r="CA36" s="13"/>
+      <c r="CB36" s="13"/>
+      <c r="CC36" s="13"/>
+      <c r="CD36" s="13"/>
+      <c r="CE36" s="13"/>
+      <c r="CF36" s="16"/>
+      <c r="CG36" s="16"/>
+      <c r="CH36" s="16"/>
+      <c r="CI36" s="17"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
@@ -34856,7 +34887,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="76"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -34925,20 +34956,20 @@
       <c r="BS37" s="13"/>
       <c r="BT37" s="13"/>
       <c r="BU37" s="13"/>
-      <c r="BV37" s="10"/>
-      <c r="BW37" s="10"/>
-      <c r="BX37" s="10"/>
-      <c r="BY37" s="10"/>
-      <c r="BZ37" s="10"/>
-      <c r="CA37" s="10"/>
-      <c r="CB37" s="10"/>
-      <c r="CC37" s="10"/>
-      <c r="CD37" s="10"/>
-      <c r="CE37" s="10"/>
-      <c r="CF37" s="10"/>
-      <c r="CG37" s="10"/>
-      <c r="CH37" s="10"/>
-      <c r="CI37" s="11"/>
+      <c r="BV37" s="13"/>
+      <c r="BW37" s="13"/>
+      <c r="BX37" s="13"/>
+      <c r="BY37" s="13"/>
+      <c r="BZ37" s="13"/>
+      <c r="CA37" s="13"/>
+      <c r="CB37" s="13"/>
+      <c r="CC37" s="13"/>
+      <c r="CD37" s="13"/>
+      <c r="CE37" s="13"/>
+      <c r="CF37" s="16"/>
+      <c r="CG37" s="16"/>
+      <c r="CH37" s="16"/>
+      <c r="CI37" s="17"/>
       <c r="CJ37" s="1"/>
       <c r="CK37" s="1"/>
       <c r="CL37" s="1"/>
@@ -35882,69 +35913,69 @@
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="79" t="s">
-        <v>53</v>
+      <c r="E38" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="F38" s="80" t="s">
-        <v>54</v>
+      <c r="F38" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
       <c r="AA38" s="23"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="74"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="74"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="74"/>
-      <c r="AM38" s="74"/>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="74"/>
-      <c r="AR38" s="74"/>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="74"/>
-      <c r="AU38" s="74"/>
-      <c r="AV38" s="74"/>
-      <c r="AW38" s="74"/>
-      <c r="AX38" s="74"/>
-      <c r="AY38" s="74"/>
-      <c r="AZ38" s="74"/>
-      <c r="BA38" s="74"/>
-      <c r="BB38" s="74"/>
-      <c r="BC38" s="74"/>
-      <c r="BD38" s="74"/>
-      <c r="BE38" s="74"/>
-      <c r="BF38" s="74"/>
-      <c r="BG38" s="74"/>
-      <c r="BH38" s="74"/>
-      <c r="BI38" s="74"/>
-      <c r="BJ38" s="74"/>
-      <c r="BK38" s="74"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33"/>
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="33"/>
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
+      <c r="BI38" s="33"/>
+      <c r="BJ38" s="33"/>
+      <c r="BK38" s="33"/>
       <c r="BL38" s="23"/>
       <c r="BM38" s="23"/>
       <c r="BN38" s="23"/>
@@ -36912,65 +36943,65 @@
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="76"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
       <c r="Y39" s="23"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="74"/>
-      <c r="AG39" s="74"/>
-      <c r="AH39" s="74"/>
-      <c r="AI39" s="74"/>
-      <c r="AJ39" s="74"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="74"/>
-      <c r="AM39" s="74"/>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
-      <c r="AQ39" s="74"/>
-      <c r="AR39" s="74"/>
-      <c r="AS39" s="74"/>
-      <c r="AT39" s="74"/>
-      <c r="AU39" s="74"/>
-      <c r="AV39" s="74"/>
-      <c r="AW39" s="74"/>
-      <c r="AX39" s="74"/>
-      <c r="AY39" s="74"/>
-      <c r="AZ39" s="74"/>
-      <c r="BA39" s="74"/>
-      <c r="BB39" s="74"/>
-      <c r="BC39" s="74"/>
-      <c r="BD39" s="74"/>
-      <c r="BE39" s="74"/>
-      <c r="BF39" s="74"/>
-      <c r="BG39" s="74"/>
-      <c r="BH39" s="74"/>
-      <c r="BI39" s="74"/>
-      <c r="BJ39" s="74"/>
-      <c r="BK39" s="74"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="33"/>
+      <c r="BA39" s="33"/>
+      <c r="BB39" s="33"/>
+      <c r="BC39" s="33"/>
+      <c r="BD39" s="33"/>
+      <c r="BE39" s="33"/>
+      <c r="BF39" s="33"/>
+      <c r="BG39" s="33"/>
+      <c r="BH39" s="33"/>
+      <c r="BI39" s="33"/>
+      <c r="BJ39" s="33"/>
+      <c r="BK39" s="33"/>
       <c r="BL39" s="23"/>
       <c r="BM39" s="23"/>
       <c r="BN39" s="23"/>
@@ -37938,65 +37969,65 @@
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="23"/>
-      <c r="E40" s="76"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
       <c r="Y40" s="23"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="74"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="74"/>
-      <c r="AD40" s="74"/>
-      <c r="AE40" s="74"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="74"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="74"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="74"/>
-      <c r="AP40" s="74"/>
-      <c r="AQ40" s="74"/>
-      <c r="AR40" s="74"/>
-      <c r="AS40" s="74"/>
-      <c r="AT40" s="74"/>
-      <c r="AU40" s="74"/>
-      <c r="AV40" s="74"/>
-      <c r="AW40" s="74"/>
-      <c r="AX40" s="74"/>
-      <c r="AY40" s="74"/>
-      <c r="AZ40" s="74"/>
-      <c r="BA40" s="74"/>
-      <c r="BB40" s="74"/>
-      <c r="BC40" s="74"/>
-      <c r="BD40" s="74"/>
-      <c r="BE40" s="74"/>
-      <c r="BF40" s="74"/>
-      <c r="BG40" s="74"/>
-      <c r="BH40" s="74"/>
-      <c r="BI40" s="74"/>
-      <c r="BJ40" s="74"/>
-      <c r="BK40" s="74"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="33"/>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+      <c r="AZ40" s="33"/>
+      <c r="BA40" s="33"/>
+      <c r="BB40" s="33"/>
+      <c r="BC40" s="33"/>
+      <c r="BD40" s="33"/>
+      <c r="BE40" s="33"/>
+      <c r="BF40" s="33"/>
+      <c r="BG40" s="33"/>
+      <c r="BH40" s="33"/>
+      <c r="BI40" s="33"/>
+      <c r="BJ40" s="33"/>
+      <c r="BK40" s="33"/>
       <c r="BL40" s="23"/>
       <c r="BM40" s="23"/>
       <c r="BN40" s="23"/>
@@ -38964,65 +38995,65 @@
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="76"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
       <c r="Y41" s="23"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="74"/>
-      <c r="AG41" s="74"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="74"/>
-      <c r="AJ41" s="74"/>
-      <c r="AK41" s="74"/>
-      <c r="AL41" s="74"/>
-      <c r="AM41" s="74"/>
-      <c r="AN41" s="74"/>
-      <c r="AO41" s="74"/>
-      <c r="AP41" s="74"/>
-      <c r="AQ41" s="74"/>
-      <c r="AR41" s="74"/>
-      <c r="AS41" s="74"/>
-      <c r="AT41" s="74"/>
-      <c r="AU41" s="74"/>
-      <c r="AV41" s="74"/>
-      <c r="AW41" s="74"/>
-      <c r="AX41" s="74"/>
-      <c r="AY41" s="74"/>
-      <c r="AZ41" s="74"/>
-      <c r="BA41" s="74"/>
-      <c r="BB41" s="74"/>
-      <c r="BC41" s="74"/>
-      <c r="BD41" s="74"/>
-      <c r="BE41" s="74"/>
-      <c r="BF41" s="74"/>
-      <c r="BG41" s="74"/>
-      <c r="BH41" s="74"/>
-      <c r="BI41" s="74"/>
-      <c r="BJ41" s="74"/>
-      <c r="BK41" s="74"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BB41" s="33"/>
+      <c r="BC41" s="33"/>
+      <c r="BD41" s="33"/>
+      <c r="BE41" s="33"/>
+      <c r="BF41" s="33"/>
+      <c r="BG41" s="33"/>
+      <c r="BH41" s="33"/>
+      <c r="BI41" s="33"/>
+      <c r="BJ41" s="33"/>
+      <c r="BK41" s="33"/>
       <c r="BL41" s="23"/>
       <c r="BM41" s="23"/>
       <c r="BN41" s="23"/>
@@ -39990,65 +40021,65 @@
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="76"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="23"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
       <c r="Y42" s="23"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="74"/>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="74"/>
-      <c r="AM42" s="74"/>
-      <c r="AN42" s="74"/>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="74"/>
-      <c r="AR42" s="74"/>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="74"/>
-      <c r="AU42" s="74"/>
-      <c r="AV42" s="74"/>
-      <c r="AW42" s="74"/>
-      <c r="AX42" s="74"/>
-      <c r="AY42" s="74"/>
-      <c r="AZ42" s="74"/>
-      <c r="BA42" s="74"/>
-      <c r="BB42" s="74"/>
-      <c r="BC42" s="74"/>
-      <c r="BD42" s="74"/>
-      <c r="BE42" s="74"/>
-      <c r="BF42" s="74"/>
-      <c r="BG42" s="74"/>
-      <c r="BH42" s="74"/>
-      <c r="BI42" s="74"/>
-      <c r="BJ42" s="74"/>
-      <c r="BK42" s="74"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="33"/>
+      <c r="BC42" s="33"/>
+      <c r="BD42" s="33"/>
+      <c r="BE42" s="33"/>
+      <c r="BF42" s="33"/>
+      <c r="BG42" s="33"/>
+      <c r="BH42" s="33"/>
+      <c r="BI42" s="33"/>
+      <c r="BJ42" s="33"/>
+      <c r="BK42" s="33"/>
       <c r="BL42" s="23"/>
       <c r="BM42" s="23"/>
       <c r="BN42" s="23"/>
@@ -41016,65 +41047,65 @@
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="76"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
       <c r="Y43" s="23"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="74"/>
-      <c r="AF43" s="74"/>
-      <c r="AG43" s="74"/>
-      <c r="AH43" s="74"/>
-      <c r="AI43" s="74"/>
-      <c r="AJ43" s="74"/>
-      <c r="AK43" s="74"/>
-      <c r="AL43" s="74"/>
-      <c r="AM43" s="74"/>
-      <c r="AN43" s="74"/>
-      <c r="AO43" s="74"/>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
-      <c r="AR43" s="74"/>
-      <c r="AS43" s="74"/>
-      <c r="AT43" s="74"/>
-      <c r="AU43" s="74"/>
-      <c r="AV43" s="74"/>
-      <c r="AW43" s="74"/>
-      <c r="AX43" s="74"/>
-      <c r="AY43" s="74"/>
-      <c r="AZ43" s="74"/>
-      <c r="BA43" s="74"/>
-      <c r="BB43" s="74"/>
-      <c r="BC43" s="74"/>
-      <c r="BD43" s="74"/>
-      <c r="BE43" s="74"/>
-      <c r="BF43" s="74"/>
-      <c r="BG43" s="74"/>
-      <c r="BH43" s="74"/>
-      <c r="BI43" s="74"/>
-      <c r="BJ43" s="74"/>
-      <c r="BK43" s="74"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="33"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="33"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="33"/>
+      <c r="BB43" s="33"/>
+      <c r="BC43" s="33"/>
+      <c r="BD43" s="33"/>
+      <c r="BE43" s="33"/>
+      <c r="BF43" s="33"/>
+      <c r="BG43" s="33"/>
+      <c r="BH43" s="33"/>
+      <c r="BI43" s="33"/>
+      <c r="BJ43" s="33"/>
+      <c r="BK43" s="33"/>
       <c r="BL43" s="23"/>
       <c r="BM43" s="23"/>
       <c r="BN43" s="23"/>
@@ -42111,20 +42142,20 @@
       <c r="BS44" s="20"/>
       <c r="BT44" s="20"/>
       <c r="BU44" s="20"/>
-      <c r="BV44" s="13"/>
-      <c r="BW44" s="13"/>
-      <c r="BX44" s="13"/>
-      <c r="BY44" s="13"/>
-      <c r="BZ44" s="13"/>
-      <c r="CA44" s="13"/>
-      <c r="CB44" s="13"/>
-      <c r="CC44" s="13"/>
-      <c r="CD44" s="13"/>
-      <c r="CE44" s="13"/>
-      <c r="CF44" s="16"/>
-      <c r="CG44" s="16"/>
-      <c r="CH44" s="16"/>
-      <c r="CI44" s="17"/>
+      <c r="BV44" s="20"/>
+      <c r="BW44" s="20"/>
+      <c r="BX44" s="20"/>
+      <c r="BY44" s="20"/>
+      <c r="BZ44" s="20"/>
+      <c r="CA44" s="20"/>
+      <c r="CB44" s="20"/>
+      <c r="CC44" s="20"/>
+      <c r="CD44" s="20"/>
+      <c r="CE44" s="20"/>
+      <c r="CF44" s="20"/>
+      <c r="CG44" s="20"/>
+      <c r="CH44" s="20"/>
+      <c r="CI44" s="21"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
       <c r="CL44" s="1"/>
@@ -43065,20 +43096,6 @@
     </row>
     <row r="45" spans="1:1024" ht="18" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="BV45" s="13"/>
-      <c r="BW45" s="13"/>
-      <c r="BX45" s="13"/>
-      <c r="BY45" s="13"/>
-      <c r="BZ45" s="13"/>
-      <c r="CA45" s="13"/>
-      <c r="CB45" s="13"/>
-      <c r="CC45" s="13"/>
-      <c r="CD45" s="13"/>
-      <c r="CE45" s="13"/>
-      <c r="CF45" s="16"/>
-      <c r="CG45" s="16"/>
-      <c r="CH45" s="16"/>
-      <c r="CI45" s="17"/>
       <c r="CJ45" s="1"/>
       <c r="CK45" s="1"/>
       <c r="CL45" s="1"/>
@@ -44017,22 +44034,8 @@
       <c r="AMI45" s="1"/>
       <c r="AMJ45" s="1"/>
     </row>
-    <row r="46" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="46" spans="1:1024" ht="18" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="BV46" s="20"/>
-      <c r="BW46" s="20"/>
-      <c r="BX46" s="20"/>
-      <c r="BY46" s="20"/>
-      <c r="BZ46" s="20"/>
-      <c r="CA46" s="20"/>
-      <c r="CB46" s="20"/>
-      <c r="CC46" s="20"/>
-      <c r="CD46" s="20"/>
-      <c r="CE46" s="20"/>
-      <c r="CF46" s="20"/>
-      <c r="CG46" s="20"/>
-      <c r="CH46" s="20"/>
-      <c r="CI46" s="21"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
       <c r="CL46" s="1"/>
@@ -70378,51 +70381,22 @@
       <c r="AMJ79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:X28"/>
-    <mergeCell ref="Y28:BK28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:BK27"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:BK16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+  <mergeCells count="78">
+    <mergeCell ref="AS33:CI33"/>
+    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="B32:CI32"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:X21"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:X23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:X33"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="AI34:AR34"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y15:BK15"/>
+    <mergeCell ref="Y21:BK21"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -70437,6 +70411,35 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:X33"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:X13"/>
     <mergeCell ref="G14:I14"/>
@@ -70444,16 +70447,19 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:X12"/>
     <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:X28"/>
+    <mergeCell ref="Y28:BK28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:BK27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>システム名</t>
   </si>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>test/result</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>試験の結果を表示</t>
     <rPh sb="0" eb="2">
       <t>シケン</t>
@@ -238,13 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>( 2 ) test/resultを返す</t>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -439,10 +428,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>List&lt;TestForm.ユーザの解答&gt;</t>
     <rPh sb="18" eb="20">
       <t>カイトウ</t>
@@ -512,6 +497,17 @@
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>( 2 ) testResultを返す</t>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>testResult</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1145,6 +1141,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,19 +1171,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,37 +1201,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,35 +1246,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1625,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1636,7 +1632,7 @@
   <dimension ref="A1:AMK82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23:BK23"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1649,102 +1645,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="73" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="74" t="s">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BS1" s="75"/>
-      <c r="BT1" s="75"/>
-      <c r="BU1" s="75"/>
-      <c r="BV1" s="75"/>
-      <c r="BW1" s="75"/>
-      <c r="BX1" s="76" t="s">
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="74"/>
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="74"/>
+      <c r="BS1" s="74"/>
+      <c r="BT1" s="74"/>
+      <c r="BU1" s="74"/>
+      <c r="BV1" s="74"/>
+      <c r="BW1" s="74"/>
+      <c r="BX1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="76"/>
-      <c r="BZ1" s="76"/>
-      <c r="CA1" s="76"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="63"/>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63"/>
+      <c r="BY1" s="75"/>
+      <c r="BZ1" s="75"/>
+      <c r="CA1" s="75"/>
+      <c r="CB1" s="62"/>
+      <c r="CC1" s="62"/>
+      <c r="CD1" s="62"/>
+      <c r="CE1" s="62"/>
+      <c r="CF1" s="62"/>
+      <c r="CG1" s="62"/>
+      <c r="CH1" s="62"/>
+      <c r="CI1" s="62"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2686,102 +2682,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="67" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65"/>
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69" t="s">
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
+      <c r="BR2" s="67"/>
+      <c r="BS2" s="67"/>
+      <c r="BT2" s="67"/>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3811,100 +3807,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="60" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="52" t="s">
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="52"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="52"/>
-      <c r="CD4" s="52"/>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="77"/>
+      <c r="BM4" s="77"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="77"/>
+      <c r="BQ4" s="77"/>
+      <c r="BR4" s="77"/>
+      <c r="BS4" s="77"/>
+      <c r="BT4" s="77"/>
+      <c r="BU4" s="77"/>
+      <c r="BV4" s="77"/>
+      <c r="BW4" s="77"/>
+      <c r="BX4" s="77"/>
+      <c r="BY4" s="77"/>
+      <c r="BZ4" s="77"/>
+      <c r="CA4" s="77"/>
+      <c r="CB4" s="77"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="77"/>
+      <c r="CE4" s="77"/>
+      <c r="CF4" s="77"/>
+      <c r="CG4" s="77"/>
+      <c r="CH4" s="77"/>
+      <c r="CI4" s="77"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4846,100 +4842,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="53">
+      <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="62"/>
-      <c r="BZ5" s="62"/>
-      <c r="CA5" s="62"/>
-      <c r="CB5" s="62"/>
-      <c r="CC5" s="62"/>
-      <c r="CD5" s="62"/>
-      <c r="CE5" s="62"/>
-      <c r="CF5" s="62"/>
-      <c r="CG5" s="62"/>
-      <c r="CH5" s="62"/>
-      <c r="CI5" s="62"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="79"/>
+      <c r="CF5" s="79"/>
+      <c r="CG5" s="79"/>
+      <c r="CH5" s="79"/>
+      <c r="CI5" s="79"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5968,134 +5964,134 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="49" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="49" t="s">
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="52" t="s">
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="52"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="52"/>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
-      <c r="BU7" s="52"/>
-      <c r="BV7" s="52"/>
-      <c r="BW7" s="52"/>
-      <c r="BX7" s="52"/>
-      <c r="BY7" s="52"/>
-      <c r="BZ7" s="52"/>
-      <c r="CA7" s="52"/>
-      <c r="CB7" s="52"/>
-      <c r="CC7" s="52"/>
-      <c r="CD7" s="52"/>
-      <c r="CE7" s="52"/>
-      <c r="CF7" s="52"/>
-      <c r="CG7" s="52"/>
-      <c r="CH7" s="52"/>
-      <c r="CI7" s="52"/>
+      <c r="AT7" s="77"/>
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="77"/>
+      <c r="AY7" s="77"/>
+      <c r="AZ7" s="77"/>
+      <c r="BA7" s="77"/>
+      <c r="BB7" s="77"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="77"/>
+      <c r="BE7" s="77"/>
+      <c r="BF7" s="77"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="77"/>
+      <c r="BI7" s="77"/>
+      <c r="BJ7" s="77"/>
+      <c r="BK7" s="77"/>
+      <c r="BL7" s="77"/>
+      <c r="BM7" s="77"/>
+      <c r="BN7" s="77"/>
+      <c r="BO7" s="77"/>
+      <c r="BP7" s="77"/>
+      <c r="BQ7" s="77"/>
+      <c r="BR7" s="77"/>
+      <c r="BS7" s="77"/>
+      <c r="BT7" s="77"/>
+      <c r="BU7" s="77"/>
+      <c r="BV7" s="77"/>
+      <c r="BW7" s="77"/>
+      <c r="BX7" s="77"/>
+      <c r="BY7" s="77"/>
+      <c r="BZ7" s="77"/>
+      <c r="CA7" s="77"/>
+      <c r="CB7" s="77"/>
+      <c r="CC7" s="77"/>
+      <c r="CD7" s="77"/>
+      <c r="CE7" s="77"/>
+      <c r="CF7" s="77"/>
+      <c r="CG7" s="77"/>
+      <c r="CH7" s="77"/>
+      <c r="CI7" s="77"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="53">
+      <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
-        <v>27</v>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="80" t="s">
+        <v>26</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="41" t="s">
-        <v>37</v>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="Z8" s="55"/>
       <c r="AA8" s="55"/>
@@ -6106,7 +6102,7 @@
       <c r="AF8" s="55"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="56"/>
-      <c r="AI8" s="41" t="s">
+      <c r="AI8" s="48" t="s">
         <v>23</v>
       </c>
       <c r="AJ8" s="55"/>
@@ -6118,51 +6114,51 @@
       <c r="AP8" s="55"/>
       <c r="AQ8" s="55"/>
       <c r="AR8" s="56"/>
-      <c r="AS8" s="57" t="s">
-        <v>32</v>
+      <c r="AS8" s="81" t="s">
+        <v>31</v>
       </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="57"/>
-      <c r="CI8" s="57"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="81"/>
+      <c r="BA8" s="81"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81"/>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -8139,7 +8135,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -10190,69 +10186,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47" t="s">
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="44" t="s">
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="43"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="50"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11222,69 +11218,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="41">
+      <c r="G13" s="48">
         <v>1</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41" t="s">
-        <v>48</v>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="48" t="s">
+        <v>46</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41" t="s">
-        <v>58</v>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="48" t="s">
+        <v>55</v>
       </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="43"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="50"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12254,69 +12250,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="41">
+      <c r="G14" s="48">
         <v>2</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="41" t="s">
-        <v>28</v>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48" t="s">
+        <v>27</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="41" t="s">
-        <v>59</v>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="48" t="s">
+        <v>56</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="43"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="50"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13286,69 +13282,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="41">
+      <c r="G15" s="48">
         <v>3</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="41" t="s">
-        <v>30</v>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="48" t="s">
+        <v>29</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="41" t="s">
-        <v>60</v>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="48" t="s">
+        <v>57</v>
       </c>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="42"/>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="42"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="43"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="50"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -16375,7 +16371,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="33"/>
       <c r="I18" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -18424,13 +18420,13 @@
       <c r="C20" s="13"/>
       <c r="D20" s="23"/>
       <c r="E20" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="13"/>
       <c r="H20" s="33"/>
       <c r="I20" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -18604,13 +18600,13 @@
       <c r="C22" s="13"/>
       <c r="D22" s="23"/>
       <c r="E22" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="13"/>
       <c r="H22" s="33"/>
       <c r="I22" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -18697,69 +18693,69 @@
       <c r="D23" s="23"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47" t="s">
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="44" t="s">
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="43"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="50"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
@@ -18791,69 +18787,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="41">
+      <c r="G24" s="48">
         <v>1</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="41" t="s">
-        <v>47</v>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="48" t="s">
+        <v>45</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="41" t="s">
-        <v>61</v>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="48" t="s">
+        <v>58</v>
       </c>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="43"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="49"/>
+      <c r="BK24" s="50"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -18885,69 +18881,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="41">
+      <c r="G25" s="48">
         <v>2</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41" t="s">
-        <v>54</v>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="48" t="s">
+        <v>52</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="41" t="s">
-        <v>53</v>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="48" t="s">
+        <v>51</v>
       </c>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="43"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="50"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -18979,69 +18975,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="41">
+      <c r="G26" s="48">
         <v>3</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="41" t="s">
-        <v>46</v>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="48" t="s">
+        <v>44</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="41" t="s">
-        <v>51</v>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="48" t="s">
+        <v>49</v>
       </c>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="42"/>
-      <c r="BI26" s="42"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="43"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="50"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -19161,13 +19157,13 @@
       <c r="C28" s="13"/>
       <c r="D28" s="23"/>
       <c r="E28" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -20192,69 +20188,69 @@
       <c r="D29" s="23"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47" t="s">
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="44" t="s">
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="43"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="50"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
       <c r="BN29" s="23"/>
@@ -21224,69 +21220,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="41">
+      <c r="G30" s="48">
         <v>1</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="41" t="s">
-        <v>38</v>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="48" t="s">
+        <v>36</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41" t="s">
-        <v>56</v>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="48" t="s">
+        <v>54</v>
       </c>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="43"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="50"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22256,69 +22252,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="41">
+      <c r="G31" s="48">
         <v>2</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41" t="s">
-        <v>29</v>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="48" t="s">
+        <v>28</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41" t="s">
-        <v>59</v>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="48" t="s">
+        <v>56</v>
       </c>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="43"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="50"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23288,69 +23284,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="41">
+      <c r="G32" s="48">
         <v>3</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="41" t="s">
-        <v>50</v>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="48" t="s">
+        <v>48</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41" t="s">
-        <v>62</v>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="48" t="s">
+        <v>59</v>
       </c>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="43"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="50"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24320,69 +24316,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="41">
+      <c r="G33" s="48">
         <v>3</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="41" t="s">
-        <v>30</v>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="48" t="s">
+        <v>29</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="41" t="s">
-        <v>63</v>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="48" t="s">
+        <v>60</v>
       </c>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="42"/>
-      <c r="BG33" s="42"/>
-      <c r="BH33" s="42"/>
-      <c r="BI33" s="42"/>
-      <c r="BJ33" s="42"/>
-      <c r="BK33" s="43"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="50"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25352,69 +25348,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="41">
+      <c r="G34" s="48">
         <v>4</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="41" t="s">
-        <v>31</v>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="48" t="s">
+        <v>30</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="41" t="s">
-        <v>55</v>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="48" t="s">
+        <v>53</v>
       </c>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="42"/>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="43"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="50"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26384,69 +26380,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="41">
+      <c r="G35" s="48">
         <v>5</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="41" t="s">
-        <v>49</v>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="48" t="s">
+        <v>47</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="41" t="s">
-        <v>52</v>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="48" t="s">
+        <v>50</v>
       </c>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="42"/>
-      <c r="AV35" s="42"/>
-      <c r="AW35" s="42"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="42"/>
-      <c r="AZ35" s="42"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="42"/>
-      <c r="BE35" s="42"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
-      <c r="BH35" s="42"/>
-      <c r="BI35" s="42"/>
-      <c r="BJ35" s="42"/>
-      <c r="BK35" s="43"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="50"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27416,69 +27412,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="41">
+      <c r="G36" s="48">
         <v>6</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="41" t="s">
-        <v>46</v>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="48" t="s">
+        <v>44</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="41" t="s">
-        <v>51</v>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="48" t="s">
+        <v>49</v>
       </c>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="43"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
+      <c r="BB36" s="49"/>
+      <c r="BC36" s="49"/>
+      <c r="BD36" s="49"/>
+      <c r="BE36" s="49"/>
+      <c r="BF36" s="49"/>
+      <c r="BG36" s="49"/>
+      <c r="BH36" s="49"/>
+      <c r="BI36" s="49"/>
+      <c r="BJ36" s="49"/>
+      <c r="BK36" s="50"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -31521,92 +31517,92 @@
     </row>
     <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="80"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="80"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="80"/>
-      <c r="AL40" s="80"/>
-      <c r="AM40" s="80"/>
-      <c r="AN40" s="80"/>
-      <c r="AO40" s="80"/>
-      <c r="AP40" s="80"/>
-      <c r="AQ40" s="80"/>
-      <c r="AR40" s="80"/>
-      <c r="AS40" s="80"/>
-      <c r="AT40" s="80"/>
-      <c r="AU40" s="80"/>
-      <c r="AV40" s="80"/>
-      <c r="AW40" s="80"/>
-      <c r="AX40" s="80"/>
-      <c r="AY40" s="80"/>
-      <c r="AZ40" s="80"/>
-      <c r="BA40" s="80"/>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="80"/>
-      <c r="BD40" s="80"/>
-      <c r="BE40" s="80"/>
-      <c r="BF40" s="80"/>
-      <c r="BG40" s="80"/>
-      <c r="BH40" s="80"/>
-      <c r="BI40" s="80"/>
-      <c r="BJ40" s="80"/>
-      <c r="BK40" s="80"/>
-      <c r="BL40" s="80"/>
-      <c r="BM40" s="80"/>
-      <c r="BN40" s="80"/>
-      <c r="BO40" s="80"/>
-      <c r="BP40" s="80"/>
-      <c r="BQ40" s="80"/>
-      <c r="BR40" s="80"/>
-      <c r="BS40" s="80"/>
-      <c r="BT40" s="80"/>
-      <c r="BU40" s="80"/>
-      <c r="BV40" s="80"/>
-      <c r="BW40" s="80"/>
-      <c r="BX40" s="80"/>
-      <c r="BY40" s="80"/>
-      <c r="BZ40" s="80"/>
-      <c r="CA40" s="80"/>
-      <c r="CB40" s="80"/>
-      <c r="CC40" s="80"/>
-      <c r="CD40" s="80"/>
-      <c r="CE40" s="80"/>
-      <c r="CF40" s="80"/>
-      <c r="CG40" s="80"/>
-      <c r="CH40" s="80"/>
-      <c r="CI40" s="80"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
+      <c r="BA40" s="47"/>
+      <c r="BB40" s="47"/>
+      <c r="BC40" s="47"/>
+      <c r="BD40" s="47"/>
+      <c r="BE40" s="47"/>
+      <c r="BF40" s="47"/>
+      <c r="BG40" s="47"/>
+      <c r="BH40" s="47"/>
+      <c r="BI40" s="47"/>
+      <c r="BJ40" s="47"/>
+      <c r="BK40" s="47"/>
+      <c r="BL40" s="47"/>
+      <c r="BM40" s="47"/>
+      <c r="BN40" s="47"/>
+      <c r="BO40" s="47"/>
+      <c r="BP40" s="47"/>
+      <c r="BQ40" s="47"/>
+      <c r="BR40" s="47"/>
+      <c r="BS40" s="47"/>
+      <c r="BT40" s="47"/>
+      <c r="BU40" s="47"/>
+      <c r="BV40" s="47"/>
+      <c r="BW40" s="47"/>
+      <c r="BX40" s="47"/>
+      <c r="BY40" s="47"/>
+      <c r="BZ40" s="47"/>
+      <c r="CA40" s="47"/>
+      <c r="CB40" s="47"/>
+      <c r="CC40" s="47"/>
+      <c r="CD40" s="47"/>
+      <c r="CE40" s="47"/>
+      <c r="CF40" s="47"/>
+      <c r="CG40" s="47"/>
+      <c r="CH40" s="47"/>
+      <c r="CI40" s="47"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
       <c r="CL40" s="1"/>
@@ -32547,102 +32543,102 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="81" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="49" t="s">
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="49" t="s">
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="60"/>
+      <c r="AI41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="77" t="s">
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="60"/>
+      <c r="AS41" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AT41" s="78"/>
-      <c r="AU41" s="78"/>
-      <c r="AV41" s="78"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="78"/>
-      <c r="AY41" s="78"/>
-      <c r="AZ41" s="78"/>
-      <c r="BA41" s="78"/>
-      <c r="BB41" s="78"/>
-      <c r="BC41" s="78"/>
-      <c r="BD41" s="78"/>
-      <c r="BE41" s="78"/>
-      <c r="BF41" s="78"/>
-      <c r="BG41" s="78"/>
-      <c r="BH41" s="78"/>
-      <c r="BI41" s="78"/>
-      <c r="BJ41" s="78"/>
-      <c r="BK41" s="78"/>
-      <c r="BL41" s="78"/>
-      <c r="BM41" s="78"/>
-      <c r="BN41" s="78"/>
-      <c r="BO41" s="78"/>
-      <c r="BP41" s="78"/>
-      <c r="BQ41" s="78"/>
-      <c r="BR41" s="78"/>
-      <c r="BS41" s="78"/>
-      <c r="BT41" s="78"/>
-      <c r="BU41" s="78"/>
-      <c r="BV41" s="78"/>
-      <c r="BW41" s="78"/>
-      <c r="BX41" s="78"/>
-      <c r="BY41" s="78"/>
-      <c r="BZ41" s="78"/>
-      <c r="CA41" s="78"/>
-      <c r="CB41" s="78"/>
-      <c r="CC41" s="78"/>
-      <c r="CD41" s="78"/>
-      <c r="CE41" s="78"/>
-      <c r="CF41" s="78"/>
-      <c r="CG41" s="78"/>
-      <c r="CH41" s="78"/>
-      <c r="CI41" s="79"/>
+      <c r="AT41" s="42"/>
+      <c r="AU41" s="42"/>
+      <c r="AV41" s="42"/>
+      <c r="AW41" s="42"/>
+      <c r="AX41" s="42"/>
+      <c r="AY41" s="42"/>
+      <c r="AZ41" s="42"/>
+      <c r="BA41" s="42"/>
+      <c r="BB41" s="42"/>
+      <c r="BC41" s="42"/>
+      <c r="BD41" s="42"/>
+      <c r="BE41" s="42"/>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="42"/>
+      <c r="BI41" s="42"/>
+      <c r="BJ41" s="42"/>
+      <c r="BK41" s="42"/>
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="42"/>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="42"/>
+      <c r="BP41" s="42"/>
+      <c r="BQ41" s="42"/>
+      <c r="BR41" s="42"/>
+      <c r="BS41" s="42"/>
+      <c r="BT41" s="42"/>
+      <c r="BU41" s="42"/>
+      <c r="BV41" s="42"/>
+      <c r="BW41" s="42"/>
+      <c r="BX41" s="42"/>
+      <c r="BY41" s="42"/>
+      <c r="BZ41" s="42"/>
+      <c r="CA41" s="42"/>
+      <c r="CB41" s="42"/>
+      <c r="CC41" s="42"/>
+      <c r="CD41" s="42"/>
+      <c r="CE41" s="42"/>
+      <c r="CF41" s="42"/>
+      <c r="CG41" s="42"/>
+      <c r="CH41" s="42"/>
+      <c r="CI41" s="43"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33583,13 +33579,13 @@
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="53">
+      <c r="B42" s="57">
         <v>3</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
@@ -33610,8 +33606,8 @@
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
       <c r="X42" s="31"/>
-      <c r="Y42" s="41" t="s">
-        <v>37</v>
+      <c r="Y42" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="Z42" s="55"/>
       <c r="AA42" s="55"/>
@@ -33622,8 +33618,8 @@
       <c r="AF42" s="55"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="56"/>
-      <c r="AI42" s="41" t="s">
-        <v>57</v>
+      <c r="AI42" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="AJ42" s="55"/>
       <c r="AK42" s="55"/>
@@ -33634,51 +33630,51 @@
       <c r="AP42" s="55"/>
       <c r="AQ42" s="55"/>
       <c r="AR42" s="56"/>
-      <c r="AS42" s="84" t="s">
-        <v>32</v>
+      <c r="AS42" s="44" t="s">
+        <v>31</v>
       </c>
-      <c r="AT42" s="85"/>
-      <c r="AU42" s="85"/>
-      <c r="AV42" s="85"/>
-      <c r="AW42" s="85"/>
-      <c r="AX42" s="85"/>
-      <c r="AY42" s="85"/>
-      <c r="AZ42" s="85"/>
-      <c r="BA42" s="85"/>
-      <c r="BB42" s="85"/>
-      <c r="BC42" s="85"/>
-      <c r="BD42" s="85"/>
-      <c r="BE42" s="85"/>
-      <c r="BF42" s="85"/>
-      <c r="BG42" s="85"/>
-      <c r="BH42" s="85"/>
-      <c r="BI42" s="85"/>
-      <c r="BJ42" s="85"/>
-      <c r="BK42" s="85"/>
-      <c r="BL42" s="85"/>
-      <c r="BM42" s="85"/>
-      <c r="BN42" s="85"/>
-      <c r="BO42" s="85"/>
-      <c r="BP42" s="85"/>
-      <c r="BQ42" s="85"/>
-      <c r="BR42" s="85"/>
-      <c r="BS42" s="85"/>
-      <c r="BT42" s="85"/>
-      <c r="BU42" s="85"/>
-      <c r="BV42" s="85"/>
-      <c r="BW42" s="85"/>
-      <c r="BX42" s="85"/>
-      <c r="BY42" s="85"/>
-      <c r="BZ42" s="85"/>
-      <c r="CA42" s="85"/>
-      <c r="CB42" s="85"/>
-      <c r="CC42" s="85"/>
-      <c r="CD42" s="85"/>
-      <c r="CE42" s="85"/>
-      <c r="CF42" s="85"/>
-      <c r="CG42" s="85"/>
-      <c r="CH42" s="85"/>
-      <c r="CI42" s="86"/>
+      <c r="AT42" s="45"/>
+      <c r="AU42" s="45"/>
+      <c r="AV42" s="45"/>
+      <c r="AW42" s="45"/>
+      <c r="AX42" s="45"/>
+      <c r="AY42" s="45"/>
+      <c r="AZ42" s="45"/>
+      <c r="BA42" s="45"/>
+      <c r="BB42" s="45"/>
+      <c r="BC42" s="45"/>
+      <c r="BD42" s="45"/>
+      <c r="BE42" s="45"/>
+      <c r="BF42" s="45"/>
+      <c r="BG42" s="45"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="45"/>
+      <c r="BJ42" s="45"/>
+      <c r="BK42" s="45"/>
+      <c r="BL42" s="45"/>
+      <c r="BM42" s="45"/>
+      <c r="BN42" s="45"/>
+      <c r="BO42" s="45"/>
+      <c r="BP42" s="45"/>
+      <c r="BQ42" s="45"/>
+      <c r="BR42" s="45"/>
+      <c r="BS42" s="45"/>
+      <c r="BT42" s="45"/>
+      <c r="BU42" s="45"/>
+      <c r="BV42" s="45"/>
+      <c r="BW42" s="45"/>
+      <c r="BX42" s="45"/>
+      <c r="BY42" s="45"/>
+      <c r="BZ42" s="45"/>
+      <c r="CA42" s="45"/>
+      <c r="CB42" s="45"/>
+      <c r="CC42" s="45"/>
+      <c r="CD42" s="45"/>
+      <c r="CE42" s="45"/>
+      <c r="CF42" s="45"/>
+      <c r="CG42" s="45"/>
+      <c r="CH42" s="45"/>
+      <c r="CI42" s="46"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -35648,10 +35644,10 @@
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="E44" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
@@ -37704,10 +37700,10 @@
       <c r="C46" s="13"/>
       <c r="D46" s="23"/>
       <c r="E46" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
@@ -67042,6 +67038,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:X32"/>
+    <mergeCell ref="Y32:BK32"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:X34"/>
+    <mergeCell ref="Y34:BK34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y15:BK15"/>
+    <mergeCell ref="Y29:BK29"/>
     <mergeCell ref="AS41:CI41"/>
     <mergeCell ref="AS42:CI42"/>
     <mergeCell ref="B40:CI40"/>
@@ -67058,80 +67128,6 @@
     <mergeCell ref="J33:X33"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:X31"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:X34"/>
-    <mergeCell ref="Y34:BK34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:X32"/>
-    <mergeCell ref="Y32:BK32"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="Y30:BK30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -1141,27 +1141,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,25 +1150,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1174,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,38 +1249,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1621,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15:BK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1645,102 +1645,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="72" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="73" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="74"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="74"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="74"/>
-      <c r="BV1" s="74"/>
-      <c r="BW1" s="74"/>
-      <c r="BX1" s="75" t="s">
+      <c r="BM1" s="74"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="74"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="75"/>
+      <c r="BT1" s="75"/>
+      <c r="BU1" s="75"/>
+      <c r="BV1" s="75"/>
+      <c r="BW1" s="75"/>
+      <c r="BX1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="75"/>
-      <c r="BZ1" s="75"/>
-      <c r="CA1" s="75"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="63"/>
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2682,102 +2682,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="66" t="s">
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="67"/>
-      <c r="BT2" s="67"/>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="67"/>
-      <c r="BX2" s="68" t="s">
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3807,100 +3807,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="76" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="77" t="s">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="77"/>
-      <c r="BR4" s="77"/>
-      <c r="BS4" s="77"/>
-      <c r="BT4" s="77"/>
-      <c r="BU4" s="77"/>
-      <c r="BV4" s="77"/>
-      <c r="BW4" s="77"/>
-      <c r="BX4" s="77"/>
-      <c r="BY4" s="77"/>
-      <c r="BZ4" s="77"/>
-      <c r="CA4" s="77"/>
-      <c r="CB4" s="77"/>
-      <c r="CC4" s="77"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="77"/>
-      <c r="CF4" s="77"/>
-      <c r="CG4" s="77"/>
-      <c r="CH4" s="77"/>
-      <c r="CI4" s="77"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="52"/>
+      <c r="BN4" s="52"/>
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="52"/>
+      <c r="BU4" s="52"/>
+      <c r="BV4" s="52"/>
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="52"/>
+      <c r="CD4" s="52"/>
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="52"/>
+      <c r="CI4" s="52"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4842,100 +4842,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="57">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="79" t="s">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="79"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="79"/>
-      <c r="BK5" s="79"/>
-      <c r="BL5" s="79"/>
-      <c r="BM5" s="79"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="79"/>
-      <c r="BP5" s="79"/>
-      <c r="BQ5" s="79"/>
-      <c r="BR5" s="79"/>
-      <c r="BS5" s="79"/>
-      <c r="BT5" s="79"/>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="79"/>
-      <c r="BW5" s="79"/>
-      <c r="BX5" s="79"/>
-      <c r="BY5" s="79"/>
-      <c r="BZ5" s="79"/>
-      <c r="CA5" s="79"/>
-      <c r="CB5" s="79"/>
-      <c r="CC5" s="79"/>
-      <c r="CD5" s="79"/>
-      <c r="CE5" s="79"/>
-      <c r="CF5" s="79"/>
-      <c r="CG5" s="79"/>
-      <c r="CH5" s="79"/>
-      <c r="CI5" s="79"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="62"/>
+      <c r="BS5" s="62"/>
+      <c r="BT5" s="62"/>
+      <c r="BU5" s="62"/>
+      <c r="BV5" s="62"/>
+      <c r="BW5" s="62"/>
+      <c r="BX5" s="62"/>
+      <c r="BY5" s="62"/>
+      <c r="BZ5" s="62"/>
+      <c r="CA5" s="62"/>
+      <c r="CB5" s="62"/>
+      <c r="CC5" s="62"/>
+      <c r="CD5" s="62"/>
+      <c r="CE5" s="62"/>
+      <c r="CF5" s="62"/>
+      <c r="CG5" s="62"/>
+      <c r="CH5" s="62"/>
+      <c r="CI5" s="62"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5964,133 +5964,133 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="58" t="s">
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="58" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="77" t="s">
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="77"/>
-      <c r="AY7" s="77"/>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="77"/>
-      <c r="BE7" s="77"/>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="77"/>
-      <c r="BJ7" s="77"/>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="77"/>
-      <c r="BN7" s="77"/>
-      <c r="BO7" s="77"/>
-      <c r="BP7" s="77"/>
-      <c r="BQ7" s="77"/>
-      <c r="BR7" s="77"/>
-      <c r="BS7" s="77"/>
-      <c r="BT7" s="77"/>
-      <c r="BU7" s="77"/>
-      <c r="BV7" s="77"/>
-      <c r="BW7" s="77"/>
-      <c r="BX7" s="77"/>
-      <c r="BY7" s="77"/>
-      <c r="BZ7" s="77"/>
-      <c r="CA7" s="77"/>
-      <c r="CB7" s="77"/>
-      <c r="CC7" s="77"/>
-      <c r="CD7" s="77"/>
-      <c r="CE7" s="77"/>
-      <c r="CF7" s="77"/>
-      <c r="CG7" s="77"/>
-      <c r="CH7" s="77"/>
-      <c r="CI7" s="77"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="52"/>
+      <c r="BQ7" s="52"/>
+      <c r="BR7" s="52"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="52"/>
+      <c r="BU7" s="52"/>
+      <c r="BV7" s="52"/>
+      <c r="BW7" s="52"/>
+      <c r="BX7" s="52"/>
+      <c r="BY7" s="52"/>
+      <c r="BZ7" s="52"/>
+      <c r="CA7" s="52"/>
+      <c r="CB7" s="52"/>
+      <c r="CC7" s="52"/>
+      <c r="CD7" s="52"/>
+      <c r="CE7" s="52"/>
+      <c r="CF7" s="52"/>
+      <c r="CG7" s="52"/>
+      <c r="CH7" s="52"/>
+      <c r="CI7" s="52"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="57">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="48" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="41" t="s">
         <v>35</v>
       </c>
       <c r="Z8" s="55"/>
@@ -6102,7 +6102,7 @@
       <c r="AF8" s="55"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="56"/>
-      <c r="AI8" s="48" t="s">
+      <c r="AI8" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AJ8" s="55"/>
@@ -6114,51 +6114,51 @@
       <c r="AP8" s="55"/>
       <c r="AQ8" s="55"/>
       <c r="AR8" s="56"/>
-      <c r="AS8" s="81" t="s">
+      <c r="AS8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="81"/>
-      <c r="BA8" s="81"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="81"/>
-      <c r="BJ8" s="81"/>
-      <c r="BK8" s="81"/>
-      <c r="BL8" s="81"/>
-      <c r="BM8" s="81"/>
-      <c r="BN8" s="81"/>
-      <c r="BO8" s="81"/>
-      <c r="BP8" s="81"/>
-      <c r="BQ8" s="81"/>
-      <c r="BR8" s="81"/>
-      <c r="BS8" s="81"/>
-      <c r="BT8" s="81"/>
-      <c r="BU8" s="81"/>
-      <c r="BV8" s="81"/>
-      <c r="BW8" s="81"/>
-      <c r="BX8" s="81"/>
-      <c r="BY8" s="81"/>
-      <c r="BZ8" s="81"/>
-      <c r="CA8" s="81"/>
-      <c r="CB8" s="81"/>
-      <c r="CC8" s="81"/>
-      <c r="CD8" s="81"/>
-      <c r="CE8" s="81"/>
-      <c r="CF8" s="81"/>
-      <c r="CG8" s="81"/>
-      <c r="CH8" s="81"/>
-      <c r="CI8" s="81"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="57"/>
+      <c r="BQ8" s="57"/>
+      <c r="BR8" s="57"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="57"/>
+      <c r="BU8" s="57"/>
+      <c r="BV8" s="57"/>
+      <c r="BW8" s="57"/>
+      <c r="BX8" s="57"/>
+      <c r="BY8" s="57"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="57"/>
+      <c r="CB8" s="57"/>
+      <c r="CC8" s="57"/>
+      <c r="CD8" s="57"/>
+      <c r="CE8" s="57"/>
+      <c r="CF8" s="57"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="57"/>
+      <c r="CI8" s="57"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10186,69 +10186,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85" t="s">
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="61" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
-      <c r="BC12" s="49"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="50"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="43"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11218,69 +11218,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="48">
+      <c r="G13" s="41">
         <v>1</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="48" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
-      <c r="BJ13" s="49"/>
-      <c r="BK13" s="50"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="43"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12250,69 +12250,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="48">
+      <c r="G14" s="41">
         <v>2</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="48" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
-      <c r="BC14" s="49"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="49"/>
-      <c r="BF14" s="49"/>
-      <c r="BG14" s="49"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="49"/>
-      <c r="BJ14" s="49"/>
-      <c r="BK14" s="50"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="43"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13282,69 +13282,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="48">
+      <c r="G15" s="41">
         <v>3</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="48" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="49"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="49"/>
-      <c r="BA15" s="49"/>
-      <c r="BB15" s="49"/>
-      <c r="BC15" s="49"/>
-      <c r="BD15" s="49"/>
-      <c r="BE15" s="49"/>
-      <c r="BF15" s="49"/>
-      <c r="BG15" s="49"/>
-      <c r="BH15" s="49"/>
-      <c r="BI15" s="49"/>
-      <c r="BJ15" s="49"/>
-      <c r="BK15" s="50"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="43"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -18693,69 +18693,69 @@
       <c r="D23" s="23"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85" t="s">
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="61" t="s">
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="50"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="42"/>
+      <c r="BG23" s="42"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="43"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
@@ -18787,69 +18787,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="48">
+      <c r="G24" s="41">
         <v>1</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="48" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="48" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="49"/>
-      <c r="BJ24" s="49"/>
-      <c r="BK24" s="50"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="42"/>
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="42"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="42"/>
+      <c r="BF24" s="42"/>
+      <c r="BG24" s="42"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="42"/>
+      <c r="BJ24" s="42"/>
+      <c r="BK24" s="43"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -18881,69 +18881,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="48">
+      <c r="G25" s="41">
         <v>2</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="48" t="s">
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="48" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="50"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="42"/>
+      <c r="BF25" s="42"/>
+      <c r="BG25" s="42"/>
+      <c r="BH25" s="42"/>
+      <c r="BI25" s="42"/>
+      <c r="BJ25" s="42"/>
+      <c r="BK25" s="43"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -18975,69 +18975,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="48">
+      <c r="G26" s="41">
         <v>3</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="48" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="48" t="s">
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49"/>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="50"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="42"/>
+      <c r="BB26" s="42"/>
+      <c r="BC26" s="42"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="42"/>
+      <c r="BF26" s="42"/>
+      <c r="BG26" s="42"/>
+      <c r="BH26" s="42"/>
+      <c r="BI26" s="42"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="43"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -20188,69 +20188,69 @@
       <c r="D29" s="23"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85" t="s">
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="61" t="s">
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="50"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="43"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
       <c r="BN29" s="23"/>
@@ -21220,69 +21220,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="48">
+      <c r="G30" s="41">
         <v>1</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="48" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="48" t="s">
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="50"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="43"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22252,69 +22252,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="48">
+      <c r="G31" s="41">
         <v>2</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="48" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="48" t="s">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="50"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="43"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23284,69 +23284,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="48">
+      <c r="G32" s="41">
         <v>3</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="48" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="48" t="s">
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="50"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="42"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="42"/>
+      <c r="AW32" s="42"/>
+      <c r="AX32" s="42"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="42"/>
+      <c r="BA32" s="42"/>
+      <c r="BB32" s="42"/>
+      <c r="BC32" s="42"/>
+      <c r="BD32" s="42"/>
+      <c r="BE32" s="42"/>
+      <c r="BF32" s="42"/>
+      <c r="BG32" s="42"/>
+      <c r="BH32" s="42"/>
+      <c r="BI32" s="42"/>
+      <c r="BJ32" s="42"/>
+      <c r="BK32" s="43"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24316,69 +24316,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="48">
+      <c r="G33" s="41">
         <v>3</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="48" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="48" t="s">
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="50"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="42"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="42"/>
+      <c r="AX33" s="42"/>
+      <c r="AY33" s="42"/>
+      <c r="AZ33" s="42"/>
+      <c r="BA33" s="42"/>
+      <c r="BB33" s="42"/>
+      <c r="BC33" s="42"/>
+      <c r="BD33" s="42"/>
+      <c r="BE33" s="42"/>
+      <c r="BF33" s="42"/>
+      <c r="BG33" s="42"/>
+      <c r="BH33" s="42"/>
+      <c r="BI33" s="42"/>
+      <c r="BJ33" s="42"/>
+      <c r="BK33" s="43"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25348,69 +25348,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="48">
+      <c r="G34" s="41">
         <v>4</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="48" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="48" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="50"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="42"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="42"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="42"/>
+      <c r="AZ34" s="42"/>
+      <c r="BA34" s="42"/>
+      <c r="BB34" s="42"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="43"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26380,69 +26380,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="48">
+      <c r="G35" s="41">
         <v>5</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="48" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="48" t="s">
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="50"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
+      <c r="AU35" s="42"/>
+      <c r="AV35" s="42"/>
+      <c r="AW35" s="42"/>
+      <c r="AX35" s="42"/>
+      <c r="AY35" s="42"/>
+      <c r="AZ35" s="42"/>
+      <c r="BA35" s="42"/>
+      <c r="BB35" s="42"/>
+      <c r="BC35" s="42"/>
+      <c r="BD35" s="42"/>
+      <c r="BE35" s="42"/>
+      <c r="BF35" s="42"/>
+      <c r="BG35" s="42"/>
+      <c r="BH35" s="42"/>
+      <c r="BI35" s="42"/>
+      <c r="BJ35" s="42"/>
+      <c r="BK35" s="43"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27412,69 +27412,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="48">
+      <c r="G36" s="41">
         <v>6</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="48" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="48" t="s">
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
-      <c r="BB36" s="49"/>
-      <c r="BC36" s="49"/>
-      <c r="BD36" s="49"/>
-      <c r="BE36" s="49"/>
-      <c r="BF36" s="49"/>
-      <c r="BG36" s="49"/>
-      <c r="BH36" s="49"/>
-      <c r="BI36" s="49"/>
-      <c r="BJ36" s="49"/>
-      <c r="BK36" s="50"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="42"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="43"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -31517,92 +31517,92 @@
     </row>
     <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="47"/>
-      <c r="BA40" s="47"/>
-      <c r="BB40" s="47"/>
-      <c r="BC40" s="47"/>
-      <c r="BD40" s="47"/>
-      <c r="BE40" s="47"/>
-      <c r="BF40" s="47"/>
-      <c r="BG40" s="47"/>
-      <c r="BH40" s="47"/>
-      <c r="BI40" s="47"/>
-      <c r="BJ40" s="47"/>
-      <c r="BK40" s="47"/>
-      <c r="BL40" s="47"/>
-      <c r="BM40" s="47"/>
-      <c r="BN40" s="47"/>
-      <c r="BO40" s="47"/>
-      <c r="BP40" s="47"/>
-      <c r="BQ40" s="47"/>
-      <c r="BR40" s="47"/>
-      <c r="BS40" s="47"/>
-      <c r="BT40" s="47"/>
-      <c r="BU40" s="47"/>
-      <c r="BV40" s="47"/>
-      <c r="BW40" s="47"/>
-      <c r="BX40" s="47"/>
-      <c r="BY40" s="47"/>
-      <c r="BZ40" s="47"/>
-      <c r="CA40" s="47"/>
-      <c r="CB40" s="47"/>
-      <c r="CC40" s="47"/>
-      <c r="CD40" s="47"/>
-      <c r="CE40" s="47"/>
-      <c r="CF40" s="47"/>
-      <c r="CG40" s="47"/>
-      <c r="CH40" s="47"/>
-      <c r="CI40" s="47"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="83"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="83"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="83"/>
+      <c r="AJ40" s="83"/>
+      <c r="AK40" s="83"/>
+      <c r="AL40" s="83"/>
+      <c r="AM40" s="83"/>
+      <c r="AN40" s="83"/>
+      <c r="AO40" s="83"/>
+      <c r="AP40" s="83"/>
+      <c r="AQ40" s="83"/>
+      <c r="AR40" s="83"/>
+      <c r="AS40" s="83"/>
+      <c r="AT40" s="83"/>
+      <c r="AU40" s="83"/>
+      <c r="AV40" s="83"/>
+      <c r="AW40" s="83"/>
+      <c r="AX40" s="83"/>
+      <c r="AY40" s="83"/>
+      <c r="AZ40" s="83"/>
+      <c r="BA40" s="83"/>
+      <c r="BB40" s="83"/>
+      <c r="BC40" s="83"/>
+      <c r="BD40" s="83"/>
+      <c r="BE40" s="83"/>
+      <c r="BF40" s="83"/>
+      <c r="BG40" s="83"/>
+      <c r="BH40" s="83"/>
+      <c r="BI40" s="83"/>
+      <c r="BJ40" s="83"/>
+      <c r="BK40" s="83"/>
+      <c r="BL40" s="83"/>
+      <c r="BM40" s="83"/>
+      <c r="BN40" s="83"/>
+      <c r="BO40" s="83"/>
+      <c r="BP40" s="83"/>
+      <c r="BQ40" s="83"/>
+      <c r="BR40" s="83"/>
+      <c r="BS40" s="83"/>
+      <c r="BT40" s="83"/>
+      <c r="BU40" s="83"/>
+      <c r="BV40" s="83"/>
+      <c r="BW40" s="83"/>
+      <c r="BX40" s="83"/>
+      <c r="BY40" s="83"/>
+      <c r="BZ40" s="83"/>
+      <c r="CA40" s="83"/>
+      <c r="CB40" s="83"/>
+      <c r="CC40" s="83"/>
+      <c r="CD40" s="83"/>
+      <c r="CE40" s="83"/>
+      <c r="CF40" s="83"/>
+      <c r="CG40" s="83"/>
+      <c r="CH40" s="83"/>
+      <c r="CI40" s="83"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
       <c r="CL40" s="1"/>
@@ -32543,102 +32543,102 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="58" t="s">
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="58" t="s">
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="59"/>
-      <c r="AO41" s="59"/>
-      <c r="AP41" s="59"/>
-      <c r="AQ41" s="59"/>
-      <c r="AR41" s="60"/>
-      <c r="AS41" s="41" t="s">
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="50"/>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AT41" s="42"/>
-      <c r="AU41" s="42"/>
-      <c r="AV41" s="42"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="42"/>
-      <c r="AZ41" s="42"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="42"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="42"/>
-      <c r="BI41" s="42"/>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="42"/>
-      <c r="BL41" s="42"/>
-      <c r="BM41" s="42"/>
-      <c r="BN41" s="42"/>
-      <c r="BO41" s="42"/>
-      <c r="BP41" s="42"/>
-      <c r="BQ41" s="42"/>
-      <c r="BR41" s="42"/>
-      <c r="BS41" s="42"/>
-      <c r="BT41" s="42"/>
-      <c r="BU41" s="42"/>
-      <c r="BV41" s="42"/>
-      <c r="BW41" s="42"/>
-      <c r="BX41" s="42"/>
-      <c r="BY41" s="42"/>
-      <c r="BZ41" s="42"/>
-      <c r="CA41" s="42"/>
-      <c r="CB41" s="42"/>
-      <c r="CC41" s="42"/>
-      <c r="CD41" s="42"/>
-      <c r="CE41" s="42"/>
-      <c r="CF41" s="42"/>
-      <c r="CG41" s="42"/>
-      <c r="CH41" s="42"/>
-      <c r="CI41" s="43"/>
+      <c r="AT41" s="78"/>
+      <c r="AU41" s="78"/>
+      <c r="AV41" s="78"/>
+      <c r="AW41" s="78"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="78"/>
+      <c r="AZ41" s="78"/>
+      <c r="BA41" s="78"/>
+      <c r="BB41" s="78"/>
+      <c r="BC41" s="78"/>
+      <c r="BD41" s="78"/>
+      <c r="BE41" s="78"/>
+      <c r="BF41" s="78"/>
+      <c r="BG41" s="78"/>
+      <c r="BH41" s="78"/>
+      <c r="BI41" s="78"/>
+      <c r="BJ41" s="78"/>
+      <c r="BK41" s="78"/>
+      <c r="BL41" s="78"/>
+      <c r="BM41" s="78"/>
+      <c r="BN41" s="78"/>
+      <c r="BO41" s="78"/>
+      <c r="BP41" s="78"/>
+      <c r="BQ41" s="78"/>
+      <c r="BR41" s="78"/>
+      <c r="BS41" s="78"/>
+      <c r="BT41" s="78"/>
+      <c r="BU41" s="78"/>
+      <c r="BV41" s="78"/>
+      <c r="BW41" s="78"/>
+      <c r="BX41" s="78"/>
+      <c r="BY41" s="78"/>
+      <c r="BZ41" s="78"/>
+      <c r="CA41" s="78"/>
+      <c r="CB41" s="78"/>
+      <c r="CC41" s="78"/>
+      <c r="CD41" s="78"/>
+      <c r="CE41" s="78"/>
+      <c r="CF41" s="78"/>
+      <c r="CG41" s="78"/>
+      <c r="CH41" s="78"/>
+      <c r="CI41" s="79"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33579,11 +33579,11 @@
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="57">
+      <c r="B42" s="53">
         <v>3</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="28" t="s">
         <v>32</v>
       </c>
@@ -33606,7 +33606,7 @@
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
       <c r="X42" s="31"/>
-      <c r="Y42" s="48" t="s">
+      <c r="Y42" s="41" t="s">
         <v>35</v>
       </c>
       <c r="Z42" s="55"/>
@@ -33618,7 +33618,7 @@
       <c r="AF42" s="55"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="56"/>
-      <c r="AI42" s="48" t="s">
+      <c r="AI42" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AJ42" s="55"/>
@@ -33630,51 +33630,51 @@
       <c r="AP42" s="55"/>
       <c r="AQ42" s="55"/>
       <c r="AR42" s="56"/>
-      <c r="AS42" s="44" t="s">
+      <c r="AS42" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AT42" s="45"/>
-      <c r="AU42" s="45"/>
-      <c r="AV42" s="45"/>
-      <c r="AW42" s="45"/>
-      <c r="AX42" s="45"/>
-      <c r="AY42" s="45"/>
-      <c r="AZ42" s="45"/>
-      <c r="BA42" s="45"/>
-      <c r="BB42" s="45"/>
-      <c r="BC42" s="45"/>
-      <c r="BD42" s="45"/>
-      <c r="BE42" s="45"/>
-      <c r="BF42" s="45"/>
-      <c r="BG42" s="45"/>
-      <c r="BH42" s="45"/>
-      <c r="BI42" s="45"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="45"/>
-      <c r="BL42" s="45"/>
-      <c r="BM42" s="45"/>
-      <c r="BN42" s="45"/>
-      <c r="BO42" s="45"/>
-      <c r="BP42" s="45"/>
-      <c r="BQ42" s="45"/>
-      <c r="BR42" s="45"/>
-      <c r="BS42" s="45"/>
-      <c r="BT42" s="45"/>
-      <c r="BU42" s="45"/>
-      <c r="BV42" s="45"/>
-      <c r="BW42" s="45"/>
-      <c r="BX42" s="45"/>
-      <c r="BY42" s="45"/>
-      <c r="BZ42" s="45"/>
-      <c r="CA42" s="45"/>
-      <c r="CB42" s="45"/>
-      <c r="CC42" s="45"/>
-      <c r="CD42" s="45"/>
-      <c r="CE42" s="45"/>
-      <c r="CF42" s="45"/>
-      <c r="CG42" s="45"/>
-      <c r="CH42" s="45"/>
-      <c r="CI42" s="46"/>
+      <c r="AT42" s="81"/>
+      <c r="AU42" s="81"/>
+      <c r="AV42" s="81"/>
+      <c r="AW42" s="81"/>
+      <c r="AX42" s="81"/>
+      <c r="AY42" s="81"/>
+      <c r="AZ42" s="81"/>
+      <c r="BA42" s="81"/>
+      <c r="BB42" s="81"/>
+      <c r="BC42" s="81"/>
+      <c r="BD42" s="81"/>
+      <c r="BE42" s="81"/>
+      <c r="BF42" s="81"/>
+      <c r="BG42" s="81"/>
+      <c r="BH42" s="81"/>
+      <c r="BI42" s="81"/>
+      <c r="BJ42" s="81"/>
+      <c r="BK42" s="81"/>
+      <c r="BL42" s="81"/>
+      <c r="BM42" s="81"/>
+      <c r="BN42" s="81"/>
+      <c r="BO42" s="81"/>
+      <c r="BP42" s="81"/>
+      <c r="BQ42" s="81"/>
+      <c r="BR42" s="81"/>
+      <c r="BS42" s="81"/>
+      <c r="BT42" s="81"/>
+      <c r="BU42" s="81"/>
+      <c r="BV42" s="81"/>
+      <c r="BW42" s="81"/>
+      <c r="BX42" s="81"/>
+      <c r="BY42" s="81"/>
+      <c r="BZ42" s="81"/>
+      <c r="CA42" s="81"/>
+      <c r="CB42" s="81"/>
+      <c r="CC42" s="81"/>
+      <c r="CD42" s="81"/>
+      <c r="CE42" s="81"/>
+      <c r="CF42" s="81"/>
+      <c r="CG42" s="81"/>
+      <c r="CH42" s="81"/>
+      <c r="CI42" s="82"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -67038,80 +67038,6 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:X32"/>
-    <mergeCell ref="Y32:BK32"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="Y30:BK30"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:X34"/>
-    <mergeCell ref="Y34:BK34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="Y29:BK29"/>
     <mergeCell ref="AS41:CI41"/>
     <mergeCell ref="AS42:CI42"/>
     <mergeCell ref="B40:CI40"/>
@@ -67128,6 +67054,80 @@
     <mergeCell ref="J33:X33"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:X31"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y15:BK15"/>
+    <mergeCell ref="Y29:BK29"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:X34"/>
+    <mergeCell ref="Y34:BK34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:X32"/>
+    <mergeCell ref="Y32:BK32"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="Y30:BK30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>システム名</t>
   </si>
@@ -216,13 +216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>（１） Outputの結果をテーブルとして表示</t>
     <rPh sb="11" eb="13">
       <t>ケッカ</t>
@@ -317,19 +310,6 @@
   </si>
   <si>
     <t>（5）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBに以下の項目を格納</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -492,13 +472,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>( 1 ) 2のResultOutFormをModelに追加</t>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>( 2 ) testResultを返す</t>
     <rPh sb="17" eb="18">
       <t>カエ</t>
@@ -508,6 +481,47 @@
   <si>
     <t>testResult</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sendResult</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>( 1 )  項番2のResultOutFormをModelに追加</t>
+    <rPh sb="7" eb="9">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験結果の表示</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_resultのDB に以下の項目を格納</t>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1029,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,18 +1116,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1141,6 +1143,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1150,19 +1173,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,37 +1203,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,35 +1248,41 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1621,7 +1626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15:BK15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1645,102 +1650,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="73" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BG1" s="73"/>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="74" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="75"/>
-      <c r="BS1" s="75"/>
-      <c r="BT1" s="75"/>
-      <c r="BU1" s="75"/>
-      <c r="BV1" s="75"/>
-      <c r="BW1" s="75"/>
-      <c r="BX1" s="76" t="s">
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="76"/>
-      <c r="BZ1" s="76"/>
-      <c r="CA1" s="76"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="63"/>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2682,102 +2687,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="67" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69" t="s">
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
+      <c r="BY2" s="64"/>
+      <c r="BZ2" s="64"/>
+      <c r="CA2" s="64"/>
+      <c r="CB2" s="65"/>
+      <c r="CC2" s="65"/>
+      <c r="CD2" s="65"/>
+      <c r="CE2" s="65"/>
+      <c r="CF2" s="65"/>
+      <c r="CG2" s="65"/>
+      <c r="CH2" s="65"/>
+      <c r="CI2" s="65"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3807,100 +3812,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="60" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="52" t="s">
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="52"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="52"/>
-      <c r="CD4" s="52"/>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="73"/>
+      <c r="BO4" s="73"/>
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="73"/>
+      <c r="BU4" s="73"/>
+      <c r="BV4" s="73"/>
+      <c r="BW4" s="73"/>
+      <c r="BX4" s="73"/>
+      <c r="BY4" s="73"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="73"/>
+      <c r="CC4" s="73"/>
+      <c r="CD4" s="73"/>
+      <c r="CE4" s="73"/>
+      <c r="CF4" s="73"/>
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CI4" s="73"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4847,95 +4852,95 @@
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61" t="s">
-        <v>64</v>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74" t="s">
+        <v>61</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="62" t="s">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="62"/>
-      <c r="BZ5" s="62"/>
-      <c r="CA5" s="62"/>
-      <c r="CB5" s="62"/>
-      <c r="CC5" s="62"/>
-      <c r="CD5" s="62"/>
-      <c r="CE5" s="62"/>
-      <c r="CF5" s="62"/>
-      <c r="CG5" s="62"/>
-      <c r="CH5" s="62"/>
-      <c r="CI5" s="62"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="75"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="75"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
+      <c r="BR5" s="75"/>
+      <c r="BS5" s="75"/>
+      <c r="BT5" s="75"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="75"/>
+      <c r="BX5" s="75"/>
+      <c r="BY5" s="75"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
+      <c r="CB5" s="75"/>
+      <c r="CC5" s="75"/>
+      <c r="CD5" s="75"/>
+      <c r="CE5" s="75"/>
+      <c r="CF5" s="75"/>
+      <c r="CG5" s="75"/>
+      <c r="CH5" s="75"/>
+      <c r="CI5" s="75"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5964,102 +5969,102 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="49" t="s">
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="49" t="s">
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="52" t="s">
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="52"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="52"/>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
-      <c r="BU7" s="52"/>
-      <c r="BV7" s="52"/>
-      <c r="BW7" s="52"/>
-      <c r="BX7" s="52"/>
-      <c r="BY7" s="52"/>
-      <c r="BZ7" s="52"/>
-      <c r="CA7" s="52"/>
-      <c r="CB7" s="52"/>
-      <c r="CC7" s="52"/>
-      <c r="CD7" s="52"/>
-      <c r="CE7" s="52"/>
-      <c r="CF7" s="52"/>
-      <c r="CG7" s="52"/>
-      <c r="CH7" s="52"/>
-      <c r="CI7" s="52"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
+      <c r="BP7" s="73"/>
+      <c r="BQ7" s="73"/>
+      <c r="BR7" s="73"/>
+      <c r="BS7" s="73"/>
+      <c r="BT7" s="73"/>
+      <c r="BU7" s="73"/>
+      <c r="BV7" s="73"/>
+      <c r="BW7" s="73"/>
+      <c r="BX7" s="73"/>
+      <c r="BY7" s="73"/>
+      <c r="BZ7" s="73"/>
+      <c r="CA7" s="73"/>
+      <c r="CB7" s="73"/>
+      <c r="CC7" s="73"/>
+      <c r="CD7" s="73"/>
+      <c r="CE7" s="73"/>
+      <c r="CF7" s="73"/>
+      <c r="CG7" s="73"/>
+      <c r="CH7" s="73"/>
+      <c r="CI7" s="73"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
@@ -6068,97 +6073,97 @@
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="41" t="s">
-        <v>35</v>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="44" t="s">
+        <v>62</v>
       </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="41" t="s">
-        <v>23</v>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="44" t="s">
+        <v>62</v>
       </c>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="57" t="s">
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="57"/>
-      <c r="CI8" s="57"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="77"/>
+      <c r="BN8" s="77"/>
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="77"/>
+      <c r="BQ8" s="77"/>
+      <c r="BR8" s="77"/>
+      <c r="BS8" s="77"/>
+      <c r="BT8" s="77"/>
+      <c r="BU8" s="77"/>
+      <c r="BV8" s="77"/>
+      <c r="BW8" s="77"/>
+      <c r="BX8" s="77"/>
+      <c r="BY8" s="77"/>
+      <c r="BZ8" s="77"/>
+      <c r="CA8" s="77"/>
+      <c r="CB8" s="77"/>
+      <c r="CC8" s="77"/>
+      <c r="CD8" s="77"/>
+      <c r="CE8" s="77"/>
+      <c r="CF8" s="77"/>
+      <c r="CG8" s="77"/>
+      <c r="CH8" s="77"/>
+      <c r="CI8" s="77"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -8135,7 +8140,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -10186,69 +10191,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47" t="s">
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="44" t="s">
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="43"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="46"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11218,69 +11223,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="41">
+      <c r="G13" s="44">
         <v>1</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41" t="s">
-        <v>46</v>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44" t="s">
+        <v>44</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41" t="s">
-        <v>55</v>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="44" t="s">
+        <v>53</v>
       </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="43"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="46"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12250,69 +12255,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="41">
+      <c r="G14" s="44">
         <v>2</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="41" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="41" t="s">
-        <v>56</v>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="43"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="46"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13282,69 +13287,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="41">
+      <c r="G15" s="44">
         <v>3</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="41" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="41" t="s">
-        <v>57</v>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="44" t="s">
+        <v>55</v>
       </c>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="42"/>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="42"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="43"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45"/>
+      <c r="BC15" s="45"/>
+      <c r="BD15" s="45"/>
+      <c r="BE15" s="45"/>
+      <c r="BF15" s="45"/>
+      <c r="BG15" s="45"/>
+      <c r="BH15" s="45"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="45"/>
+      <c r="BK15" s="46"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -14315,62 +14320,62 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="29"/>
+      <c r="BE16" s="29"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="29"/>
+      <c r="BK16" s="29"/>
       <c r="BL16" s="23"/>
       <c r="BM16" s="23"/>
       <c r="BN16" s="23"/>
@@ -15356,47 +15361,47 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
       <c r="Y17" s="23"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="33"/>
-      <c r="BH17" s="33"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="33"/>
-      <c r="BK17" s="32"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="29"/>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="28"/>
       <c r="BL17" s="23"/>
       <c r="BM17" s="23"/>
       <c r="BN17" s="23"/>
@@ -16369,9 +16374,9 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -16386,47 +16391,47 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
       <c r="Y18" s="23"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
       <c r="BL18" s="23"/>
       <c r="BM18" s="23"/>
       <c r="BN18" s="23"/>
@@ -17397,7 +17402,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -17412,47 +17417,47 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
       <c r="Y19" s="23"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="33"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="33"/>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="33"/>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="33"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
       <c r="BL19" s="23"/>
       <c r="BM19" s="23"/>
       <c r="BN19" s="23"/>
@@ -18420,13 +18425,13 @@
       <c r="C20" s="13"/>
       <c r="D20" s="23"/>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -18441,14 +18446,14 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
       <c r="Y20" s="23"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
@@ -18514,7 +18519,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -18529,14 +18534,14 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
@@ -18600,13 +18605,13 @@
       <c r="C22" s="13"/>
       <c r="D22" s="23"/>
       <c r="E22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="15" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -18621,27 +18626,27 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
       <c r="Y22" s="23"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -18693,69 +18698,69 @@
       <c r="D23" s="23"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47" t="s">
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="44" t="s">
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="43"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="46"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
@@ -18787,69 +18792,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="41">
+      <c r="G24" s="44">
         <v>1</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="41" t="s">
-        <v>45</v>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="44" t="s">
+        <v>43</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="41" t="s">
-        <v>58</v>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="44" t="s">
+        <v>56</v>
       </c>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="43"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="46"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -18881,69 +18886,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="41">
+      <c r="G25" s="44">
         <v>2</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41" t="s">
-        <v>52</v>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44" t="s">
+        <v>50</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="41" t="s">
-        <v>51</v>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="44" t="s">
+        <v>49</v>
       </c>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="43"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="46"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -18975,69 +18980,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="41">
+      <c r="G26" s="44">
         <v>3</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="41" t="s">
-        <v>44</v>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44" t="s">
+        <v>42</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="41" t="s">
-        <v>49</v>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="44" t="s">
+        <v>47</v>
       </c>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="42"/>
-      <c r="BI26" s="42"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="43"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="46"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -19070,7 +19075,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -19085,14 +19090,14 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
       <c r="Y27" s="23"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
@@ -19157,13 +19162,13 @@
       <c r="C28" s="13"/>
       <c r="D28" s="23"/>
       <c r="E28" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -20188,69 +20193,69 @@
       <c r="D29" s="23"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47" t="s">
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="44" t="s">
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="43"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="45"/>
+      <c r="BD29" s="45"/>
+      <c r="BE29" s="45"/>
+      <c r="BF29" s="45"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="45"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="46"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
       <c r="BN29" s="23"/>
@@ -21220,69 +21225,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="41">
+      <c r="G30" s="44">
         <v>1</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="41" t="s">
-        <v>36</v>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="44" t="s">
+        <v>35</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41" t="s">
-        <v>54</v>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="44" t="s">
+        <v>52</v>
       </c>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="43"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="46"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22252,69 +22257,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="41">
+      <c r="G31" s="44">
         <v>2</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41" t="s">
-        <v>56</v>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="43"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="45"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="BK31" s="46"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23284,69 +23289,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="41">
+      <c r="G32" s="44">
         <v>3</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="41" t="s">
-        <v>48</v>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44" t="s">
+        <v>46</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41" t="s">
-        <v>59</v>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="44" t="s">
+        <v>57</v>
       </c>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="43"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45"/>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="45"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="BK32" s="46"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24316,69 +24321,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="41">
+      <c r="G33" s="44">
         <v>3</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="41" t="s">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="41" t="s">
-        <v>60</v>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="44" t="s">
+        <v>58</v>
       </c>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="42"/>
-      <c r="BG33" s="42"/>
-      <c r="BH33" s="42"/>
-      <c r="BI33" s="42"/>
-      <c r="BJ33" s="42"/>
-      <c r="BK33" s="43"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="BK33" s="46"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25348,69 +25353,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="41">
+      <c r="G34" s="44">
         <v>4</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="41" t="s">
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="41" t="s">
-        <v>53</v>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="44" t="s">
+        <v>51</v>
       </c>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="42"/>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="43"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="46"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26380,69 +26385,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="41">
+      <c r="G35" s="44">
         <v>5</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="41" t="s">
-        <v>47</v>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="41" t="s">
-        <v>50</v>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="44" t="s">
+        <v>48</v>
       </c>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="42"/>
-      <c r="AV35" s="42"/>
-      <c r="AW35" s="42"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="42"/>
-      <c r="AZ35" s="42"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="42"/>
-      <c r="BE35" s="42"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
-      <c r="BH35" s="42"/>
-      <c r="BI35" s="42"/>
-      <c r="BJ35" s="42"/>
-      <c r="BK35" s="43"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="45"/>
+      <c r="BA35" s="45"/>
+      <c r="BB35" s="45"/>
+      <c r="BC35" s="45"/>
+      <c r="BD35" s="45"/>
+      <c r="BE35" s="45"/>
+      <c r="BF35" s="45"/>
+      <c r="BG35" s="45"/>
+      <c r="BH35" s="45"/>
+      <c r="BI35" s="45"/>
+      <c r="BJ35" s="45"/>
+      <c r="BK35" s="46"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27412,69 +27417,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="41">
+      <c r="G36" s="44">
         <v>6</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="41" t="s">
-        <v>44</v>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44" t="s">
+        <v>42</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="41" t="s">
-        <v>49</v>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="44" t="s">
+        <v>47</v>
       </c>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="43"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
+      <c r="BB36" s="45"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="45"/>
+      <c r="BE36" s="45"/>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="46"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -28445,62 +28450,62 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
       <c r="Y37" s="23"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="33"/>
-      <c r="BB37" s="33"/>
-      <c r="BC37" s="33"/>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="33"/>
-      <c r="BH37" s="33"/>
-      <c r="BI37" s="33"/>
-      <c r="BJ37" s="33"/>
-      <c r="BK37" s="33"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BB37" s="29"/>
+      <c r="BC37" s="29"/>
+      <c r="BD37" s="29"/>
+      <c r="BE37" s="29"/>
+      <c r="BF37" s="29"/>
+      <c r="BG37" s="29"/>
+      <c r="BH37" s="29"/>
+      <c r="BI37" s="29"/>
+      <c r="BJ37" s="29"/>
+      <c r="BK37" s="29"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
       <c r="BN37" s="23"/>
@@ -29465,11 +29470,11 @@
     </row>
     <row r="38" spans="1:1024" ht="18" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="34"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="15"/>
       <c r="H38" s="1"/>
       <c r="I38" s="15"/>
@@ -30491,11 +30496,11 @@
     </row>
     <row r="39" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -30553,10 +30558,10 @@
       <c r="BI39" s="19"/>
       <c r="BJ39" s="19"/>
       <c r="BK39" s="19"/>
-      <c r="BL39" s="39"/>
-      <c r="BM39" s="39"/>
-      <c r="BN39" s="39"/>
-      <c r="BO39" s="39"/>
+      <c r="BL39" s="35"/>
+      <c r="BM39" s="35"/>
+      <c r="BN39" s="35"/>
+      <c r="BO39" s="35"/>
       <c r="BP39" s="19"/>
       <c r="BQ39" s="19"/>
       <c r="BR39" s="19"/>
@@ -31517,92 +31522,92 @@
     </row>
     <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="83"/>
-      <c r="U40" s="83"/>
-      <c r="V40" s="83"/>
-      <c r="W40" s="83"/>
-      <c r="X40" s="83"/>
-      <c r="Y40" s="83"/>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="83"/>
-      <c r="AD40" s="83"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="83"/>
-      <c r="AG40" s="83"/>
-      <c r="AH40" s="83"/>
-      <c r="AI40" s="83"/>
-      <c r="AJ40" s="83"/>
-      <c r="AK40" s="83"/>
-      <c r="AL40" s="83"/>
-      <c r="AM40" s="83"/>
-      <c r="AN40" s="83"/>
-      <c r="AO40" s="83"/>
-      <c r="AP40" s="83"/>
-      <c r="AQ40" s="83"/>
-      <c r="AR40" s="83"/>
-      <c r="AS40" s="83"/>
-      <c r="AT40" s="83"/>
-      <c r="AU40" s="83"/>
-      <c r="AV40" s="83"/>
-      <c r="AW40" s="83"/>
-      <c r="AX40" s="83"/>
-      <c r="AY40" s="83"/>
-      <c r="AZ40" s="83"/>
-      <c r="BA40" s="83"/>
-      <c r="BB40" s="83"/>
-      <c r="BC40" s="83"/>
-      <c r="BD40" s="83"/>
-      <c r="BE40" s="83"/>
-      <c r="BF40" s="83"/>
-      <c r="BG40" s="83"/>
-      <c r="BH40" s="83"/>
-      <c r="BI40" s="83"/>
-      <c r="BJ40" s="83"/>
-      <c r="BK40" s="83"/>
-      <c r="BL40" s="83"/>
-      <c r="BM40" s="83"/>
-      <c r="BN40" s="83"/>
-      <c r="BO40" s="83"/>
-      <c r="BP40" s="83"/>
-      <c r="BQ40" s="83"/>
-      <c r="BR40" s="83"/>
-      <c r="BS40" s="83"/>
-      <c r="BT40" s="83"/>
-      <c r="BU40" s="83"/>
-      <c r="BV40" s="83"/>
-      <c r="BW40" s="83"/>
-      <c r="BX40" s="83"/>
-      <c r="BY40" s="83"/>
-      <c r="BZ40" s="83"/>
-      <c r="CA40" s="83"/>
-      <c r="CB40" s="83"/>
-      <c r="CC40" s="83"/>
-      <c r="CD40" s="83"/>
-      <c r="CE40" s="83"/>
-      <c r="CF40" s="83"/>
-      <c r="CG40" s="83"/>
-      <c r="CH40" s="83"/>
-      <c r="CI40" s="83"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="43"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43"/>
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="43"/>
+      <c r="AR40" s="43"/>
+      <c r="AS40" s="43"/>
+      <c r="AT40" s="43"/>
+      <c r="AU40" s="43"/>
+      <c r="AV40" s="43"/>
+      <c r="AW40" s="43"/>
+      <c r="AX40" s="43"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BA40" s="43"/>
+      <c r="BB40" s="43"/>
+      <c r="BC40" s="43"/>
+      <c r="BD40" s="43"/>
+      <c r="BE40" s="43"/>
+      <c r="BF40" s="43"/>
+      <c r="BG40" s="43"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="43"/>
+      <c r="BL40" s="43"/>
+      <c r="BM40" s="43"/>
+      <c r="BN40" s="43"/>
+      <c r="BO40" s="43"/>
+      <c r="BP40" s="43"/>
+      <c r="BQ40" s="43"/>
+      <c r="BR40" s="43"/>
+      <c r="BS40" s="43"/>
+      <c r="BT40" s="43"/>
+      <c r="BU40" s="43"/>
+      <c r="BV40" s="43"/>
+      <c r="BW40" s="43"/>
+      <c r="BX40" s="43"/>
+      <c r="BY40" s="43"/>
+      <c r="BZ40" s="43"/>
+      <c r="CA40" s="43"/>
+      <c r="CB40" s="43"/>
+      <c r="CC40" s="43"/>
+      <c r="CD40" s="43"/>
+      <c r="CE40" s="43"/>
+      <c r="CF40" s="43"/>
+      <c r="CG40" s="43"/>
+      <c r="CH40" s="43"/>
+      <c r="CI40" s="43"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
       <c r="CL40" s="1"/>
@@ -32543,102 +32548,102 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="84" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="86"/>
-      <c r="Y41" s="49" t="s">
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="49" t="s">
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="55"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="77" t="s">
+      <c r="AJ41" s="55"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="55"/>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AT41" s="78"/>
-      <c r="AU41" s="78"/>
-      <c r="AV41" s="78"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="78"/>
-      <c r="AY41" s="78"/>
-      <c r="AZ41" s="78"/>
-      <c r="BA41" s="78"/>
-      <c r="BB41" s="78"/>
-      <c r="BC41" s="78"/>
-      <c r="BD41" s="78"/>
-      <c r="BE41" s="78"/>
-      <c r="BF41" s="78"/>
-      <c r="BG41" s="78"/>
-      <c r="BH41" s="78"/>
-      <c r="BI41" s="78"/>
-      <c r="BJ41" s="78"/>
-      <c r="BK41" s="78"/>
-      <c r="BL41" s="78"/>
-      <c r="BM41" s="78"/>
-      <c r="BN41" s="78"/>
-      <c r="BO41" s="78"/>
-      <c r="BP41" s="78"/>
-      <c r="BQ41" s="78"/>
-      <c r="BR41" s="78"/>
-      <c r="BS41" s="78"/>
-      <c r="BT41" s="78"/>
-      <c r="BU41" s="78"/>
-      <c r="BV41" s="78"/>
-      <c r="BW41" s="78"/>
-      <c r="BX41" s="78"/>
-      <c r="BY41" s="78"/>
-      <c r="BZ41" s="78"/>
-      <c r="CA41" s="78"/>
-      <c r="CB41" s="78"/>
-      <c r="CC41" s="78"/>
-      <c r="CD41" s="78"/>
-      <c r="CE41" s="78"/>
-      <c r="CF41" s="78"/>
-      <c r="CG41" s="78"/>
-      <c r="CH41" s="78"/>
-      <c r="CI41" s="79"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
+      <c r="CA41" s="38"/>
+      <c r="CB41" s="38"/>
+      <c r="CC41" s="38"/>
+      <c r="CD41" s="38"/>
+      <c r="CE41" s="38"/>
+      <c r="CF41" s="38"/>
+      <c r="CG41" s="38"/>
+      <c r="CH41" s="38"/>
+      <c r="CI41" s="39"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33584,97 +33589,97 @@
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
-      <c r="E42" s="28" t="s">
-        <v>32</v>
+      <c r="E42" s="40" t="s">
+        <v>65</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="41" t="s">
-        <v>35</v>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="83"/>
+      <c r="Y42" s="44" t="s">
+        <v>34</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="41" t="s">
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="56"/>
-      <c r="AS42" s="80" t="s">
-        <v>31</v>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="52"/>
+      <c r="AS42" s="40" t="s">
+        <v>63</v>
       </c>
-      <c r="AT42" s="81"/>
-      <c r="AU42" s="81"/>
-      <c r="AV42" s="81"/>
-      <c r="AW42" s="81"/>
-      <c r="AX42" s="81"/>
-      <c r="AY42" s="81"/>
-      <c r="AZ42" s="81"/>
-      <c r="BA42" s="81"/>
-      <c r="BB42" s="81"/>
-      <c r="BC42" s="81"/>
-      <c r="BD42" s="81"/>
-      <c r="BE42" s="81"/>
-      <c r="BF42" s="81"/>
-      <c r="BG42" s="81"/>
-      <c r="BH42" s="81"/>
-      <c r="BI42" s="81"/>
-      <c r="BJ42" s="81"/>
-      <c r="BK42" s="81"/>
-      <c r="BL42" s="81"/>
-      <c r="BM42" s="81"/>
-      <c r="BN42" s="81"/>
-      <c r="BO42" s="81"/>
-      <c r="BP42" s="81"/>
-      <c r="BQ42" s="81"/>
-      <c r="BR42" s="81"/>
-      <c r="BS42" s="81"/>
-      <c r="BT42" s="81"/>
-      <c r="BU42" s="81"/>
-      <c r="BV42" s="81"/>
-      <c r="BW42" s="81"/>
-      <c r="BX42" s="81"/>
-      <c r="BY42" s="81"/>
-      <c r="BZ42" s="81"/>
-      <c r="CA42" s="81"/>
-      <c r="CB42" s="81"/>
-      <c r="CC42" s="81"/>
-      <c r="CD42" s="81"/>
-      <c r="CE42" s="81"/>
-      <c r="CF42" s="81"/>
-      <c r="CG42" s="81"/>
-      <c r="CH42" s="81"/>
-      <c r="CI42" s="82"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="41"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41"/>
+      <c r="BC42" s="41"/>
+      <c r="BD42" s="41"/>
+      <c r="BE42" s="41"/>
+      <c r="BF42" s="41"/>
+      <c r="BG42" s="41"/>
+      <c r="BH42" s="41"/>
+      <c r="BI42" s="41"/>
+      <c r="BJ42" s="41"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="41"/>
+      <c r="BN42" s="41"/>
+      <c r="BO42" s="41"/>
+      <c r="BP42" s="41"/>
+      <c r="BQ42" s="41"/>
+      <c r="BR42" s="41"/>
+      <c r="BS42" s="41"/>
+      <c r="BT42" s="41"/>
+      <c r="BU42" s="41"/>
+      <c r="BV42" s="41"/>
+      <c r="BW42" s="41"/>
+      <c r="BX42" s="41"/>
+      <c r="BY42" s="41"/>
+      <c r="BZ42" s="41"/>
+      <c r="CA42" s="41"/>
+      <c r="CB42" s="41"/>
+      <c r="CC42" s="41"/>
+      <c r="CD42" s="41"/>
+      <c r="CE42" s="41"/>
+      <c r="CF42" s="41"/>
+      <c r="CG42" s="41"/>
+      <c r="CH42" s="41"/>
+      <c r="CI42" s="42"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -35643,27 +35648,27 @@
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
-      <c r="E44" s="36" t="s">
-        <v>33</v>
+      <c r="E44" s="32" t="s">
+        <v>32</v>
       </c>
-      <c r="F44" s="38" t="s">
-        <v>62</v>
+      <c r="F44" s="34" t="s">
+        <v>64</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
       <c r="V44" s="23"/>
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
@@ -36673,7 +36678,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="23"/>
-      <c r="E45" s="35"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
@@ -37699,69 +37704,69 @@
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="37" t="s">
-        <v>34</v>
+      <c r="E46" s="33" t="s">
+        <v>33</v>
       </c>
-      <c r="F46" s="38" t="s">
-        <v>63</v>
+      <c r="F46" s="34" t="s">
+        <v>60</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
       <c r="V46" s="23"/>
       <c r="W46" s="23"/>
       <c r="X46" s="23"/>
       <c r="Y46" s="23"/>
       <c r="Z46" s="23"/>
       <c r="AA46" s="23"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="33"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="33"/>
-      <c r="AQ46" s="33"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="33"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="33"/>
-      <c r="AY46" s="33"/>
-      <c r="AZ46" s="33"/>
-      <c r="BA46" s="33"/>
-      <c r="BB46" s="33"/>
-      <c r="BC46" s="33"/>
-      <c r="BD46" s="33"/>
-      <c r="BE46" s="33"/>
-      <c r="BF46" s="33"/>
-      <c r="BG46" s="33"/>
-      <c r="BH46" s="33"/>
-      <c r="BI46" s="33"/>
-      <c r="BJ46" s="33"/>
-      <c r="BK46" s="33"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="29"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="29"/>
+      <c r="AS46" s="29"/>
+      <c r="AT46" s="29"/>
+      <c r="AU46" s="29"/>
+      <c r="AV46" s="29"/>
+      <c r="AW46" s="29"/>
+      <c r="AX46" s="29"/>
+      <c r="AY46" s="29"/>
+      <c r="AZ46" s="29"/>
+      <c r="BA46" s="29"/>
+      <c r="BB46" s="29"/>
+      <c r="BC46" s="29"/>
+      <c r="BD46" s="29"/>
+      <c r="BE46" s="29"/>
+      <c r="BF46" s="29"/>
+      <c r="BG46" s="29"/>
+      <c r="BH46" s="29"/>
+      <c r="BI46" s="29"/>
+      <c r="BJ46" s="29"/>
+      <c r="BK46" s="29"/>
       <c r="BL46" s="23"/>
       <c r="BM46" s="23"/>
       <c r="BN46" s="23"/>
@@ -67037,7 +67042,82 @@
       <c r="AMJ82" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="91">
+    <mergeCell ref="E42:X42"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:X32"/>
+    <mergeCell ref="Y32:BK32"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:X34"/>
+    <mergeCell ref="Y34:BK34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y15:BK15"/>
+    <mergeCell ref="Y29:BK29"/>
     <mergeCell ref="AS41:CI41"/>
     <mergeCell ref="AS42:CI42"/>
     <mergeCell ref="B40:CI40"/>
@@ -67054,80 +67134,6 @@
     <mergeCell ref="J33:X33"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J31:X31"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:X34"/>
-    <mergeCell ref="Y34:BK34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:X32"/>
-    <mergeCell ref="Y32:BK32"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="Y30:BK30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -408,13 +408,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>List&lt;TestForm.ユーザの解答&gt;</t>
-    <rPh sb="18" eb="20">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>List&lt;TestEntity.問題文&gt;</t>
     <rPh sb="16" eb="19">
       <t>モンダイブン</t>
@@ -527,6 +520,13 @@
     <t>教科番号</t>
     <rPh sb="0" eb="4">
       <t>キョウカバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List＜TestForm.ユーザーの解答＞</t>
+    <rPh sb="19" eb="21">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1150,14 +1150,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1168,19 +1180,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,38 +1210,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,29 +1264,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1300,13 +1306,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37:BK37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16:BK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1675,102 +1675,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="72" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="73" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="74"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="74"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="74"/>
-      <c r="BV1" s="74"/>
-      <c r="BW1" s="74"/>
-      <c r="BX1" s="75" t="s">
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="75"/>
-      <c r="BZ1" s="75"/>
-      <c r="CA1" s="75"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
+      <c r="BY1" s="74"/>
+      <c r="BZ1" s="74"/>
+      <c r="CA1" s="74"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
+      <c r="CE1" s="61"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="61"/>
+      <c r="CI1" s="61"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2712,102 +2712,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65" t="s">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="66" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="67"/>
-      <c r="BT2" s="67"/>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="67"/>
-      <c r="BX2" s="68" t="s">
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="66"/>
+      <c r="BS2" s="66"/>
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3837,100 +3837,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="59" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="51" t="s">
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="51"/>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="51"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="51"/>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="51"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="51"/>
-      <c r="BT4" s="51"/>
-      <c r="BU4" s="51"/>
-      <c r="BV4" s="51"/>
-      <c r="BW4" s="51"/>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="51"/>
-      <c r="CB4" s="51"/>
-      <c r="CC4" s="51"/>
-      <c r="CD4" s="51"/>
-      <c r="CE4" s="51"/>
-      <c r="CF4" s="51"/>
-      <c r="CG4" s="51"/>
-      <c r="CH4" s="51"/>
-      <c r="CI4" s="51"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="76"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="76"/>
+      <c r="CI4" s="76"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4872,100 +4872,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="52">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="60" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60" t="s">
-        <v>61</v>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77" t="s">
+        <v>60</v>
       </c>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="61" t="s">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
-      <c r="BJ5" s="61"/>
-      <c r="BK5" s="61"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="61"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="61"/>
-      <c r="BP5" s="61"/>
-      <c r="BQ5" s="61"/>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="61"/>
-      <c r="BT5" s="61"/>
-      <c r="BU5" s="61"/>
-      <c r="BV5" s="61"/>
-      <c r="BW5" s="61"/>
-      <c r="BX5" s="61"/>
-      <c r="BY5" s="61"/>
-      <c r="BZ5" s="61"/>
-      <c r="CA5" s="61"/>
-      <c r="CB5" s="61"/>
-      <c r="CC5" s="61"/>
-      <c r="CD5" s="61"/>
-      <c r="CE5" s="61"/>
-      <c r="CF5" s="61"/>
-      <c r="CG5" s="61"/>
-      <c r="CH5" s="61"/>
-      <c r="CI5" s="61"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="78"/>
+      <c r="BY5" s="78"/>
+      <c r="BZ5" s="78"/>
+      <c r="CA5" s="78"/>
+      <c r="CB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="CD5" s="78"/>
+      <c r="CE5" s="78"/>
+      <c r="CF5" s="78"/>
+      <c r="CG5" s="78"/>
+      <c r="CH5" s="78"/>
+      <c r="CI5" s="78"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5994,201 +5994,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="48" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="48" t="s">
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="51" t="s">
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="51"/>
-      <c r="BG7" s="51"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="51"/>
-      <c r="BJ7" s="51"/>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="51"/>
-      <c r="BN7" s="51"/>
-      <c r="BO7" s="51"/>
-      <c r="BP7" s="51"/>
-      <c r="BQ7" s="51"/>
-      <c r="BR7" s="51"/>
-      <c r="BS7" s="51"/>
-      <c r="BT7" s="51"/>
-      <c r="BU7" s="51"/>
-      <c r="BV7" s="51"/>
-      <c r="BW7" s="51"/>
-      <c r="BX7" s="51"/>
-      <c r="BY7" s="51"/>
-      <c r="BZ7" s="51"/>
-      <c r="CA7" s="51"/>
-      <c r="CB7" s="51"/>
-      <c r="CC7" s="51"/>
-      <c r="CD7" s="51"/>
-      <c r="CE7" s="51"/>
-      <c r="CF7" s="51"/>
-      <c r="CG7" s="51"/>
-      <c r="CH7" s="51"/>
-      <c r="CI7" s="51"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="76"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="76"/>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="76"/>
+      <c r="BJ7" s="76"/>
+      <c r="BK7" s="76"/>
+      <c r="BL7" s="76"/>
+      <c r="BM7" s="76"/>
+      <c r="BN7" s="76"/>
+      <c r="BO7" s="76"/>
+      <c r="BP7" s="76"/>
+      <c r="BQ7" s="76"/>
+      <c r="BR7" s="76"/>
+      <c r="BS7" s="76"/>
+      <c r="BT7" s="76"/>
+      <c r="BU7" s="76"/>
+      <c r="BV7" s="76"/>
+      <c r="BW7" s="76"/>
+      <c r="BX7" s="76"/>
+      <c r="BY7" s="76"/>
+      <c r="BZ7" s="76"/>
+      <c r="CA7" s="76"/>
+      <c r="CB7" s="76"/>
+      <c r="CC7" s="76"/>
+      <c r="CD7" s="76"/>
+      <c r="CE7" s="76"/>
+      <c r="CF7" s="76"/>
+      <c r="CG7" s="76"/>
+      <c r="CH7" s="76"/>
+      <c r="CI7" s="76"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="52">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="40" t="s">
-        <v>62</v>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="44" t="s">
+        <v>61</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="40" t="s">
-        <v>62</v>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="44" t="s">
+        <v>61</v>
       </c>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="56" t="s">
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="56"/>
-      <c r="BQ8" s="56"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="56"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="56"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="56"/>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="56"/>
-      <c r="CH8" s="56"/>
-      <c r="CI8" s="56"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="80"/>
+      <c r="BJ8" s="80"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="80"/>
+      <c r="BN8" s="80"/>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="80"/>
+      <c r="BQ8" s="80"/>
+      <c r="BR8" s="80"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="80"/>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="80"/>
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="80"/>
+      <c r="CA8" s="80"/>
+      <c r="CB8" s="80"/>
+      <c r="CC8" s="80"/>
+      <c r="CD8" s="80"/>
+      <c r="CE8" s="80"/>
+      <c r="CF8" s="80"/>
+      <c r="CG8" s="80"/>
+      <c r="CH8" s="80"/>
+      <c r="CI8" s="80"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10216,69 +10216,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="43" t="s">
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="42"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="46"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11248,69 +11248,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40">
+      <c r="G13" s="44">
         <v>1</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40" t="s">
-        <v>67</v>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44" t="s">
+        <v>66</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="40" t="s">
-        <v>56</v>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="44" t="s">
+        <v>55</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="42"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="46"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12280,69 +12280,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="40">
+      <c r="G14" s="44">
         <v>2</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="40" t="s">
-        <v>53</v>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44" t="s">
+        <v>67</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
-      <c r="BJ14" s="41"/>
-      <c r="BK14" s="42"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="52"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13312,69 +13312,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="84">
+      <c r="G15" s="86">
         <v>3</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="87" t="s">
-        <v>54</v>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="58" t="s">
+        <v>53</v>
       </c>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="88"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="88"/>
-      <c r="AZ15" s="88"/>
-      <c r="BA15" s="88"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="88"/>
-      <c r="BD15" s="88"/>
-      <c r="BE15" s="88"/>
-      <c r="BF15" s="88"/>
-      <c r="BG15" s="88"/>
-      <c r="BH15" s="88"/>
-      <c r="BI15" s="88"/>
-      <c r="BJ15" s="88"/>
-      <c r="BK15" s="89"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BK15" s="60"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -14344,69 +14344,69 @@
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="40">
+      <c r="G16" s="44">
         <v>4</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="40" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="40" t="s">
-        <v>55</v>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="54"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="54"/>
-      <c r="BJ16" s="54"/>
-      <c r="BK16" s="55"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="52"/>
       <c r="BL16" s="23"/>
       <c r="BM16" s="23"/>
       <c r="BN16" s="23"/>
@@ -19668,7 +19668,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="29"/>
       <c r="I23" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -19755,69 +19755,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46" t="s">
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="43" t="s">
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="41"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="41"/>
-      <c r="BK24" s="42"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="46"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -19849,69 +19849,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="40">
+      <c r="G25" s="44">
         <v>1</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40" t="s">
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="40" t="s">
-        <v>56</v>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="44" t="s">
+        <v>55</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="41"/>
-      <c r="BK25" s="42"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="46"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -19943,69 +19943,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="40">
+      <c r="G26" s="44">
         <v>2</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="40" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="40" t="s">
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="41"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
-      <c r="BF26" s="41"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="41"/>
-      <c r="BI26" s="41"/>
-      <c r="BJ26" s="41"/>
-      <c r="BK26" s="42"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="46"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -20037,69 +20037,69 @@
       <c r="D27" s="23"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="40">
+      <c r="G27" s="44">
         <v>3</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="40" t="s">
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="40" t="s">
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="42"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="46"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="23"/>
@@ -20225,7 +20225,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -21250,69 +21250,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46" t="s">
+      <c r="H30" s="82"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="43" t="s">
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="41"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="41"/>
-      <c r="BB30" s="41"/>
-      <c r="BC30" s="41"/>
-      <c r="BD30" s="41"/>
-      <c r="BE30" s="41"/>
-      <c r="BF30" s="41"/>
-      <c r="BG30" s="41"/>
-      <c r="BH30" s="41"/>
-      <c r="BI30" s="41"/>
-      <c r="BJ30" s="41"/>
-      <c r="BK30" s="42"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="46"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22282,69 +22282,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="40">
+      <c r="G31" s="44">
         <v>1</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="40" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="40" t="s">
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="41"/>
-      <c r="BB31" s="41"/>
-      <c r="BC31" s="41"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="42"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="45"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="BK31" s="46"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23314,69 +23314,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="40">
+      <c r="G32" s="44">
         <v>2</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="40" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="40" t="s">
-        <v>54</v>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="44" t="s">
+        <v>53</v>
       </c>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="41"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="41"/>
-      <c r="BD32" s="41"/>
-      <c r="BE32" s="41"/>
-      <c r="BF32" s="41"/>
-      <c r="BG32" s="41"/>
-      <c r="BH32" s="41"/>
-      <c r="BI32" s="41"/>
-      <c r="BJ32" s="41"/>
-      <c r="BK32" s="42"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45"/>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="45"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="BK32" s="46"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24346,69 +24346,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="40">
+      <c r="G33" s="44">
         <v>3</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="40" t="s">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="40" t="s">
-        <v>57</v>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="44" t="s">
+        <v>56</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="41"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="41"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="41"/>
-      <c r="BF33" s="41"/>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="41"/>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41"/>
-      <c r="BK33" s="42"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="BK33" s="46"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25378,69 +25378,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="40">
+      <c r="G34" s="44">
         <v>3</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="40" t="s">
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="40" t="s">
-        <v>58</v>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="44" t="s">
+        <v>57</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="42"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="46"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26410,69 +26410,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="40">
+      <c r="G35" s="44">
         <v>4</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="40" t="s">
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="40" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="42"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="45"/>
+      <c r="BA35" s="45"/>
+      <c r="BB35" s="45"/>
+      <c r="BC35" s="45"/>
+      <c r="BD35" s="45"/>
+      <c r="BE35" s="45"/>
+      <c r="BF35" s="45"/>
+      <c r="BG35" s="45"/>
+      <c r="BH35" s="45"/>
+      <c r="BI35" s="45"/>
+      <c r="BJ35" s="45"/>
+      <c r="BK35" s="46"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27442,69 +27442,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="40">
+      <c r="G36" s="44">
         <v>5</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="40" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="40" t="s">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="41"/>
-      <c r="BB36" s="41"/>
-      <c r="BC36" s="41"/>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="41"/>
-      <c r="BF36" s="41"/>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="42"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
+      <c r="BB36" s="45"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="45"/>
+      <c r="BE36" s="45"/>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="46"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -28474,69 +28474,69 @@
       <c r="D37" s="23"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="40">
+      <c r="G37" s="44">
         <v>6</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="40" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="40" t="s">
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="41"/>
-      <c r="BD37" s="41"/>
-      <c r="BE37" s="41"/>
-      <c r="BF37" s="41"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="41"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="42"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="46"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
       <c r="BN37" s="23"/>
@@ -32579,92 +32579,92 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
-      <c r="AA41" s="80"/>
-      <c r="AB41" s="80"/>
-      <c r="AC41" s="80"/>
-      <c r="AD41" s="80"/>
-      <c r="AE41" s="80"/>
-      <c r="AF41" s="80"/>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="80"/>
-      <c r="AM41" s="80"/>
-      <c r="AN41" s="80"/>
-      <c r="AO41" s="80"/>
-      <c r="AP41" s="80"/>
-      <c r="AQ41" s="80"/>
-      <c r="AR41" s="80"/>
-      <c r="AS41" s="80"/>
-      <c r="AT41" s="80"/>
-      <c r="AU41" s="80"/>
-      <c r="AV41" s="80"/>
-      <c r="AW41" s="80"/>
-      <c r="AX41" s="80"/>
-      <c r="AY41" s="80"/>
-      <c r="AZ41" s="80"/>
-      <c r="BA41" s="80"/>
-      <c r="BB41" s="80"/>
-      <c r="BC41" s="80"/>
-      <c r="BD41" s="80"/>
-      <c r="BE41" s="80"/>
-      <c r="BF41" s="80"/>
-      <c r="BG41" s="80"/>
-      <c r="BH41" s="80"/>
-      <c r="BI41" s="80"/>
-      <c r="BJ41" s="80"/>
-      <c r="BK41" s="80"/>
-      <c r="BL41" s="80"/>
-      <c r="BM41" s="80"/>
-      <c r="BN41" s="80"/>
-      <c r="BO41" s="80"/>
-      <c r="BP41" s="80"/>
-      <c r="BQ41" s="80"/>
-      <c r="BR41" s="80"/>
-      <c r="BS41" s="80"/>
-      <c r="BT41" s="80"/>
-      <c r="BU41" s="80"/>
-      <c r="BV41" s="80"/>
-      <c r="BW41" s="80"/>
-      <c r="BX41" s="80"/>
-      <c r="BY41" s="80"/>
-      <c r="BZ41" s="80"/>
-      <c r="CA41" s="80"/>
-      <c r="CB41" s="80"/>
-      <c r="CC41" s="80"/>
-      <c r="CD41" s="80"/>
-      <c r="CE41" s="80"/>
-      <c r="CF41" s="80"/>
-      <c r="CG41" s="80"/>
-      <c r="CH41" s="80"/>
-      <c r="CI41" s="80"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="43"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="43"/>
+      <c r="BB41" s="43"/>
+      <c r="BC41" s="43"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="43"/>
+      <c r="BG41" s="43"/>
+      <c r="BH41" s="43"/>
+      <c r="BI41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="43"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="43"/>
+      <c r="BO41" s="43"/>
+      <c r="BP41" s="43"/>
+      <c r="BQ41" s="43"/>
+      <c r="BR41" s="43"/>
+      <c r="BS41" s="43"/>
+      <c r="BT41" s="43"/>
+      <c r="BU41" s="43"/>
+      <c r="BV41" s="43"/>
+      <c r="BW41" s="43"/>
+      <c r="BX41" s="43"/>
+      <c r="BY41" s="43"/>
+      <c r="BZ41" s="43"/>
+      <c r="CA41" s="43"/>
+      <c r="CB41" s="43"/>
+      <c r="CC41" s="43"/>
+      <c r="CD41" s="43"/>
+      <c r="CE41" s="43"/>
+      <c r="CF41" s="43"/>
+      <c r="CG41" s="43"/>
+      <c r="CH41" s="43"/>
+      <c r="CI41" s="43"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33605,102 +33605,102 @@
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="81" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="83"/>
-      <c r="Y42" s="48" t="s">
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="48" t="s">
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="49"/>
-      <c r="AM42" s="49"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="76" t="s">
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AT42" s="77"/>
-      <c r="AU42" s="77"/>
-      <c r="AV42" s="77"/>
-      <c r="AW42" s="77"/>
-      <c r="AX42" s="77"/>
-      <c r="AY42" s="77"/>
-      <c r="AZ42" s="77"/>
-      <c r="BA42" s="77"/>
-      <c r="BB42" s="77"/>
-      <c r="BC42" s="77"/>
-      <c r="BD42" s="77"/>
-      <c r="BE42" s="77"/>
-      <c r="BF42" s="77"/>
-      <c r="BG42" s="77"/>
-      <c r="BH42" s="77"/>
-      <c r="BI42" s="77"/>
-      <c r="BJ42" s="77"/>
-      <c r="BK42" s="77"/>
-      <c r="BL42" s="77"/>
-      <c r="BM42" s="77"/>
-      <c r="BN42" s="77"/>
-      <c r="BO42" s="77"/>
-      <c r="BP42" s="77"/>
-      <c r="BQ42" s="77"/>
-      <c r="BR42" s="77"/>
-      <c r="BS42" s="77"/>
-      <c r="BT42" s="77"/>
-      <c r="BU42" s="77"/>
-      <c r="BV42" s="77"/>
-      <c r="BW42" s="77"/>
-      <c r="BX42" s="77"/>
-      <c r="BY42" s="77"/>
-      <c r="BZ42" s="77"/>
-      <c r="CA42" s="77"/>
-      <c r="CB42" s="77"/>
-      <c r="CC42" s="77"/>
-      <c r="CD42" s="77"/>
-      <c r="CE42" s="77"/>
-      <c r="CF42" s="77"/>
-      <c r="CG42" s="77"/>
-      <c r="CH42" s="77"/>
-      <c r="CI42" s="78"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
+      <c r="CA42" s="38"/>
+      <c r="CB42" s="38"/>
+      <c r="CC42" s="38"/>
+      <c r="CD42" s="38"/>
+      <c r="CE42" s="38"/>
+      <c r="CF42" s="38"/>
+      <c r="CG42" s="38"/>
+      <c r="CH42" s="38"/>
+      <c r="CI42" s="39"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -34641,102 +34641,102 @@
     </row>
     <row r="43" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="52">
+      <c r="B43" s="53">
         <v>3</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="37" t="s">
-        <v>65</v>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="40" t="s">
+        <v>64</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="40" t="s">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="40" t="s">
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="37" t="s">
-        <v>63</v>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="40" t="s">
+        <v>62</v>
       </c>
-      <c r="AT43" s="38"/>
-      <c r="AU43" s="38"/>
-      <c r="AV43" s="38"/>
-      <c r="AW43" s="38"/>
-      <c r="AX43" s="38"/>
-      <c r="AY43" s="38"/>
-      <c r="AZ43" s="38"/>
-      <c r="BA43" s="38"/>
-      <c r="BB43" s="38"/>
-      <c r="BC43" s="38"/>
-      <c r="BD43" s="38"/>
-      <c r="BE43" s="38"/>
-      <c r="BF43" s="38"/>
-      <c r="BG43" s="38"/>
-      <c r="BH43" s="38"/>
-      <c r="BI43" s="38"/>
-      <c r="BJ43" s="38"/>
-      <c r="BK43" s="38"/>
-      <c r="BL43" s="38"/>
-      <c r="BM43" s="38"/>
-      <c r="BN43" s="38"/>
-      <c r="BO43" s="38"/>
-      <c r="BP43" s="38"/>
-      <c r="BQ43" s="38"/>
-      <c r="BR43" s="38"/>
-      <c r="BS43" s="38"/>
-      <c r="BT43" s="38"/>
-      <c r="BU43" s="38"/>
-      <c r="BV43" s="38"/>
-      <c r="BW43" s="38"/>
-      <c r="BX43" s="38"/>
-      <c r="BY43" s="38"/>
-      <c r="BZ43" s="38"/>
-      <c r="CA43" s="38"/>
-      <c r="CB43" s="38"/>
-      <c r="CC43" s="38"/>
-      <c r="CD43" s="38"/>
-      <c r="CE43" s="38"/>
-      <c r="CF43" s="38"/>
-      <c r="CG43" s="38"/>
-      <c r="CH43" s="38"/>
-      <c r="CI43" s="79"/>
+      <c r="AT43" s="41"/>
+      <c r="AU43" s="41"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="41"/>
+      <c r="AX43" s="41"/>
+      <c r="AY43" s="41"/>
+      <c r="AZ43" s="41"/>
+      <c r="BA43" s="41"/>
+      <c r="BB43" s="41"/>
+      <c r="BC43" s="41"/>
+      <c r="BD43" s="41"/>
+      <c r="BE43" s="41"/>
+      <c r="BF43" s="41"/>
+      <c r="BG43" s="41"/>
+      <c r="BH43" s="41"/>
+      <c r="BI43" s="41"/>
+      <c r="BJ43" s="41"/>
+      <c r="BK43" s="41"/>
+      <c r="BL43" s="41"/>
+      <c r="BM43" s="41"/>
+      <c r="BN43" s="41"/>
+      <c r="BO43" s="41"/>
+      <c r="BP43" s="41"/>
+      <c r="BQ43" s="41"/>
+      <c r="BR43" s="41"/>
+      <c r="BS43" s="41"/>
+      <c r="BT43" s="41"/>
+      <c r="BU43" s="41"/>
+      <c r="BV43" s="41"/>
+      <c r="BW43" s="41"/>
+      <c r="BX43" s="41"/>
+      <c r="BY43" s="41"/>
+      <c r="BZ43" s="41"/>
+      <c r="CA43" s="41"/>
+      <c r="CB43" s="41"/>
+      <c r="CC43" s="41"/>
+      <c r="CD43" s="41"/>
+      <c r="CE43" s="41"/>
+      <c r="CF43" s="41"/>
+      <c r="CG43" s="41"/>
+      <c r="CH43" s="41"/>
+      <c r="CI43" s="42"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
@@ -36709,7 +36709,7 @@
         <v>32</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
@@ -38765,7 +38765,7 @@
         <v>33</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -68100,6 +68100,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="E43:X43"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:X33"/>
+    <mergeCell ref="Y33:BK33"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:BK27"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:X31"/>
+    <mergeCell ref="Y31:BK31"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y16:BK16"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="Y15:BK15"/>
     <mergeCell ref="AS42:CI42"/>
     <mergeCell ref="AS43:CI43"/>
     <mergeCell ref="B41:CI41"/>
@@ -68116,84 +68194,6 @@
     <mergeCell ref="J34:X34"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:X32"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y16:BK16"/>
-    <mergeCell ref="Y30:BK30"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="E43:X43"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:X33"/>
-    <mergeCell ref="Y33:BK33"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:BK27"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:X31"/>
-    <mergeCell ref="Y31:BK31"/>
-    <mergeCell ref="G37:I37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -465,13 +465,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>( 2 ) testResultを返す</t>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>testResult</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -527,6 +520,13 @@
     <t>List＜TestForm.ユーザーの解答＞</t>
     <rPh sb="19" eb="21">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>( 2 ) testResultを表示</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1150,26 +1150,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1180,17 +1168,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1198,8 +1189,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,17 +1216,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,50 +1285,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1651,7 +1651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16:BK16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1675,102 +1675,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="71" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="71"/>
-      <c r="BG1" s="71"/>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="72" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="72"/>
-      <c r="BO1" s="72"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="73"/>
-      <c r="BS1" s="73"/>
-      <c r="BT1" s="73"/>
-      <c r="BU1" s="73"/>
-      <c r="BV1" s="73"/>
-      <c r="BW1" s="73"/>
-      <c r="BX1" s="74" t="s">
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
+      <c r="BR1" s="80"/>
+      <c r="BS1" s="80"/>
+      <c r="BT1" s="80"/>
+      <c r="BU1" s="80"/>
+      <c r="BV1" s="80"/>
+      <c r="BW1" s="80"/>
+      <c r="BX1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="74"/>
-      <c r="BZ1" s="74"/>
-      <c r="CA1" s="74"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61"/>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61"/>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="81"/>
+      <c r="CA1" s="81"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2712,102 +2712,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="65" t="s">
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="66"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="67" t="s">
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="67"/>
-      <c r="BZ2" s="67"/>
-      <c r="CA2" s="67"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
+      <c r="BY2" s="74"/>
+      <c r="BZ2" s="74"/>
+      <c r="CA2" s="74"/>
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="75"/>
+      <c r="CD2" s="75"/>
+      <c r="CE2" s="75"/>
+      <c r="CF2" s="75"/>
+      <c r="CG2" s="75"/>
+      <c r="CH2" s="75"/>
+      <c r="CI2" s="75"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3837,100 +3837,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="76" t="s">
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
-      <c r="BP4" s="76"/>
-      <c r="BQ4" s="76"/>
-      <c r="BR4" s="76"/>
-      <c r="BS4" s="76"/>
-      <c r="BT4" s="76"/>
-      <c r="BU4" s="76"/>
-      <c r="BV4" s="76"/>
-      <c r="BW4" s="76"/>
-      <c r="BX4" s="76"/>
-      <c r="BY4" s="76"/>
-      <c r="BZ4" s="76"/>
-      <c r="CA4" s="76"/>
-      <c r="CB4" s="76"/>
-      <c r="CC4" s="76"/>
-      <c r="CD4" s="76"/>
-      <c r="CE4" s="76"/>
-      <c r="CF4" s="76"/>
-      <c r="CG4" s="76"/>
-      <c r="CH4" s="76"/>
-      <c r="CI4" s="76"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4872,100 +4872,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="53">
+      <c r="B5" s="60">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="77" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77" t="s">
-        <v>60</v>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66" t="s">
+        <v>59</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="78" t="s">
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="78"/>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="78"/>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="78"/>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="78"/>
-      <c r="BI5" s="78"/>
-      <c r="BJ5" s="78"/>
-      <c r="BK5" s="78"/>
-      <c r="BL5" s="78"/>
-      <c r="BM5" s="78"/>
-      <c r="BN5" s="78"/>
-      <c r="BO5" s="78"/>
-      <c r="BP5" s="78"/>
-      <c r="BQ5" s="78"/>
-      <c r="BR5" s="78"/>
-      <c r="BS5" s="78"/>
-      <c r="BT5" s="78"/>
-      <c r="BU5" s="78"/>
-      <c r="BV5" s="78"/>
-      <c r="BW5" s="78"/>
-      <c r="BX5" s="78"/>
-      <c r="BY5" s="78"/>
-      <c r="BZ5" s="78"/>
-      <c r="CA5" s="78"/>
-      <c r="CB5" s="78"/>
-      <c r="CC5" s="78"/>
-      <c r="CD5" s="78"/>
-      <c r="CE5" s="78"/>
-      <c r="CF5" s="78"/>
-      <c r="CG5" s="78"/>
-      <c r="CH5" s="78"/>
-      <c r="CI5" s="78"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="67"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="67"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="67"/>
+      <c r="BQ5" s="67"/>
+      <c r="BR5" s="67"/>
+      <c r="BS5" s="67"/>
+      <c r="BT5" s="67"/>
+      <c r="BU5" s="67"/>
+      <c r="BV5" s="67"/>
+      <c r="BW5" s="67"/>
+      <c r="BX5" s="67"/>
+      <c r="BY5" s="67"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="67"/>
+      <c r="CB5" s="67"/>
+      <c r="CC5" s="67"/>
+      <c r="CD5" s="67"/>
+      <c r="CE5" s="67"/>
+      <c r="CF5" s="67"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="67"/>
+      <c r="CI5" s="67"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5994,201 +5994,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="81" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="54" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="54" t="s">
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="76" t="s">
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="76"/>
-      <c r="AX7" s="76"/>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="76"/>
-      <c r="BB7" s="76"/>
-      <c r="BC7" s="76"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="76"/>
-      <c r="BG7" s="76"/>
-      <c r="BH7" s="76"/>
-      <c r="BI7" s="76"/>
-      <c r="BJ7" s="76"/>
-      <c r="BK7" s="76"/>
-      <c r="BL7" s="76"/>
-      <c r="BM7" s="76"/>
-      <c r="BN7" s="76"/>
-      <c r="BO7" s="76"/>
-      <c r="BP7" s="76"/>
-      <c r="BQ7" s="76"/>
-      <c r="BR7" s="76"/>
-      <c r="BS7" s="76"/>
-      <c r="BT7" s="76"/>
-      <c r="BU7" s="76"/>
-      <c r="BV7" s="76"/>
-      <c r="BW7" s="76"/>
-      <c r="BX7" s="76"/>
-      <c r="BY7" s="76"/>
-      <c r="BZ7" s="76"/>
-      <c r="CA7" s="76"/>
-      <c r="CB7" s="76"/>
-      <c r="CC7" s="76"/>
-      <c r="CD7" s="76"/>
-      <c r="CE7" s="76"/>
-      <c r="CF7" s="76"/>
-      <c r="CG7" s="76"/>
-      <c r="CH7" s="76"/>
-      <c r="CI7" s="76"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="59"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
+      <c r="BP7" s="59"/>
+      <c r="BQ7" s="59"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="59"/>
+      <c r="BU7" s="59"/>
+      <c r="BV7" s="59"/>
+      <c r="BW7" s="59"/>
+      <c r="BX7" s="59"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="59"/>
+      <c r="CB7" s="59"/>
+      <c r="CC7" s="59"/>
+      <c r="CD7" s="59"/>
+      <c r="CE7" s="59"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
+      <c r="CH7" s="59"/>
+      <c r="CI7" s="59"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="53">
+      <c r="B8" s="60">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="79" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="44" t="s">
-        <v>61</v>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="40" t="s">
+        <v>60</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="44" t="s">
-        <v>61</v>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="40" t="s">
+        <v>60</v>
       </c>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="80" t="s">
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="80"/>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="80"/>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="80"/>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="80"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="80"/>
-      <c r="BE8" s="80"/>
-      <c r="BF8" s="80"/>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="80"/>
-      <c r="BI8" s="80"/>
-      <c r="BJ8" s="80"/>
-      <c r="BK8" s="80"/>
-      <c r="BL8" s="80"/>
-      <c r="BM8" s="80"/>
-      <c r="BN8" s="80"/>
-      <c r="BO8" s="80"/>
-      <c r="BP8" s="80"/>
-      <c r="BQ8" s="80"/>
-      <c r="BR8" s="80"/>
-      <c r="BS8" s="80"/>
-      <c r="BT8" s="80"/>
-      <c r="BU8" s="80"/>
-      <c r="BV8" s="80"/>
-      <c r="BW8" s="80"/>
-      <c r="BX8" s="80"/>
-      <c r="BY8" s="80"/>
-      <c r="BZ8" s="80"/>
-      <c r="CA8" s="80"/>
-      <c r="CB8" s="80"/>
-      <c r="CC8" s="80"/>
-      <c r="CD8" s="80"/>
-      <c r="CE8" s="80"/>
-      <c r="CF8" s="80"/>
-      <c r="CG8" s="80"/>
-      <c r="CH8" s="80"/>
-      <c r="CI8" s="80"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="62"/>
+      <c r="BR8" s="62"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="62"/>
+      <c r="BU8" s="62"/>
+      <c r="BV8" s="62"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="62"/>
+      <c r="BY8" s="62"/>
+      <c r="BZ8" s="62"/>
+      <c r="CA8" s="62"/>
+      <c r="CB8" s="62"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="62"/>
+      <c r="CE8" s="62"/>
+      <c r="CF8" s="62"/>
+      <c r="CG8" s="62"/>
+      <c r="CH8" s="62"/>
+      <c r="CI8" s="62"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10216,69 +10216,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="57" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="46"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="42"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11248,69 +11248,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="44">
+      <c r="G13" s="40">
         <v>1</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="44" t="s">
-        <v>66</v>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="40" t="s">
+        <v>65</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="44" t="s">
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="46"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="42"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12280,69 +12280,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>2</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="44" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="44" t="s">
-        <v>67</v>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="40" t="s">
+        <v>66</v>
       </c>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="52"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="49"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13312,69 +13312,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="86">
+      <c r="G15" s="50">
         <v>3</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="58" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="58" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="59"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="59"/>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BK15" s="60"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="54"/>
+      <c r="BG15" s="54"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="54"/>
+      <c r="BJ15" s="54"/>
+      <c r="BK15" s="55"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -14344,69 +14344,69 @@
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="44">
+      <c r="G16" s="40">
         <v>4</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="44" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="44" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="52"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="49"/>
       <c r="BL16" s="23"/>
       <c r="BM16" s="23"/>
       <c r="BN16" s="23"/>
@@ -19668,7 +19668,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="29"/>
       <c r="I23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -19755,69 +19755,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="57" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="46"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="41"/>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="41"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="42"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -19849,69 +19849,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="44">
+      <c r="G25" s="40">
         <v>1</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="44" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="44" t="s">
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="46"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
+      <c r="BA25" s="41"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="41"/>
+      <c r="BD25" s="41"/>
+      <c r="BE25" s="41"/>
+      <c r="BF25" s="41"/>
+      <c r="BG25" s="41"/>
+      <c r="BH25" s="41"/>
+      <c r="BI25" s="41"/>
+      <c r="BJ25" s="41"/>
+      <c r="BK25" s="42"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -19943,69 +19943,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="44">
+      <c r="G26" s="40">
         <v>2</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="44" t="s">
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="44" t="s">
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="46"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="41"/>
+      <c r="BA26" s="41"/>
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="41"/>
+      <c r="BE26" s="41"/>
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="41"/>
+      <c r="BI26" s="41"/>
+      <c r="BJ26" s="41"/>
+      <c r="BK26" s="42"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -20037,69 +20037,69 @@
       <c r="D27" s="23"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="44">
+      <c r="G27" s="40">
         <v>3</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="44" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="44" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="45"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="46"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="41"/>
+      <c r="BE27" s="41"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="41"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="42"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="23"/>
@@ -21250,69 +21250,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="84" t="s">
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="57" t="s">
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="45"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
-      <c r="BD30" s="45"/>
-      <c r="BE30" s="45"/>
-      <c r="BF30" s="45"/>
-      <c r="BG30" s="45"/>
-      <c r="BH30" s="45"/>
-      <c r="BI30" s="45"/>
-      <c r="BJ30" s="45"/>
-      <c r="BK30" s="46"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="41"/>
+      <c r="AV30" s="41"/>
+      <c r="AW30" s="41"/>
+      <c r="AX30" s="41"/>
+      <c r="AY30" s="41"/>
+      <c r="AZ30" s="41"/>
+      <c r="BA30" s="41"/>
+      <c r="BB30" s="41"/>
+      <c r="BC30" s="41"/>
+      <c r="BD30" s="41"/>
+      <c r="BE30" s="41"/>
+      <c r="BF30" s="41"/>
+      <c r="BG30" s="41"/>
+      <c r="BH30" s="41"/>
+      <c r="BI30" s="41"/>
+      <c r="BJ30" s="41"/>
+      <c r="BK30" s="42"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22282,69 +22282,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="44">
+      <c r="G31" s="40">
         <v>1</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="44" t="s">
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="44" t="s">
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="45"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="45"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
-      <c r="BD31" s="45"/>
-      <c r="BE31" s="45"/>
-      <c r="BF31" s="45"/>
-      <c r="BG31" s="45"/>
-      <c r="BH31" s="45"/>
-      <c r="BI31" s="45"/>
-      <c r="BJ31" s="45"/>
-      <c r="BK31" s="46"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="41"/>
+      <c r="BA31" s="41"/>
+      <c r="BB31" s="41"/>
+      <c r="BC31" s="41"/>
+      <c r="BD31" s="41"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BI31" s="41"/>
+      <c r="BJ31" s="41"/>
+      <c r="BK31" s="42"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23314,69 +23314,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="44">
+      <c r="G32" s="40">
         <v>2</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="44" t="s">
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="44" t="s">
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="45"/>
-      <c r="BE32" s="45"/>
-      <c r="BF32" s="45"/>
-      <c r="BG32" s="45"/>
-      <c r="BH32" s="45"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="45"/>
-      <c r="BK32" s="46"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="41"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="41"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41"/>
+      <c r="BJ32" s="41"/>
+      <c r="BK32" s="42"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24346,69 +24346,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="44">
+      <c r="G33" s="40">
         <v>3</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="44" t="s">
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="44" t="s">
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="45"/>
-      <c r="BC33" s="45"/>
-      <c r="BD33" s="45"/>
-      <c r="BE33" s="45"/>
-      <c r="BF33" s="45"/>
-      <c r="BG33" s="45"/>
-      <c r="BH33" s="45"/>
-      <c r="BI33" s="45"/>
-      <c r="BJ33" s="45"/>
-      <c r="BK33" s="46"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="41"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="41"/>
+      <c r="BA33" s="41"/>
+      <c r="BB33" s="41"/>
+      <c r="BC33" s="41"/>
+      <c r="BD33" s="41"/>
+      <c r="BE33" s="41"/>
+      <c r="BF33" s="41"/>
+      <c r="BG33" s="41"/>
+      <c r="BH33" s="41"/>
+      <c r="BI33" s="41"/>
+      <c r="BJ33" s="41"/>
+      <c r="BK33" s="42"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25378,69 +25378,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="44">
+      <c r="G34" s="40">
         <v>3</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="44" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="44" t="s">
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-      <c r="BD34" s="45"/>
-      <c r="BE34" s="45"/>
-      <c r="BF34" s="45"/>
-      <c r="BG34" s="45"/>
-      <c r="BH34" s="45"/>
-      <c r="BI34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="46"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="41"/>
+      <c r="AP34" s="41"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="41"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="41"/>
+      <c r="AW34" s="41"/>
+      <c r="AX34" s="41"/>
+      <c r="AY34" s="41"/>
+      <c r="AZ34" s="41"/>
+      <c r="BA34" s="41"/>
+      <c r="BB34" s="41"/>
+      <c r="BC34" s="41"/>
+      <c r="BD34" s="41"/>
+      <c r="BE34" s="41"/>
+      <c r="BF34" s="41"/>
+      <c r="BG34" s="41"/>
+      <c r="BH34" s="41"/>
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41"/>
+      <c r="BK34" s="42"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26410,69 +26410,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="44">
+      <c r="G35" s="40">
         <v>4</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="44" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="44" t="s">
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="45"/>
-      <c r="AQ35" s="45"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="45"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="45"/>
-      <c r="BA35" s="45"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="45"/>
-      <c r="BD35" s="45"/>
-      <c r="BE35" s="45"/>
-      <c r="BF35" s="45"/>
-      <c r="BG35" s="45"/>
-      <c r="BH35" s="45"/>
-      <c r="BI35" s="45"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="46"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
+      <c r="BK35" s="42"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27442,69 +27442,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>5</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="44" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="44" t="s">
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
-      <c r="AQ36" s="45"/>
-      <c r="AR36" s="45"/>
-      <c r="AS36" s="45"/>
-      <c r="AT36" s="45"/>
-      <c r="AU36" s="45"/>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-      <c r="BD36" s="45"/>
-      <c r="BE36" s="45"/>
-      <c r="BF36" s="45"/>
-      <c r="BG36" s="45"/>
-      <c r="BH36" s="45"/>
-      <c r="BI36" s="45"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="46"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
+      <c r="AW36" s="41"/>
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="41"/>
+      <c r="BA36" s="41"/>
+      <c r="BB36" s="41"/>
+      <c r="BC36" s="41"/>
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+      <c r="BF36" s="41"/>
+      <c r="BG36" s="41"/>
+      <c r="BH36" s="41"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
+      <c r="BK36" s="42"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -28474,69 +28474,69 @@
       <c r="D37" s="23"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="44">
+      <c r="G37" s="40">
         <v>6</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="44" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="44" t="s">
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="45"/>
-      <c r="BG37" s="45"/>
-      <c r="BH37" s="45"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="46"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41"/>
+      <c r="AT37" s="41"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="41"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="41"/>
+      <c r="BA37" s="41"/>
+      <c r="BB37" s="41"/>
+      <c r="BC37" s="41"/>
+      <c r="BD37" s="41"/>
+      <c r="BE37" s="41"/>
+      <c r="BF37" s="41"/>
+      <c r="BG37" s="41"/>
+      <c r="BH37" s="41"/>
+      <c r="BI37" s="41"/>
+      <c r="BJ37" s="41"/>
+      <c r="BK37" s="42"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
       <c r="BN37" s="23"/>
@@ -32579,92 +32579,92 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="43"/>
-      <c r="AP41" s="43"/>
-      <c r="AQ41" s="43"/>
-      <c r="AR41" s="43"/>
-      <c r="AS41" s="43"/>
-      <c r="AT41" s="43"/>
-      <c r="AU41" s="43"/>
-      <c r="AV41" s="43"/>
-      <c r="AW41" s="43"/>
-      <c r="AX41" s="43"/>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="43"/>
-      <c r="BA41" s="43"/>
-      <c r="BB41" s="43"/>
-      <c r="BC41" s="43"/>
-      <c r="BD41" s="43"/>
-      <c r="BE41" s="43"/>
-      <c r="BF41" s="43"/>
-      <c r="BG41" s="43"/>
-      <c r="BH41" s="43"/>
-      <c r="BI41" s="43"/>
-      <c r="BJ41" s="43"/>
-      <c r="BK41" s="43"/>
-      <c r="BL41" s="43"/>
-      <c r="BM41" s="43"/>
-      <c r="BN41" s="43"/>
-      <c r="BO41" s="43"/>
-      <c r="BP41" s="43"/>
-      <c r="BQ41" s="43"/>
-      <c r="BR41" s="43"/>
-      <c r="BS41" s="43"/>
-      <c r="BT41" s="43"/>
-      <c r="BU41" s="43"/>
-      <c r="BV41" s="43"/>
-      <c r="BW41" s="43"/>
-      <c r="BX41" s="43"/>
-      <c r="BY41" s="43"/>
-      <c r="BZ41" s="43"/>
-      <c r="CA41" s="43"/>
-      <c r="CB41" s="43"/>
-      <c r="CC41" s="43"/>
-      <c r="CD41" s="43"/>
-      <c r="CE41" s="43"/>
-      <c r="CF41" s="43"/>
-      <c r="CG41" s="43"/>
-      <c r="CH41" s="43"/>
-      <c r="CI41" s="43"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="86"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="86"/>
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="86"/>
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="86"/>
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="86"/>
+      <c r="AL41" s="86"/>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="86"/>
+      <c r="AP41" s="86"/>
+      <c r="AQ41" s="86"/>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86"/>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="86"/>
+      <c r="BD41" s="86"/>
+      <c r="BE41" s="86"/>
+      <c r="BF41" s="86"/>
+      <c r="BG41" s="86"/>
+      <c r="BH41" s="86"/>
+      <c r="BI41" s="86"/>
+      <c r="BJ41" s="86"/>
+      <c r="BK41" s="86"/>
+      <c r="BL41" s="86"/>
+      <c r="BM41" s="86"/>
+      <c r="BN41" s="86"/>
+      <c r="BO41" s="86"/>
+      <c r="BP41" s="86"/>
+      <c r="BQ41" s="86"/>
+      <c r="BR41" s="86"/>
+      <c r="BS41" s="86"/>
+      <c r="BT41" s="86"/>
+      <c r="BU41" s="86"/>
+      <c r="BV41" s="86"/>
+      <c r="BW41" s="86"/>
+      <c r="BX41" s="86"/>
+      <c r="BY41" s="86"/>
+      <c r="BZ41" s="86"/>
+      <c r="CA41" s="86"/>
+      <c r="CB41" s="86"/>
+      <c r="CC41" s="86"/>
+      <c r="CD41" s="86"/>
+      <c r="CE41" s="86"/>
+      <c r="CF41" s="86"/>
+      <c r="CG41" s="86"/>
+      <c r="CH41" s="86"/>
+      <c r="CI41" s="86"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33605,102 +33605,102 @@
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="54" t="s">
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="54" t="s">
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="56"/>
-      <c r="AS42" s="37" t="s">
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="57"/>
+      <c r="AP42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AT42" s="38"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BE42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="38"/>
-      <c r="BH42" s="38"/>
-      <c r="BI42" s="38"/>
-      <c r="BJ42" s="38"/>
-      <c r="BK42" s="38"/>
-      <c r="BL42" s="38"/>
-      <c r="BM42" s="38"/>
-      <c r="BN42" s="38"/>
-      <c r="BO42" s="38"/>
-      <c r="BP42" s="38"/>
-      <c r="BQ42" s="38"/>
-      <c r="BR42" s="38"/>
-      <c r="BS42" s="38"/>
-      <c r="BT42" s="38"/>
-      <c r="BU42" s="38"/>
-      <c r="BV42" s="38"/>
-      <c r="BW42" s="38"/>
-      <c r="BX42" s="38"/>
-      <c r="BY42" s="38"/>
-      <c r="BZ42" s="38"/>
-      <c r="CA42" s="38"/>
-      <c r="CB42" s="38"/>
-      <c r="CC42" s="38"/>
-      <c r="CD42" s="38"/>
-      <c r="CE42" s="38"/>
-      <c r="CF42" s="38"/>
-      <c r="CG42" s="38"/>
-      <c r="CH42" s="38"/>
-      <c r="CI42" s="39"/>
+      <c r="AT42" s="83"/>
+      <c r="AU42" s="83"/>
+      <c r="AV42" s="83"/>
+      <c r="AW42" s="83"/>
+      <c r="AX42" s="83"/>
+      <c r="AY42" s="83"/>
+      <c r="AZ42" s="83"/>
+      <c r="BA42" s="83"/>
+      <c r="BB42" s="83"/>
+      <c r="BC42" s="83"/>
+      <c r="BD42" s="83"/>
+      <c r="BE42" s="83"/>
+      <c r="BF42" s="83"/>
+      <c r="BG42" s="83"/>
+      <c r="BH42" s="83"/>
+      <c r="BI42" s="83"/>
+      <c r="BJ42" s="83"/>
+      <c r="BK42" s="83"/>
+      <c r="BL42" s="83"/>
+      <c r="BM42" s="83"/>
+      <c r="BN42" s="83"/>
+      <c r="BO42" s="83"/>
+      <c r="BP42" s="83"/>
+      <c r="BQ42" s="83"/>
+      <c r="BR42" s="83"/>
+      <c r="BS42" s="83"/>
+      <c r="BT42" s="83"/>
+      <c r="BU42" s="83"/>
+      <c r="BV42" s="83"/>
+      <c r="BW42" s="83"/>
+      <c r="BX42" s="83"/>
+      <c r="BY42" s="83"/>
+      <c r="BZ42" s="83"/>
+      <c r="CA42" s="83"/>
+      <c r="CB42" s="83"/>
+      <c r="CC42" s="83"/>
+      <c r="CD42" s="83"/>
+      <c r="CE42" s="83"/>
+      <c r="CF42" s="83"/>
+      <c r="CG42" s="83"/>
+      <c r="CH42" s="83"/>
+      <c r="CI42" s="84"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -34641,102 +34641,102 @@
     </row>
     <row r="43" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="53">
+      <c r="B43" s="60">
         <v>3</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="40" t="s">
-        <v>64</v>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="37" t="s">
+        <v>63</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="44" t="s">
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="51"/>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="51"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="44" t="s">
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AJ43" s="51"/>
-      <c r="AK43" s="51"/>
-      <c r="AL43" s="51"/>
-      <c r="AM43" s="51"/>
-      <c r="AN43" s="51"/>
-      <c r="AO43" s="51"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="40" t="s">
-        <v>62</v>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="48"/>
+      <c r="AM43" s="48"/>
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="48"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="37" t="s">
+        <v>61</v>
       </c>
-      <c r="AT43" s="41"/>
-      <c r="AU43" s="41"/>
-      <c r="AV43" s="41"/>
-      <c r="AW43" s="41"/>
-      <c r="AX43" s="41"/>
-      <c r="AY43" s="41"/>
-      <c r="AZ43" s="41"/>
-      <c r="BA43" s="41"/>
-      <c r="BB43" s="41"/>
-      <c r="BC43" s="41"/>
-      <c r="BD43" s="41"/>
-      <c r="BE43" s="41"/>
-      <c r="BF43" s="41"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="41"/>
-      <c r="BI43" s="41"/>
-      <c r="BJ43" s="41"/>
-      <c r="BK43" s="41"/>
-      <c r="BL43" s="41"/>
-      <c r="BM43" s="41"/>
-      <c r="BN43" s="41"/>
-      <c r="BO43" s="41"/>
-      <c r="BP43" s="41"/>
-      <c r="BQ43" s="41"/>
-      <c r="BR43" s="41"/>
-      <c r="BS43" s="41"/>
-      <c r="BT43" s="41"/>
-      <c r="BU43" s="41"/>
-      <c r="BV43" s="41"/>
-      <c r="BW43" s="41"/>
-      <c r="BX43" s="41"/>
-      <c r="BY43" s="41"/>
-      <c r="BZ43" s="41"/>
-      <c r="CA43" s="41"/>
-      <c r="CB43" s="41"/>
-      <c r="CC43" s="41"/>
-      <c r="CD43" s="41"/>
-      <c r="CE43" s="41"/>
-      <c r="CF43" s="41"/>
-      <c r="CG43" s="41"/>
-      <c r="CH43" s="41"/>
-      <c r="CI43" s="42"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="38"/>
+      <c r="BW43" s="38"/>
+      <c r="BX43" s="38"/>
+      <c r="BY43" s="38"/>
+      <c r="BZ43" s="38"/>
+      <c r="CA43" s="38"/>
+      <c r="CB43" s="38"/>
+      <c r="CC43" s="38"/>
+      <c r="CD43" s="38"/>
+      <c r="CE43" s="38"/>
+      <c r="CF43" s="38"/>
+      <c r="CG43" s="38"/>
+      <c r="CH43" s="38"/>
+      <c r="CI43" s="85"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
@@ -36709,7 +36709,7 @@
         <v>32</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
@@ -38765,7 +38765,7 @@
         <v>33</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -68100,6 +68100,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="AS42:CI42"/>
+    <mergeCell ref="AS43:CI43"/>
+    <mergeCell ref="B41:CI41"/>
+    <mergeCell ref="Y32:BK32"/>
+    <mergeCell ref="Y34:BK34"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:X42"/>
+    <mergeCell ref="Y43:AH43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="AI43:AR43"/>
+    <mergeCell ref="Y42:AH42"/>
+    <mergeCell ref="AI42:AR42"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:X34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:X32"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y16:BK16"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="Y15:BK15"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
     <mergeCell ref="E43:X43"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:X26"/>
@@ -68116,84 +68194,6 @@
     <mergeCell ref="J31:X31"/>
     <mergeCell ref="Y31:BK31"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y16:BK16"/>
-    <mergeCell ref="Y30:BK30"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="AS42:CI42"/>
-    <mergeCell ref="AS43:CI43"/>
-    <mergeCell ref="B41:CI41"/>
-    <mergeCell ref="Y32:BK32"/>
-    <mergeCell ref="Y34:BK34"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:X42"/>
-    <mergeCell ref="Y43:AH43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="AI43:AR43"/>
-    <mergeCell ref="Y42:AH42"/>
-    <mergeCell ref="AI42:AR42"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:X34"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:X32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_試験結果.xlsx
+++ b/内部設計書/内部設計書_2_1_試験結果.xlsx
@@ -524,8 +524,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>( 2 ) testResultを表示</t>
-    <rPh sb="17" eb="19">
+    <t>( 2 ) 試験結果画面を表示</t>
+    <rPh sb="6" eb="12">
+      <t>シケンケッカガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1150,14 +1153,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1168,20 +1183,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1189,23 +1201,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,32 +1213,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,29 +1267,50 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1651,7 +1654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1675,102 +1678,102 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="78" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="79" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71"/>
+      <c r="BL1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="80"/>
-      <c r="BQ1" s="80"/>
-      <c r="BR1" s="80"/>
-      <c r="BS1" s="80"/>
-      <c r="BT1" s="80"/>
-      <c r="BU1" s="80"/>
-      <c r="BV1" s="80"/>
-      <c r="BW1" s="80"/>
-      <c r="BX1" s="81" t="s">
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="68"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="68"/>
-      <c r="CE1" s="68"/>
-      <c r="CF1" s="68"/>
-      <c r="CG1" s="68"/>
-      <c r="CH1" s="68"/>
-      <c r="CI1" s="68"/>
+      <c r="BY1" s="74"/>
+      <c r="BZ1" s="74"/>
+      <c r="CA1" s="74"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
+      <c r="CE1" s="61"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="61"/>
+      <c r="CI1" s="61"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2712,102 +2715,102 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71" t="s">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="72" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="74" t="s">
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="66"/>
+      <c r="BS2" s="66"/>
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="74"/>
-      <c r="BZ2" s="74"/>
-      <c r="CA2" s="74"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
-      <c r="CE2" s="75"/>
-      <c r="CF2" s="75"/>
-      <c r="CG2" s="75"/>
-      <c r="CH2" s="75"/>
-      <c r="CI2" s="75"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3837,100 +3840,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="59" t="s">
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="76"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="76"/>
+      <c r="CI4" s="76"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4872,100 +4875,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="60">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="66" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="67" t="s">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="67"/>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="67"/>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67"/>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="67"/>
-      <c r="BH5" s="67"/>
-      <c r="BI5" s="67"/>
-      <c r="BJ5" s="67"/>
-      <c r="BK5" s="67"/>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67"/>
-      <c r="BN5" s="67"/>
-      <c r="BO5" s="67"/>
-      <c r="BP5" s="67"/>
-      <c r="BQ5" s="67"/>
-      <c r="BR5" s="67"/>
-      <c r="BS5" s="67"/>
-      <c r="BT5" s="67"/>
-      <c r="BU5" s="67"/>
-      <c r="BV5" s="67"/>
-      <c r="BW5" s="67"/>
-      <c r="BX5" s="67"/>
-      <c r="BY5" s="67"/>
-      <c r="BZ5" s="67"/>
-      <c r="CA5" s="67"/>
-      <c r="CB5" s="67"/>
-      <c r="CC5" s="67"/>
-      <c r="CD5" s="67"/>
-      <c r="CE5" s="67"/>
-      <c r="CF5" s="67"/>
-      <c r="CG5" s="67"/>
-      <c r="CH5" s="67"/>
-      <c r="CI5" s="67"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="78"/>
+      <c r="BY5" s="78"/>
+      <c r="BZ5" s="78"/>
+      <c r="CA5" s="78"/>
+      <c r="CB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="CD5" s="78"/>
+      <c r="CE5" s="78"/>
+      <c r="CF5" s="78"/>
+      <c r="CG5" s="78"/>
+      <c r="CH5" s="78"/>
+      <c r="CI5" s="78"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5994,201 +5997,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="56" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="56" t="s">
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="58"/>
-      <c r="AS7" s="59" t="s">
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
-      <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
-      <c r="BL7" s="59"/>
-      <c r="BM7" s="59"/>
-      <c r="BN7" s="59"/>
-      <c r="BO7" s="59"/>
-      <c r="BP7" s="59"/>
-      <c r="BQ7" s="59"/>
-      <c r="BR7" s="59"/>
-      <c r="BS7" s="59"/>
-      <c r="BT7" s="59"/>
-      <c r="BU7" s="59"/>
-      <c r="BV7" s="59"/>
-      <c r="BW7" s="59"/>
-      <c r="BX7" s="59"/>
-      <c r="BY7" s="59"/>
-      <c r="BZ7" s="59"/>
-      <c r="CA7" s="59"/>
-      <c r="CB7" s="59"/>
-      <c r="CC7" s="59"/>
-      <c r="CD7" s="59"/>
-      <c r="CE7" s="59"/>
-      <c r="CF7" s="59"/>
-      <c r="CG7" s="59"/>
-      <c r="CH7" s="59"/>
-      <c r="CI7" s="59"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="76"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="76"/>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="76"/>
+      <c r="BJ7" s="76"/>
+      <c r="BK7" s="76"/>
+      <c r="BL7" s="76"/>
+      <c r="BM7" s="76"/>
+      <c r="BN7" s="76"/>
+      <c r="BO7" s="76"/>
+      <c r="BP7" s="76"/>
+      <c r="BQ7" s="76"/>
+      <c r="BR7" s="76"/>
+      <c r="BS7" s="76"/>
+      <c r="BT7" s="76"/>
+      <c r="BU7" s="76"/>
+      <c r="BV7" s="76"/>
+      <c r="BW7" s="76"/>
+      <c r="BX7" s="76"/>
+      <c r="BY7" s="76"/>
+      <c r="BZ7" s="76"/>
+      <c r="CA7" s="76"/>
+      <c r="CB7" s="76"/>
+      <c r="CC7" s="76"/>
+      <c r="CD7" s="76"/>
+      <c r="CE7" s="76"/>
+      <c r="CF7" s="76"/>
+      <c r="CG7" s="76"/>
+      <c r="CH7" s="76"/>
+      <c r="CI7" s="76"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="60">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="40" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="40" t="s">
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="62" t="s">
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="62"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="62"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="62"/>
-      <c r="BR8" s="62"/>
-      <c r="BS8" s="62"/>
-      <c r="BT8" s="62"/>
-      <c r="BU8" s="62"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="62"/>
-      <c r="BX8" s="62"/>
-      <c r="BY8" s="62"/>
-      <c r="BZ8" s="62"/>
-      <c r="CA8" s="62"/>
-      <c r="CB8" s="62"/>
-      <c r="CC8" s="62"/>
-      <c r="CD8" s="62"/>
-      <c r="CE8" s="62"/>
-      <c r="CF8" s="62"/>
-      <c r="CG8" s="62"/>
-      <c r="CH8" s="62"/>
-      <c r="CI8" s="62"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="80"/>
+      <c r="BJ8" s="80"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="80"/>
+      <c r="BN8" s="80"/>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="80"/>
+      <c r="BQ8" s="80"/>
+      <c r="BR8" s="80"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="80"/>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="80"/>
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="80"/>
+      <c r="CA8" s="80"/>
+      <c r="CB8" s="80"/>
+      <c r="CC8" s="80"/>
+      <c r="CD8" s="80"/>
+      <c r="CE8" s="80"/>
+      <c r="CF8" s="80"/>
+      <c r="CG8" s="80"/>
+      <c r="CH8" s="80"/>
+      <c r="CI8" s="80"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -10216,69 +10219,69 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="43" t="s">
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="42"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="46"/>
       <c r="BL12" s="23"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="23"/>
@@ -11248,69 +11251,69 @@
       <c r="D13" s="23"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40">
+      <c r="G13" s="44">
         <v>1</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40" t="s">
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="40" t="s">
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="42"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="46"/>
       <c r="BL13" s="23"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="23"/>
@@ -12280,69 +12283,69 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="40">
+      <c r="G14" s="44">
         <v>2</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="40" t="s">
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="48"/>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="49"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="52"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="23"/>
@@ -13312,69 +13315,69 @@
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="50">
+      <c r="G15" s="86">
         <v>3</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="53" t="s">
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="54"/>
-      <c r="BD15" s="54"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="54"/>
-      <c r="BG15" s="54"/>
-      <c r="BH15" s="54"/>
-      <c r="BI15" s="54"/>
-      <c r="BJ15" s="54"/>
-      <c r="BK15" s="55"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BK15" s="60"/>
       <c r="BL15" s="23"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="23"/>
@@ -14344,69 +14347,69 @@
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="40">
+      <c r="G16" s="44">
         <v>4</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="40" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="40" t="s">
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="48"/>
-      <c r="BK16" s="49"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="52"/>
       <c r="BL16" s="23"/>
       <c r="BM16" s="23"/>
       <c r="BN16" s="23"/>
@@ -19755,69 +19758,69 @@
       <c r="D24" s="23"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46" t="s">
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="43" t="s">
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="41"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="41"/>
-      <c r="BK24" s="42"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="46"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="23"/>
@@ -19849,69 +19852,69 @@
       <c r="D25" s="23"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="40">
+      <c r="G25" s="44">
         <v>1</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40" t="s">
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="40" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="41"/>
-      <c r="BK25" s="42"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="46"/>
       <c r="BL25" s="23"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="23"/>
@@ -19943,69 +19946,69 @@
       <c r="D26" s="23"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="40">
+      <c r="G26" s="44">
         <v>2</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="40" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="40" t="s">
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="41"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
-      <c r="BF26" s="41"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="41"/>
-      <c r="BI26" s="41"/>
-      <c r="BJ26" s="41"/>
-      <c r="BK26" s="42"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="46"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="23"/>
@@ -20037,69 +20040,69 @@
       <c r="D27" s="23"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="40">
+      <c r="G27" s="44">
         <v>3</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="40" t="s">
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="40" t="s">
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="42"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="46"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="23"/>
@@ -21250,69 +21253,69 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46" t="s">
+      <c r="H30" s="82"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="43" t="s">
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="41"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="41"/>
-      <c r="BB30" s="41"/>
-      <c r="BC30" s="41"/>
-      <c r="BD30" s="41"/>
-      <c r="BE30" s="41"/>
-      <c r="BF30" s="41"/>
-      <c r="BG30" s="41"/>
-      <c r="BH30" s="41"/>
-      <c r="BI30" s="41"/>
-      <c r="BJ30" s="41"/>
-      <c r="BK30" s="42"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="46"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
@@ -22282,69 +22285,69 @@
       <c r="D31" s="23"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="40">
+      <c r="G31" s="44">
         <v>1</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="40" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="40" t="s">
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="41"/>
-      <c r="BB31" s="41"/>
-      <c r="BC31" s="41"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="42"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="45"/>
+      <c r="BA31" s="45"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="45"/>
+      <c r="BK31" s="46"/>
       <c r="BL31" s="23"/>
       <c r="BM31" s="23"/>
       <c r="BN31" s="23"/>
@@ -23314,69 +23317,69 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="40">
+      <c r="G32" s="44">
         <v>2</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="40" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="40" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="41"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="41"/>
-      <c r="BD32" s="41"/>
-      <c r="BE32" s="41"/>
-      <c r="BF32" s="41"/>
-      <c r="BG32" s="41"/>
-      <c r="BH32" s="41"/>
-      <c r="BI32" s="41"/>
-      <c r="BJ32" s="41"/>
-      <c r="BK32" s="42"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45"/>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="45"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="BK32" s="46"/>
       <c r="BL32" s="23"/>
       <c r="BM32" s="23"/>
       <c r="BN32" s="23"/>
@@ -24346,69 +24349,69 @@
       <c r="D33" s="23"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="40">
+      <c r="G33" s="44">
         <v>3</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="40" t="s">
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="40" t="s">
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="41"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="41"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="41"/>
-      <c r="BF33" s="41"/>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="41"/>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41"/>
-      <c r="BK33" s="42"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="45"/>
+      <c r="BG33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="BK33" s="46"/>
       <c r="BL33" s="23"/>
       <c r="BM33" s="23"/>
       <c r="BN33" s="23"/>
@@ -25378,69 +25381,69 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="40">
+      <c r="G34" s="44">
         <v>3</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="40" t="s">
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="40" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="42"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="46"/>
       <c r="BL34" s="23"/>
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
@@ -26410,69 +26413,69 @@
       <c r="D35" s="23"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="40">
+      <c r="G35" s="44">
         <v>4</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="40" t="s">
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="40" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="42"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="45"/>
+      <c r="BA35" s="45"/>
+      <c r="BB35" s="45"/>
+      <c r="BC35" s="45"/>
+      <c r="BD35" s="45"/>
+      <c r="BE35" s="45"/>
+      <c r="BF35" s="45"/>
+      <c r="BG35" s="45"/>
+      <c r="BH35" s="45"/>
+      <c r="BI35" s="45"/>
+      <c r="BJ35" s="45"/>
+      <c r="BK35" s="46"/>
       <c r="BL35" s="23"/>
       <c r="BM35" s="23"/>
       <c r="BN35" s="23"/>
@@ -27442,69 +27445,69 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="40">
+      <c r="G36" s="44">
         <v>5</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="40" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="40" t="s">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="41"/>
-      <c r="BB36" s="41"/>
-      <c r="BC36" s="41"/>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="41"/>
-      <c r="BF36" s="41"/>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="42"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
+      <c r="BB36" s="45"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="45"/>
+      <c r="BE36" s="45"/>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="46"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
       <c r="BN36" s="23"/>
@@ -28474,69 +28477,69 @@
       <c r="D37" s="23"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="40">
+      <c r="G37" s="44">
         <v>6</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="40" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="40" t="s">
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="41"/>
-      <c r="BD37" s="41"/>
-      <c r="BE37" s="41"/>
-      <c r="BF37" s="41"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="41"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="42"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="46"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
       <c r="BN37" s="23"/>
@@ -32579,92 +32582,92 @@
     </row>
     <row r="41" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="86"/>
-      <c r="V41" s="86"/>
-      <c r="W41" s="86"/>
-      <c r="X41" s="86"/>
-      <c r="Y41" s="86"/>
-      <c r="Z41" s="86"/>
-      <c r="AA41" s="86"/>
-      <c r="AB41" s="86"/>
-      <c r="AC41" s="86"/>
-      <c r="AD41" s="86"/>
-      <c r="AE41" s="86"/>
-      <c r="AF41" s="86"/>
-      <c r="AG41" s="86"/>
-      <c r="AH41" s="86"/>
-      <c r="AI41" s="86"/>
-      <c r="AJ41" s="86"/>
-      <c r="AK41" s="86"/>
-      <c r="AL41" s="86"/>
-      <c r="AM41" s="86"/>
-      <c r="AN41" s="86"/>
-      <c r="AO41" s="86"/>
-      <c r="AP41" s="86"/>
-      <c r="AQ41" s="86"/>
-      <c r="AR41" s="86"/>
-      <c r="AS41" s="86"/>
-      <c r="AT41" s="86"/>
-      <c r="AU41" s="86"/>
-      <c r="AV41" s="86"/>
-      <c r="AW41" s="86"/>
-      <c r="AX41" s="86"/>
-      <c r="AY41" s="86"/>
-      <c r="AZ41" s="86"/>
-      <c r="BA41" s="86"/>
-      <c r="BB41" s="86"/>
-      <c r="BC41" s="86"/>
-      <c r="BD41" s="86"/>
-      <c r="BE41" s="86"/>
-      <c r="BF41" s="86"/>
-      <c r="BG41" s="86"/>
-      <c r="BH41" s="86"/>
-      <c r="BI41" s="86"/>
-      <c r="BJ41" s="86"/>
-      <c r="BK41" s="86"/>
-      <c r="BL41" s="86"/>
-      <c r="BM41" s="86"/>
-      <c r="BN41" s="86"/>
-      <c r="BO41" s="86"/>
-      <c r="BP41" s="86"/>
-      <c r="BQ41" s="86"/>
-      <c r="BR41" s="86"/>
-      <c r="BS41" s="86"/>
-      <c r="BT41" s="86"/>
-      <c r="BU41" s="86"/>
-      <c r="BV41" s="86"/>
-      <c r="BW41" s="86"/>
-      <c r="BX41" s="86"/>
-      <c r="BY41" s="86"/>
-      <c r="BZ41" s="86"/>
-      <c r="CA41" s="86"/>
-      <c r="CB41" s="86"/>
-      <c r="CC41" s="86"/>
-      <c r="CD41" s="86"/>
-      <c r="CE41" s="86"/>
-      <c r="CF41" s="86"/>
-      <c r="CG41" s="86"/>
-      <c r="CH41" s="86"/>
-      <c r="CI41" s="86"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="43"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="43"/>
+      <c r="BB41" s="43"/>
+      <c r="BC41" s="43"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="43"/>
+      <c r="BG41" s="43"/>
+      <c r="BH41" s="43"/>
+      <c r="BI41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="43"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="43"/>
+      <c r="BO41" s="43"/>
+      <c r="BP41" s="43"/>
+      <c r="BQ41" s="43"/>
+      <c r="BR41" s="43"/>
+      <c r="BS41" s="43"/>
+      <c r="BT41" s="43"/>
+      <c r="BU41" s="43"/>
+      <c r="BV41" s="43"/>
+      <c r="BW41" s="43"/>
+      <c r="BX41" s="43"/>
+      <c r="BY41" s="43"/>
+      <c r="BZ41" s="43"/>
+      <c r="CA41" s="43"/>
+      <c r="CB41" s="43"/>
+      <c r="CC41" s="43"/>
+      <c r="CD41" s="43"/>
+      <c r="CE41" s="43"/>
+      <c r="CF41" s="43"/>
+      <c r="CG41" s="43"/>
+      <c r="CH41" s="43"/>
+      <c r="CI41" s="43"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
@@ -33605,102 +33608,102 @@
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="87" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="56" t="s">
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="56" t="s">
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AJ42" s="57"/>
-      <c r="AK42" s="57"/>
-      <c r="AL42" s="57"/>
-      <c r="AM42" s="57"/>
-      <c r="AN42" s="57"/>
-      <c r="AO42" s="57"/>
-      <c r="AP42" s="57"/>
-      <c r="AQ42" s="57"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="82" t="s">
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AT42" s="83"/>
-      <c r="AU42" s="83"/>
-      <c r="AV42" s="83"/>
-      <c r="AW42" s="83"/>
-      <c r="AX42" s="83"/>
-      <c r="AY42" s="83"/>
-      <c r="AZ42" s="83"/>
-      <c r="BA42" s="83"/>
-      <c r="BB42" s="83"/>
-      <c r="BC42" s="83"/>
-      <c r="BD42" s="83"/>
-      <c r="BE42" s="83"/>
-      <c r="BF42" s="83"/>
-      <c r="BG42" s="83"/>
-      <c r="BH42" s="83"/>
-      <c r="BI42" s="83"/>
-      <c r="BJ42" s="83"/>
-      <c r="BK42" s="83"/>
-      <c r="BL42" s="83"/>
-      <c r="BM42" s="83"/>
-      <c r="BN42" s="83"/>
-      <c r="BO42" s="83"/>
-      <c r="BP42" s="83"/>
-      <c r="BQ42" s="83"/>
-      <c r="BR42" s="83"/>
-      <c r="BS42" s="83"/>
-      <c r="BT42" s="83"/>
-      <c r="BU42" s="83"/>
-      <c r="BV42" s="83"/>
-      <c r="BW42" s="83"/>
-      <c r="BX42" s="83"/>
-      <c r="BY42" s="83"/>
-      <c r="BZ42" s="83"/>
-      <c r="CA42" s="83"/>
-      <c r="CB42" s="83"/>
-      <c r="CC42" s="83"/>
-      <c r="CD42" s="83"/>
-      <c r="CE42" s="83"/>
-      <c r="CF42" s="83"/>
-      <c r="CG42" s="83"/>
-      <c r="CH42" s="83"/>
-      <c r="CI42" s="84"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
+      <c r="CA42" s="38"/>
+      <c r="CB42" s="38"/>
+      <c r="CC42" s="38"/>
+      <c r="CD42" s="38"/>
+      <c r="CE42" s="38"/>
+      <c r="CF42" s="38"/>
+      <c r="CG42" s="38"/>
+      <c r="CH42" s="38"/>
+      <c r="CI42" s="39"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
@@ -34641,102 +34644,102 @@
     </row>
     <row r="43" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="60">
+      <c r="B43" s="53">
         <v>3</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="37" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="40" t="s">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="40" t="s">
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="37" t="s">
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="AT43" s="38"/>
-      <c r="AU43" s="38"/>
-      <c r="AV43" s="38"/>
-      <c r="AW43" s="38"/>
-      <c r="AX43" s="38"/>
-      <c r="AY43" s="38"/>
-      <c r="AZ43" s="38"/>
-      <c r="BA43" s="38"/>
-      <c r="BB43" s="38"/>
-      <c r="BC43" s="38"/>
-      <c r="BD43" s="38"/>
-      <c r="BE43" s="38"/>
-      <c r="BF43" s="38"/>
-      <c r="BG43" s="38"/>
-      <c r="BH43" s="38"/>
-      <c r="BI43" s="38"/>
-      <c r="BJ43" s="38"/>
-      <c r="BK43" s="38"/>
-      <c r="BL43" s="38"/>
-      <c r="BM43" s="38"/>
-      <c r="BN43" s="38"/>
-      <c r="BO43" s="38"/>
-      <c r="BP43" s="38"/>
-      <c r="BQ43" s="38"/>
-      <c r="BR43" s="38"/>
-      <c r="BS43" s="38"/>
-      <c r="BT43" s="38"/>
-      <c r="BU43" s="38"/>
-      <c r="BV43" s="38"/>
-      <c r="BW43" s="38"/>
-      <c r="BX43" s="38"/>
-      <c r="BY43" s="38"/>
-      <c r="BZ43" s="38"/>
-      <c r="CA43" s="38"/>
-      <c r="CB43" s="38"/>
-      <c r="CC43" s="38"/>
-      <c r="CD43" s="38"/>
-      <c r="CE43" s="38"/>
-      <c r="CF43" s="38"/>
-      <c r="CG43" s="38"/>
-      <c r="CH43" s="38"/>
-      <c r="CI43" s="85"/>
+      <c r="AT43" s="41"/>
+      <c r="AU43" s="41"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="41"/>
+      <c r="AX43" s="41"/>
+      <c r="AY43" s="41"/>
+      <c r="AZ43" s="41"/>
+      <c r="BA43" s="41"/>
+      <c r="BB43" s="41"/>
+      <c r="BC43" s="41"/>
+      <c r="BD43" s="41"/>
+      <c r="BE43" s="41"/>
+      <c r="BF43" s="41"/>
+      <c r="BG43" s="41"/>
+      <c r="BH43" s="41"/>
+      <c r="BI43" s="41"/>
+      <c r="BJ43" s="41"/>
+      <c r="BK43" s="41"/>
+      <c r="BL43" s="41"/>
+      <c r="BM43" s="41"/>
+      <c r="BN43" s="41"/>
+      <c r="BO43" s="41"/>
+      <c r="BP43" s="41"/>
+      <c r="BQ43" s="41"/>
+      <c r="BR43" s="41"/>
+      <c r="BS43" s="41"/>
+      <c r="BT43" s="41"/>
+      <c r="BU43" s="41"/>
+      <c r="BV43" s="41"/>
+      <c r="BW43" s="41"/>
+      <c r="BX43" s="41"/>
+      <c r="BY43" s="41"/>
+      <c r="BZ43" s="41"/>
+      <c r="CA43" s="41"/>
+      <c r="CB43" s="41"/>
+      <c r="CC43" s="41"/>
+      <c r="CD43" s="41"/>
+      <c r="CE43" s="41"/>
+      <c r="CF43" s="41"/>
+      <c r="CG43" s="41"/>
+      <c r="CH43" s="41"/>
+      <c r="CI43" s="42"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
@@ -68100,6 +68103,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="E43:X43"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:X33"/>
+    <mergeCell ref="Y33:BK33"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:BK27"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:X31"/>
+    <mergeCell ref="Y31:BK31"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:BK25"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:X35"/>
+    <mergeCell ref="Y35:BK35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Y14:BK14"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="Y16:BK16"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="Y15:BK15"/>
     <mergeCell ref="AS42:CI42"/>
     <mergeCell ref="AS43:CI43"/>
     <mergeCell ref="B41:CI41"/>
@@ -68116,84 +68197,6 @@
     <mergeCell ref="J34:X34"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:X32"/>
-    <mergeCell ref="Y14:BK14"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="Y16:BK16"/>
-    <mergeCell ref="Y30:BK30"/>
-    <mergeCell ref="Y15:BK15"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:X35"/>
-    <mergeCell ref="Y35:BK35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="Y36:BK36"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:BK25"/>
-    <mergeCell ref="E43:X43"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:X33"/>
-    <mergeCell ref="Y33:BK33"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:BK27"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:X31"/>
-    <mergeCell ref="Y31:BK31"/>
-    <mergeCell ref="G37:I37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
